--- a/my.data.xlsx
+++ b/my.data.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakvist/Desktop/P5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakvist/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6836B0E1-28D6-AF40-A1AD-C9DB4628718D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E274863-0D3F-5348-BA78-BEE460B444F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="my.data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -30,9 +39,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Deaths</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -51,39 +57,15 @@
     <t>GDP</t>
   </si>
   <si>
-    <t xml:space="preserve">Cardiovasc </t>
-  </si>
-  <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
     <t>Smokers</t>
   </si>
   <si>
     <t>HDI</t>
   </si>
   <si>
-    <t>COPD</t>
-  </si>
-  <si>
-    <t>CKD</t>
-  </si>
-  <si>
-    <t>Health_exp</t>
-  </si>
-  <si>
     <t>Obesity</t>
   </si>
   <si>
-    <t>Organ_transplant</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>Cancer</t>
-  </si>
-  <si>
     <t>Gini</t>
   </si>
   <si>
@@ -244,12 +226,39 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>deaths_per</t>
+  </si>
+  <si>
+    <t>cardiovasc_per</t>
+  </si>
+  <si>
+    <t>diabetes_per</t>
+  </si>
+  <si>
+    <t>COPD_per</t>
+  </si>
+  <si>
+    <t>CKD_per</t>
+  </si>
+  <si>
+    <t>health_exp</t>
+  </si>
+  <si>
+    <t>organ_per</t>
+  </si>
+  <si>
+    <t>asthma_per</t>
+  </si>
+  <si>
+    <t>cancer_per</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1083,10 +1092,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1095,69 +1106,69 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>2036</v>
+        <v>4.6429910458458193E-3</v>
       </c>
       <c r="C2">
         <v>43851043</v>
@@ -1178,37 +1189,37 @@
         <v>13913.84</v>
       </c>
       <c r="I2">
-        <v>6334.97</v>
+        <v>6.3349700000000002</v>
       </c>
       <c r="J2">
-        <v>6714.99</v>
+        <v>6.7149899999999993</v>
       </c>
       <c r="K2">
         <v>15.6</v>
       </c>
       <c r="L2">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="M2">
-        <v>1502.49</v>
+        <v>1.5024900000000001</v>
       </c>
       <c r="N2">
-        <v>3772933.92</v>
+        <v>8.6039776066443849</v>
       </c>
       <c r="O2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="P2">
         <v>27.4</v>
       </c>
       <c r="Q2">
-        <v>282</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="R2">
-        <v>3135</v>
+        <v>3.1349999999999998</v>
       </c>
       <c r="S2">
-        <v>203242.36</v>
+        <v>0.46348352535195114</v>
       </c>
       <c r="T2">
         <v>27.6</v>
@@ -1216,10 +1227,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>33348</v>
+        <v>7.3785654796907241E-2</v>
       </c>
       <c r="C3">
         <v>45195777</v>
@@ -1240,37 +1251,37 @@
         <v>18933.91</v>
       </c>
       <c r="I3">
-        <v>5952.76</v>
+        <v>5.9527600000000005</v>
       </c>
       <c r="J3">
-        <v>5636.39</v>
+        <v>5.6363900000000005</v>
       </c>
       <c r="K3">
         <v>21.8</v>
       </c>
       <c r="L3">
-        <v>0.83</v>
+        <v>83</v>
       </c>
       <c r="M3">
-        <v>3478.84</v>
+        <v>3.4788399999999999</v>
       </c>
       <c r="N3">
-        <v>3663547.73</v>
+        <v>8.105951425505971</v>
       </c>
       <c r="O3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="P3">
         <v>28.3</v>
       </c>
       <c r="Q3">
-        <v>2417</v>
+        <v>2.4169999999999998</v>
       </c>
       <c r="R3">
-        <v>7170.4</v>
+        <v>7.1703999999999999</v>
       </c>
       <c r="S3">
-        <v>545859.04</v>
+        <v>1.2077655839394024</v>
       </c>
       <c r="T3">
         <v>41.4</v>
@@ -1278,10 +1289,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>1559</v>
+        <v>5.2611437368766688E-2</v>
       </c>
       <c r="C4">
         <v>2963234</v>
@@ -1302,37 +1313,37 @@
         <v>8787.58</v>
       </c>
       <c r="I4">
-        <v>9991.01</v>
+        <v>9.9910100000000011</v>
       </c>
       <c r="J4">
-        <v>7135.14</v>
+        <v>7.1351400000000007</v>
       </c>
       <c r="K4">
         <v>24.1</v>
       </c>
       <c r="L4">
-        <v>0.76</v>
+        <v>76</v>
       </c>
       <c r="M4">
-        <v>3096.97</v>
+        <v>3.0969699999999998</v>
       </c>
       <c r="N4">
-        <v>350496.53</v>
+        <v>11.828175905109081</v>
       </c>
       <c r="O4">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="P4">
         <v>20.2</v>
       </c>
       <c r="Q4">
-        <v>23</v>
+        <v>2.3E-2</v>
       </c>
       <c r="R4">
-        <v>2060.34</v>
+        <v>2.0603400000000001</v>
       </c>
       <c r="S4">
-        <v>37262.730000000003</v>
+        <v>1.257502107494717</v>
       </c>
       <c r="T4">
         <v>34.4</v>
@@ -1340,10 +1351,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>907</v>
+        <v>3.5568793438683103E-3</v>
       </c>
       <c r="C5">
         <v>25499881</v>
@@ -1364,37 +1375,37 @@
         <v>44648.71</v>
       </c>
       <c r="I5">
-        <v>10521.63</v>
+        <v>10.52163</v>
       </c>
       <c r="J5">
-        <v>5320.97</v>
+        <v>5.32097</v>
       </c>
       <c r="K5">
         <v>14.7</v>
       </c>
       <c r="L5">
-        <v>0.94</v>
+        <v>94</v>
       </c>
       <c r="M5">
-        <v>5228.8</v>
+        <v>5.2288000000000006</v>
       </c>
       <c r="N5">
-        <v>2486707.2400000002</v>
+        <v>9.7518386066193816</v>
       </c>
       <c r="O5">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="P5">
         <v>29</v>
       </c>
       <c r="Q5">
-        <v>1741</v>
+        <v>1.7410000000000001</v>
       </c>
       <c r="R5">
-        <v>8332.27</v>
+        <v>8.3322700000000012</v>
       </c>
       <c r="S5">
-        <v>972873.51</v>
+        <v>3.8152080395983021</v>
       </c>
       <c r="T5">
         <v>34.4</v>
@@ -1402,10 +1413,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>1318</v>
+        <v>1.4634038017409843E-2</v>
       </c>
       <c r="C6">
         <v>9006400</v>
@@ -1426,37 +1437,37 @@
         <v>45436.69</v>
       </c>
       <c r="I6">
-        <v>11877.07</v>
+        <v>11.87707</v>
       </c>
       <c r="J6">
-        <v>6823.2</v>
+        <v>6.8231999999999999</v>
       </c>
       <c r="K6">
         <v>29.6</v>
       </c>
       <c r="L6">
-        <v>0.91</v>
+        <v>91</v>
       </c>
       <c r="M6">
-        <v>5884.07</v>
+        <v>5.8840699999999995</v>
       </c>
       <c r="N6">
-        <v>980331.46</v>
+        <v>10.884831453188843</v>
       </c>
       <c r="O6">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="P6">
         <v>20.100000000000001</v>
       </c>
       <c r="Q6">
-        <v>720</v>
+        <v>0.72</v>
       </c>
       <c r="R6">
-        <v>5493.78</v>
+        <v>5.4937800000000001</v>
       </c>
       <c r="S6">
-        <v>290814.96000000002</v>
+        <v>3.2289811689465271</v>
       </c>
       <c r="T6">
         <v>29.7</v>
@@ -1464,10 +1475,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>13203</v>
+        <v>0.11392094440402512</v>
       </c>
       <c r="C7">
         <v>11589616</v>
@@ -1488,37 +1499,37 @@
         <v>42658.58</v>
       </c>
       <c r="I7">
-        <v>10359.61</v>
+        <v>10.35961</v>
       </c>
       <c r="J7">
-        <v>7170.28</v>
+        <v>7.17028</v>
       </c>
       <c r="K7">
         <v>28.2</v>
       </c>
       <c r="L7">
-        <v>0.92</v>
+        <v>92</v>
       </c>
       <c r="M7">
-        <v>7470</v>
+        <v>7.47</v>
       </c>
       <c r="N7">
-        <v>1183864.58</v>
+        <v>10.214873210639594</v>
       </c>
       <c r="O7">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="P7">
         <v>22.1</v>
       </c>
       <c r="Q7">
-        <v>934</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="R7">
-        <v>4751.2299999999996</v>
+        <v>4.7512299999999996</v>
       </c>
       <c r="S7">
-        <v>357881.73</v>
+        <v>3.0879515766527552</v>
       </c>
       <c r="T7">
         <v>27.4</v>
@@ -1526,10 +1537,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>162269</v>
+        <v>7.634053969354046E-2</v>
       </c>
       <c r="C8">
         <v>212559409</v>
@@ -1550,37 +1561,37 @@
         <v>14103.45</v>
       </c>
       <c r="I8">
-        <v>5883.25</v>
+        <v>5.8832500000000003</v>
       </c>
       <c r="J8">
-        <v>5541.75</v>
+        <v>5.5417500000000004</v>
       </c>
       <c r="K8">
         <v>13.9</v>
       </c>
       <c r="L8">
-        <v>0.76</v>
+        <v>76</v>
       </c>
       <c r="M8">
-        <v>2874.61</v>
+        <v>2.8746100000000001</v>
       </c>
       <c r="N8">
-        <v>17401507.98</v>
+        <v>8.1866561738511425</v>
       </c>
       <c r="O8">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="P8">
         <v>22.1</v>
       </c>
       <c r="Q8">
-        <v>9232</v>
+        <v>9.2319999999999993</v>
       </c>
       <c r="R8">
-        <v>4393.9799999999996</v>
+        <v>4.39398</v>
       </c>
       <c r="S8">
-        <v>1712421.31</v>
+        <v>0.80562009372165699</v>
       </c>
       <c r="T8">
         <v>53.9</v>
@@ -1588,10 +1599,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>1632</v>
+        <v>2.3487269453813048E-2</v>
       </c>
       <c r="C9">
         <v>6948445</v>
@@ -1612,37 +1623,37 @@
         <v>18563.310000000001</v>
       </c>
       <c r="I9">
-        <v>14464.09</v>
+        <v>14.464090000000001</v>
       </c>
       <c r="J9">
-        <v>9068.6200000000008</v>
+        <v>9.068620000000001</v>
       </c>
       <c r="K9">
         <v>37</v>
       </c>
       <c r="L9">
-        <v>0.81</v>
+        <v>81</v>
       </c>
       <c r="M9">
-        <v>4831.62</v>
+        <v>4.83162</v>
       </c>
       <c r="N9">
-        <v>943474.54</v>
+        <v>13.578211240068821</v>
       </c>
       <c r="O9">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="P9">
         <v>25</v>
       </c>
       <c r="Q9">
-        <v>53</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="R9">
-        <v>3760.88</v>
+        <v>3.7608800000000002</v>
       </c>
       <c r="S9">
-        <v>177372.9</v>
+        <v>2.5526992010442626</v>
       </c>
       <c r="T9">
         <v>40.4</v>
@@ -1650,10 +1661,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>10490</v>
+        <v>2.7793853965474204E-2</v>
       </c>
       <c r="C10">
         <v>37742157</v>
@@ -1674,37 +1685,37 @@
         <v>44017.59</v>
       </c>
       <c r="I10">
-        <v>11771.44</v>
+        <v>11.77144</v>
       </c>
       <c r="J10">
-        <v>5546.97</v>
+        <v>5.54697</v>
       </c>
       <c r="K10">
         <v>14.3</v>
       </c>
       <c r="L10">
-        <v>0.93</v>
+        <v>93</v>
       </c>
       <c r="M10">
-        <v>4978.88</v>
+        <v>4.9788800000000002</v>
       </c>
       <c r="N10">
-        <v>3729185.77</v>
+        <v>9.8806906293140582</v>
       </c>
       <c r="O10">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="P10">
         <v>29.4</v>
       </c>
       <c r="Q10">
-        <v>3091</v>
+        <v>3.0910000000000002</v>
       </c>
       <c r="R10">
-        <v>4519.01</v>
+        <v>4.5190100000000006</v>
       </c>
       <c r="S10">
-        <v>2240623.27</v>
+        <v>5.9366592905646591</v>
       </c>
       <c r="T10">
         <v>33.299999999999997</v>
@@ -1712,10 +1723,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>14499</v>
+        <v>7.5846628376996711E-2</v>
       </c>
       <c r="C11">
         <v>19116209</v>
@@ -1736,37 +1747,37 @@
         <v>22767.040000000001</v>
       </c>
       <c r="I11">
-        <v>6003.17</v>
+        <v>6.0031699999999999</v>
       </c>
       <c r="J11">
-        <v>7503.46</v>
+        <v>7.5034600000000005</v>
       </c>
       <c r="K11">
         <v>37.799999999999997</v>
       </c>
       <c r="L11">
-        <v>0.84</v>
+        <v>84</v>
       </c>
       <c r="M11">
-        <v>2759.1</v>
+        <v>2.7591000000000001</v>
       </c>
       <c r="N11">
-        <v>1740148.64</v>
+        <v>9.1030007047945531</v>
       </c>
       <c r="O11">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="P11">
         <v>28</v>
       </c>
       <c r="Q11">
-        <v>651</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="R11">
-        <v>5444.31</v>
+        <v>5.4443100000000006</v>
       </c>
       <c r="S11">
-        <v>248982.3</v>
+        <v>1.3024669274122289</v>
       </c>
       <c r="T11">
         <v>44.4</v>
@@ -1774,10 +1785,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>4739</v>
+        <v>3.2925183934327205E-4</v>
       </c>
       <c r="C12">
         <v>1439323774</v>
@@ -1798,37 +1809,37 @@
         <v>15308.71</v>
       </c>
       <c r="I12">
-        <v>8460.08</v>
+        <v>8.4600799999999996</v>
       </c>
       <c r="J12">
-        <v>6328.79</v>
+        <v>6.3287899999999997</v>
       </c>
       <c r="K12">
         <v>25.6</v>
       </c>
       <c r="L12">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="M12">
-        <v>3175.37</v>
+        <v>3.17537</v>
       </c>
       <c r="N12">
-        <v>150497489.59999999</v>
+        <v>10.456124766268191</v>
       </c>
       <c r="O12">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="P12">
         <v>6.2</v>
       </c>
       <c r="Q12">
-        <v>19462</v>
+        <v>19.462</v>
       </c>
       <c r="R12">
-        <v>1741.27</v>
+        <v>1.7412699999999999</v>
       </c>
       <c r="S12">
-        <v>22421327.890000001</v>
+        <v>1.5577681891329616</v>
       </c>
       <c r="T12">
         <v>38.5</v>
@@ -1836,10 +1847,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>32595</v>
+        <v>6.4058868990208961E-2</v>
       </c>
       <c r="C13">
         <v>50882884</v>
@@ -1860,37 +1871,37 @@
         <v>13254.95</v>
       </c>
       <c r="I13">
-        <v>4773.92</v>
+        <v>4.7739200000000004</v>
       </c>
       <c r="J13">
-        <v>7432.92</v>
+        <v>7.4329200000000002</v>
       </c>
       <c r="K13">
         <v>9</v>
       </c>
       <c r="L13">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="M13">
-        <v>2761.77</v>
+        <v>2.7617699999999998</v>
       </c>
       <c r="N13">
-        <v>5218661.6100000003</v>
+        <v>10.256222131591441</v>
       </c>
       <c r="O13">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="P13">
         <v>22.3</v>
       </c>
       <c r="Q13">
-        <v>1318</v>
+        <v>1.3180000000000001</v>
       </c>
       <c r="R13">
-        <v>3247.17</v>
+        <v>3.2471700000000001</v>
       </c>
       <c r="S13">
-        <v>439379.82</v>
+        <v>0.86351202105603919</v>
       </c>
       <c r="T13">
         <v>50.4</v>
@@ -1898,10 +1909,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>1464</v>
+        <v>2.8739050598396501E-2</v>
       </c>
       <c r="C14">
         <v>5094114</v>
@@ -1922,37 +1933,37 @@
         <v>15525</v>
       </c>
       <c r="I14">
-        <v>5769.9</v>
+        <v>5.7698999999999998</v>
       </c>
       <c r="J14">
-        <v>8000.82</v>
+        <v>8.0008199999999992</v>
       </c>
       <c r="K14">
         <v>11.9</v>
       </c>
       <c r="L14">
-        <v>0.79</v>
+        <v>79</v>
       </c>
       <c r="M14">
-        <v>2266.54</v>
+        <v>2.26654</v>
       </c>
       <c r="N14">
-        <v>660836.43999999994</v>
+        <v>12.972549102748779</v>
       </c>
       <c r="O14">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="P14">
         <v>25.7</v>
       </c>
       <c r="Q14">
-        <v>106</v>
+        <v>0.106</v>
       </c>
       <c r="R14">
-        <v>5229.28</v>
+        <v>5.2292800000000002</v>
       </c>
       <c r="S14">
-        <v>61778.75</v>
+        <v>1.2127476927292951</v>
       </c>
       <c r="T14">
         <v>48</v>
@@ -1960,10 +1971,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>752</v>
+        <v>1.8317927112188534E-2</v>
       </c>
       <c r="C15">
         <v>4105268</v>
@@ -1984,37 +1995,37 @@
         <v>22669.8</v>
       </c>
       <c r="I15">
-        <v>13209.46</v>
+        <v>13.20946</v>
       </c>
       <c r="J15">
-        <v>10230.82</v>
+        <v>10.23082</v>
       </c>
       <c r="K15">
         <v>37</v>
       </c>
       <c r="L15">
-        <v>0.83</v>
+        <v>83</v>
       </c>
       <c r="M15">
-        <v>5163.59</v>
+        <v>5.1635900000000001</v>
       </c>
       <c r="N15">
-        <v>580414.94999999995</v>
+        <v>14.138296208676266</v>
       </c>
       <c r="O15">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="P15">
         <v>24.4</v>
       </c>
       <c r="Q15">
-        <v>301</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="R15">
-        <v>4427.5600000000004</v>
+        <v>4.4275600000000006</v>
       </c>
       <c r="S15">
-        <v>139083.66</v>
+        <v>3.3879313116707612</v>
       </c>
       <c r="T15">
         <v>30.4</v>
@@ -2022,10 +2033,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>27</v>
+        <v>3.0825471886598795E-3</v>
       </c>
       <c r="C16">
         <v>875899</v>
@@ -2046,37 +2057,37 @@
         <v>32415.13</v>
       </c>
       <c r="I16">
-        <v>7447.75</v>
+        <v>7.4477500000000001</v>
       </c>
       <c r="J16">
-        <v>8495.25</v>
+        <v>8.4952500000000004</v>
       </c>
       <c r="K16">
         <v>36.4</v>
       </c>
       <c r="L16">
-        <v>0.87</v>
+        <v>87</v>
       </c>
       <c r="M16">
-        <v>3921.65</v>
+        <v>3.9216500000000001</v>
       </c>
       <c r="N16">
-        <v>115294.24</v>
+        <v>13.162960569654722</v>
       </c>
       <c r="O16">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="P16">
         <v>21.8</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R16">
-        <v>7577.2</v>
+        <v>7.5771999999999995</v>
       </c>
       <c r="S16">
-        <v>29335.94</v>
+        <v>3.3492377545812926</v>
       </c>
       <c r="T16">
         <v>31.4</v>
@@ -2084,10 +2095,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>4681</v>
+        <v>4.3710970846715401E-2</v>
       </c>
       <c r="C17">
         <v>10708982</v>
@@ -2108,37 +2119,37 @@
         <v>32605.91</v>
       </c>
       <c r="I17">
-        <v>14393.11</v>
+        <v>14.39311</v>
       </c>
       <c r="J17">
-        <v>15199.03</v>
+        <v>15.19903</v>
       </c>
       <c r="K17">
         <v>34.299999999999997</v>
       </c>
       <c r="L17">
-        <v>0.89</v>
+        <v>89</v>
       </c>
       <c r="M17">
-        <v>4603.28</v>
+        <v>4.6032799999999998</v>
       </c>
       <c r="N17">
-        <v>1303238.6299999999</v>
+        <v>12.169584653331194</v>
       </c>
       <c r="O17">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="P17">
         <v>26</v>
       </c>
       <c r="Q17">
-        <v>865</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="R17">
-        <v>3072.79</v>
+        <v>3.0727899999999999</v>
       </c>
       <c r="S17">
-        <v>332365.18</v>
+        <v>3.1036113423292706</v>
       </c>
       <c r="T17">
         <v>24.9</v>
@@ -2146,10 +2157,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B18">
-        <v>740</v>
+        <v>1.2775795323471915E-2</v>
       </c>
       <c r="C18">
         <v>5792203</v>
@@ -2170,37 +2181,37 @@
         <v>46682.52</v>
       </c>
       <c r="I18">
-        <v>10669.84</v>
+        <v>10.669840000000001</v>
       </c>
       <c r="J18">
-        <v>6175.82</v>
+        <v>6.1758199999999999</v>
       </c>
       <c r="K18">
         <v>19.100000000000001</v>
       </c>
       <c r="L18">
-        <v>0.93</v>
+        <v>93</v>
       </c>
       <c r="M18">
-        <v>8200.25</v>
+        <v>8.2002500000000005</v>
       </c>
       <c r="N18">
-        <v>579903.92000000004</v>
+        <v>10.011802417836531</v>
       </c>
       <c r="O18">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="P18">
         <v>19.7</v>
       </c>
       <c r="Q18">
-        <v>406</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="R18">
-        <v>4866.24</v>
+        <v>4.8662399999999995</v>
       </c>
       <c r="S18">
-        <v>217934.28</v>
+        <v>3.7625456152002958</v>
       </c>
       <c r="T18">
         <v>28.7</v>
@@ -2208,10 +2219,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B19">
-        <v>2263</v>
+        <v>2.0861172812738756E-2</v>
       </c>
       <c r="C19">
         <v>10847904</v>
@@ -2232,37 +2243,37 @@
         <v>14600.86</v>
       </c>
       <c r="I19">
-        <v>5825.27</v>
+        <v>5.8252700000000006</v>
       </c>
       <c r="J19">
-        <v>3972.17</v>
+        <v>3.9721700000000002</v>
       </c>
       <c r="K19">
         <v>13.7</v>
       </c>
       <c r="L19">
-        <v>0.74</v>
+        <v>74</v>
       </c>
       <c r="M19">
-        <v>1188.02</v>
+        <v>1.1880200000000001</v>
       </c>
       <c r="N19">
-        <v>790697.22</v>
+        <v>7.2889400569916551</v>
       </c>
       <c r="O19">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="P19">
         <v>27.6</v>
       </c>
       <c r="Q19">
-        <v>91</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="R19">
-        <v>3861.04</v>
+        <v>3.86104</v>
       </c>
       <c r="S19">
-        <v>68699.75</v>
+        <v>0.63329976002737487</v>
       </c>
       <c r="T19">
         <v>43.7</v>
@@ -2270,10 +2281,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>12815</v>
+        <v>7.2634792377286025E-2</v>
       </c>
       <c r="C20">
         <v>17643060</v>
@@ -2294,37 +2305,37 @@
         <v>10581.94</v>
       </c>
       <c r="I20">
-        <v>3957.24</v>
+        <v>3.9572399999999996</v>
       </c>
       <c r="J20">
-        <v>4833.53</v>
+        <v>4.8335299999999997</v>
       </c>
       <c r="K20">
         <v>7.1</v>
       </c>
       <c r="L20">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="M20">
-        <v>1235.07</v>
+        <v>1.2350699999999999</v>
       </c>
       <c r="N20">
-        <v>1379176.09</v>
+        <v>7.8171025321004413</v>
       </c>
       <c r="O20">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="P20">
         <v>19.899999999999999</v>
       </c>
       <c r="Q20">
-        <v>262</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="R20">
-        <v>4002.4</v>
+        <v>4.0023999999999997</v>
       </c>
       <c r="S20">
-        <v>100582.95</v>
+        <v>0.57009923448653466</v>
       </c>
       <c r="T20">
         <v>45.4</v>
@@ -2332,10 +2343,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>73</v>
+        <v>5.5030421269182438E-3</v>
       </c>
       <c r="C21">
         <v>1326539</v>
@@ -2356,37 +2367,37 @@
         <v>29481.25</v>
       </c>
       <c r="I21">
-        <v>15042.89</v>
+        <v>15.04289</v>
       </c>
       <c r="J21">
-        <v>6172.23</v>
+        <v>6.1722299999999999</v>
       </c>
       <c r="K21">
         <v>31.3</v>
       </c>
       <c r="L21">
-        <v>0.87</v>
+        <v>87</v>
       </c>
       <c r="M21">
-        <v>2422.44</v>
+        <v>2.4224399999999999</v>
       </c>
       <c r="N21">
-        <v>210095.18</v>
+        <v>15.837844194554402</v>
       </c>
       <c r="O21">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="P21">
         <v>21.2</v>
       </c>
       <c r="Q21">
-        <v>56</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="R21">
-        <v>1990.95</v>
+        <v>1.99095</v>
       </c>
       <c r="S21">
-        <v>40622.04</v>
+        <v>3.0622574986487394</v>
       </c>
       <c r="T21">
         <v>30.4</v>
@@ -2394,10 +2405,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>362</v>
+        <v>6.5334492749856603E-3</v>
       </c>
       <c r="C22">
         <v>5540718</v>
@@ -2418,37 +2429,37 @@
         <v>40585.72</v>
       </c>
       <c r="I22">
-        <v>11583.13</v>
+        <v>11.583129999999999</v>
       </c>
       <c r="J22">
-        <v>10452.879999999999</v>
+        <v>10.452879999999999</v>
       </c>
       <c r="K22">
         <v>20.399999999999999</v>
       </c>
       <c r="L22">
-        <v>0.92</v>
+        <v>92</v>
       </c>
       <c r="M22">
-        <v>4398.66</v>
+        <v>4.3986599999999996</v>
       </c>
       <c r="N22">
-        <v>535441.44999999995</v>
+        <v>9.663755672098814</v>
       </c>
       <c r="O22">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="P22">
         <v>22.2</v>
       </c>
       <c r="Q22">
-        <v>453</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="R22">
-        <v>6905.69</v>
+        <v>6.9056899999999999</v>
       </c>
       <c r="S22">
-        <v>207472.63</v>
+        <v>3.7445080222454923</v>
       </c>
       <c r="T22">
         <v>27.4</v>
@@ -2456,10 +2467,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>40169</v>
+        <v>6.1539510850894624E-2</v>
       </c>
       <c r="C23">
         <v>65273512</v>
@@ -2480,37 +2491,37 @@
         <v>38605.67</v>
       </c>
       <c r="I23">
-        <v>10238.629999999999</v>
+        <v>10.238629999999999</v>
       </c>
       <c r="J23">
-        <v>4364.83</v>
+        <v>4.3648299999999995</v>
       </c>
       <c r="K23">
         <v>32.700000000000003</v>
       </c>
       <c r="L23">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="M23">
-        <v>3841.88</v>
+        <v>3.8418800000000002</v>
       </c>
       <c r="N23">
-        <v>6525468.1399999997</v>
+        <v>9.9971151238192899</v>
       </c>
       <c r="O23">
-        <v>0.12</v>
+        <v>12</v>
       </c>
       <c r="P23">
         <v>21.6</v>
       </c>
       <c r="Q23">
-        <v>5910</v>
+        <v>5.91</v>
       </c>
       <c r="R23">
-        <v>6955.82</v>
+        <v>6.9558200000000001</v>
       </c>
       <c r="S23">
-        <v>2009937.46</v>
+        <v>3.0792543535883286</v>
       </c>
       <c r="T23">
         <v>31.6</v>
@@ -2518,10 +2529,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>475</v>
+        <v>1.1907223924746345E-2</v>
       </c>
       <c r="C24">
         <v>3989175</v>
@@ -2542,37 +2553,37 @@
         <v>9745.08</v>
       </c>
       <c r="I24">
-        <v>12927.4</v>
+        <v>12.9274</v>
       </c>
       <c r="J24">
-        <v>9437.7999999999993</v>
+        <v>9.4377999999999993</v>
       </c>
       <c r="K24">
         <v>28.8</v>
       </c>
       <c r="L24">
-        <v>0.78</v>
+        <v>78</v>
       </c>
       <c r="M24">
-        <v>3623.73</v>
+        <v>3.6237300000000001</v>
       </c>
       <c r="N24">
-        <v>461026.67</v>
+        <v>11.55694272625292</v>
       </c>
       <c r="O24">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="P24">
         <v>21.7</v>
       </c>
       <c r="Q24">
-        <v>44</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="R24">
-        <v>1898.68</v>
+        <v>1.8986800000000001</v>
       </c>
       <c r="S24">
-        <v>52206.15</v>
+        <v>1.3086954069450449</v>
       </c>
       <c r="T24">
         <v>36.4</v>
@@ -2580,10 +2591,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>11289</v>
+        <v>1.3473941815463571E-2</v>
       </c>
       <c r="C25">
         <v>83783945</v>
@@ -2604,37 +2615,37 @@
         <v>45229.25</v>
       </c>
       <c r="I25">
-        <v>11977.15</v>
+        <v>11.97715</v>
       </c>
       <c r="J25">
-        <v>12408.98</v>
+        <v>12.40898</v>
       </c>
       <c r="K25">
         <v>30.6</v>
       </c>
       <c r="L25">
-        <v>0.94</v>
+        <v>94</v>
       </c>
       <c r="M25">
-        <v>7219.94</v>
+        <v>7.2199399999999994</v>
       </c>
       <c r="N25">
-        <v>9925181.8499999996</v>
+        <v>11.846161994401195</v>
       </c>
       <c r="O25">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="P25">
         <v>22.3</v>
       </c>
       <c r="Q25">
-        <v>3767</v>
+        <v>3.7669999999999999</v>
       </c>
       <c r="R25">
-        <v>4250.71</v>
+        <v>4.2507099999999998</v>
       </c>
       <c r="S25">
-        <v>3211739.24</v>
+        <v>3.8333588135531218</v>
       </c>
       <c r="T25">
         <v>31.9</v>
@@ -2642,10 +2653,10 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>749</v>
+        <v>7.1859922847963215E-3</v>
       </c>
       <c r="C26">
         <v>10423056</v>
@@ -2666,37 +2677,37 @@
         <v>24574.38</v>
       </c>
       <c r="I26">
-        <v>10886.12</v>
+        <v>10.88612</v>
       </c>
       <c r="J26">
-        <v>8268.01</v>
+        <v>8.2680100000000003</v>
       </c>
       <c r="K26">
         <v>43.4</v>
       </c>
       <c r="L26">
-        <v>0.87</v>
+        <v>87</v>
       </c>
       <c r="M26">
-        <v>6360.71</v>
+        <v>6.3607100000000001</v>
       </c>
       <c r="N26">
-        <v>1447104.85</v>
+        <v>13.883690637371613</v>
       </c>
       <c r="O26">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="P26">
         <v>24.9</v>
       </c>
       <c r="Q26">
-        <v>226</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="R26">
-        <v>5717.91</v>
+        <v>5.7179099999999998</v>
       </c>
       <c r="S26">
-        <v>307805.14</v>
+        <v>2.9531179723106162</v>
       </c>
       <c r="T26">
         <v>34.4</v>
@@ -2704,10 +2715,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B27">
-        <v>2438</v>
+        <v>2.523718084748482E-2</v>
       </c>
       <c r="C27">
         <v>9660350</v>
@@ -2728,37 +2739,37 @@
         <v>26777.56</v>
       </c>
       <c r="I27">
-        <v>14638.54</v>
+        <v>14.638540000000001</v>
       </c>
       <c r="J27">
-        <v>10162.549999999999</v>
+        <v>10.16255</v>
       </c>
       <c r="K27">
         <v>30.6</v>
       </c>
       <c r="L27">
-        <v>0.84</v>
+        <v>84</v>
       </c>
       <c r="M27">
-        <v>6328.37</v>
+        <v>6.3283699999999996</v>
       </c>
       <c r="N27">
-        <v>1232146.55</v>
+        <v>12.754678143131459</v>
       </c>
       <c r="O27">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="P27">
         <v>26.4</v>
       </c>
       <c r="Q27">
-        <v>440</v>
+        <v>0.44</v>
       </c>
       <c r="R27">
-        <v>3320.4</v>
+        <v>3.3204000000000002</v>
       </c>
       <c r="S27">
-        <v>253534.95</v>
+        <v>2.6244903134979585</v>
       </c>
       <c r="T27">
         <v>30.6</v>
@@ -2766,10 +2777,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>5.2747252747252747E-3</v>
       </c>
       <c r="C28">
         <v>341250</v>
@@ -2790,37 +2801,37 @@
         <v>46482.96</v>
       </c>
       <c r="I28">
-        <v>8018.43</v>
+        <v>8.0184300000000004</v>
       </c>
       <c r="J28">
-        <v>6182.87</v>
+        <v>6.1828700000000003</v>
       </c>
       <c r="K28">
         <v>14.7</v>
       </c>
       <c r="L28">
-        <v>0.94</v>
+        <v>94</v>
       </c>
       <c r="M28">
-        <v>4648.8500000000004</v>
+        <v>4.6488500000000004</v>
       </c>
       <c r="N28">
-        <v>25792.03</v>
+        <v>7.5581040293040287</v>
       </c>
       <c r="O28">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="P28">
         <v>21.9</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="R28">
-        <v>7418.25</v>
+        <v>7.4182499999999996</v>
       </c>
       <c r="S28">
-        <v>10656.74</v>
+        <v>3.1228542124542127</v>
       </c>
       <c r="T28">
         <v>26.8</v>
@@ -2828,10 +2839,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>126121</v>
+        <v>9.1391738584946595E-3</v>
       </c>
       <c r="C29">
         <v>1380004385</v>
@@ -2852,37 +2863,37 @@
         <v>6426.67</v>
       </c>
       <c r="I29">
-        <v>5114.6899999999996</v>
+        <v>5.1146899999999995</v>
       </c>
       <c r="J29">
-        <v>5885.54</v>
+        <v>5.8855399999999998</v>
       </c>
       <c r="K29">
         <v>11.4</v>
       </c>
       <c r="L29">
-        <v>0.64</v>
+        <v>64</v>
       </c>
       <c r="M29">
-        <v>2723.41</v>
+        <v>2.7234099999999999</v>
       </c>
       <c r="N29">
-        <v>115223088.2</v>
+        <v>8.349472614175788</v>
       </c>
       <c r="O29">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="P29">
         <v>3.9</v>
       </c>
       <c r="Q29">
-        <v>12666</v>
+        <v>12.666</v>
       </c>
       <c r="R29">
-        <v>2466.8000000000002</v>
+        <v>2.4668000000000001</v>
       </c>
       <c r="S29">
-        <v>3639595.15</v>
+        <v>0.26373794094864417</v>
       </c>
       <c r="T29">
         <v>35.700000000000003</v>
@@ -2890,10 +2901,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>1945</v>
+        <v>3.9390043655104422E-2</v>
       </c>
       <c r="C30">
         <v>4937796</v>
@@ -2914,37 +2925,37 @@
         <v>67335.289999999994</v>
       </c>
       <c r="I30">
-        <v>8072.07</v>
+        <v>8.0720700000000001</v>
       </c>
       <c r="J30">
-        <v>5825.83</v>
+        <v>5.8258299999999998</v>
       </c>
       <c r="K30">
         <v>24.3</v>
       </c>
       <c r="L30">
-        <v>0.94</v>
+        <v>94</v>
       </c>
       <c r="M30">
-        <v>5444.79</v>
+        <v>5.4447900000000002</v>
       </c>
       <c r="N30">
-        <v>727859.16</v>
+        <v>14.740567654070762</v>
       </c>
       <c r="O30">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="P30">
         <v>25.3</v>
       </c>
       <c r="Q30">
-        <v>274</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="R30">
-        <v>6992.97</v>
+        <v>6.9929700000000006</v>
       </c>
       <c r="S30">
-        <v>140823.39000000001</v>
+        <v>2.8519483186425689</v>
       </c>
       <c r="T30">
         <v>32.799999999999997</v>
@@ -2952,10 +2963,10 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>41063</v>
+        <v>6.7915578073491259E-2</v>
       </c>
       <c r="C31">
         <v>60461828</v>
@@ -2976,37 +2987,37 @@
         <v>35220.080000000002</v>
       </c>
       <c r="I31">
-        <v>15937.5</v>
+        <v>15.9375</v>
       </c>
       <c r="J31">
-        <v>10566.43</v>
+        <v>10.56643</v>
       </c>
       <c r="K31">
         <v>23.7</v>
       </c>
       <c r="L31">
-        <v>0.88</v>
+        <v>88</v>
       </c>
       <c r="M31">
-        <v>5393.7</v>
+        <v>5.3936999999999999</v>
       </c>
       <c r="N31">
-        <v>7084023.3300000001</v>
+        <v>11.716521918589692</v>
       </c>
       <c r="O31">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="P31">
         <v>19.899999999999999</v>
       </c>
       <c r="Q31">
-        <v>3881</v>
+        <v>3.8809999999999998</v>
       </c>
       <c r="R31">
-        <v>4246.29</v>
+        <v>4.2462900000000001</v>
       </c>
       <c r="S31">
-        <v>2282520.4</v>
+        <v>3.7751428885014855</v>
       </c>
       <c r="T31">
         <v>35.9</v>
@@ -3014,10 +3025,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>1812</v>
+        <v>1.4326776924761763E-3</v>
       </c>
       <c r="C32">
         <v>126476458</v>
@@ -3038,37 +3049,37 @@
         <v>39002.22</v>
       </c>
       <c r="I32">
-        <v>13499.54</v>
+        <v>13.499540000000001</v>
       </c>
       <c r="J32">
-        <v>6856.6</v>
+        <v>6.8566000000000003</v>
       </c>
       <c r="K32">
         <v>22.1</v>
       </c>
       <c r="L32">
-        <v>0.91</v>
+        <v>91</v>
       </c>
       <c r="M32">
-        <v>3748.04</v>
+        <v>3.74804</v>
       </c>
       <c r="N32">
-        <v>24695116.84</v>
+        <v>19.52546523717481</v>
       </c>
       <c r="O32">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="P32">
         <v>4.3</v>
       </c>
       <c r="Q32">
-        <v>2535</v>
+        <v>2.5350000000000001</v>
       </c>
       <c r="R32">
-        <v>4004.38</v>
+        <v>4.0043800000000003</v>
       </c>
       <c r="S32">
-        <v>5817580.4299999997</v>
+        <v>4.5997338334696245</v>
       </c>
       <c r="T32">
         <v>32.9</v>
@@ -3076,10 +3087,10 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>96</v>
+        <v>5.0895927371511643E-3</v>
       </c>
       <c r="C33">
         <v>1886202</v>
@@ -3100,37 +3111,37 @@
         <v>25063.85</v>
       </c>
       <c r="I33">
-        <v>14218.59</v>
+        <v>14.218590000000001</v>
       </c>
       <c r="J33">
-        <v>6474.36</v>
+        <v>6.4743599999999999</v>
       </c>
       <c r="K33">
         <v>37</v>
       </c>
       <c r="L33">
-        <v>0.85</v>
+        <v>85</v>
       </c>
       <c r="M33">
-        <v>2260.9899999999998</v>
+        <v>2.2609899999999996</v>
       </c>
       <c r="N33">
-        <v>293145.28000000003</v>
+        <v>15.541563416855672</v>
       </c>
       <c r="O33">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="P33">
         <v>23.6</v>
       </c>
       <c r="Q33">
-        <v>39</v>
+        <v>3.9E-2</v>
       </c>
       <c r="R33">
-        <v>3169.04</v>
+        <v>3.1690399999999999</v>
       </c>
       <c r="S33">
-        <v>50827.53</v>
+        <v>2.6947023701597175</v>
       </c>
       <c r="T33">
         <v>35.6</v>
@@ -3138,10 +3149,10 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>203</v>
+        <v>7.4569544549058136E-3</v>
       </c>
       <c r="C34">
         <v>2722291</v>
@@ -3162,37 +3173,37 @@
         <v>29524.27</v>
       </c>
       <c r="I34">
-        <v>14000.45</v>
+        <v>14.000450000000001</v>
       </c>
       <c r="J34">
-        <v>4995.92</v>
+        <v>4.9959199999999999</v>
       </c>
       <c r="K34">
         <v>28.8</v>
       </c>
       <c r="L34">
-        <v>0.86</v>
+        <v>86</v>
       </c>
       <c r="M34">
-        <v>2745.74</v>
+        <v>2.7457399999999996</v>
       </c>
       <c r="N34">
-        <v>405883.26</v>
+        <v>14.909620609993567</v>
       </c>
       <c r="O34">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="P34">
         <v>26.3</v>
       </c>
       <c r="Q34">
-        <v>129</v>
+        <v>0.129</v>
       </c>
       <c r="R34">
-        <v>2647.86</v>
+        <v>2.6478600000000001</v>
       </c>
       <c r="S34">
-        <v>80049.38</v>
+        <v>2.9405151763716662</v>
       </c>
       <c r="T34">
         <v>37.299999999999997</v>
@@ -3200,10 +3211,10 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>185</v>
+        <v>2.955384870985469E-2</v>
       </c>
       <c r="C35">
         <v>625976</v>
@@ -3224,25 +3235,25 @@
         <v>94277.97</v>
       </c>
       <c r="I35">
-        <v>9110.4699999999993</v>
+        <v>9.1104699999999994</v>
       </c>
       <c r="J35">
-        <v>9537.9500000000007</v>
+        <v>9.5379500000000004</v>
       </c>
       <c r="K35">
         <v>23.5</v>
       </c>
       <c r="L35">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="M35">
-        <v>5368.11</v>
+        <v>5.3681099999999997</v>
       </c>
       <c r="N35">
-        <v>57350.99</v>
+        <v>9.161851253083185</v>
       </c>
       <c r="O35">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="P35">
         <v>22.6</v>
@@ -3251,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="R35">
-        <v>7159.23</v>
+        <v>7.15923</v>
       </c>
       <c r="S35">
-        <v>19898.64</v>
+        <v>3.1788183572533129</v>
       </c>
       <c r="T35">
         <v>34.9</v>
@@ -3262,10 +3273,10 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>72</v>
+        <v>1.630660032296128E-2</v>
       </c>
       <c r="C36">
         <v>441539</v>
@@ -3286,37 +3297,37 @@
         <v>36513.32</v>
       </c>
       <c r="I36">
-        <v>10539.44</v>
+        <v>10.539440000000001</v>
       </c>
       <c r="J36">
-        <v>10908.92</v>
+        <v>10.90892</v>
       </c>
       <c r="K36">
         <v>25.5</v>
       </c>
       <c r="L36">
-        <v>0.88</v>
+        <v>88</v>
       </c>
       <c r="M36">
-        <v>4566.13</v>
+        <v>4.5661300000000002</v>
       </c>
       <c r="N36">
-        <v>49582.03</v>
+        <v>11.229365922376052</v>
       </c>
       <c r="O36">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="P36">
         <v>28.9</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="R36">
-        <v>7972.71</v>
+        <v>7.9727100000000002</v>
       </c>
       <c r="S36">
-        <v>12753.05</v>
+        <v>2.8883179062325186</v>
       </c>
       <c r="T36">
         <v>29.2</v>
@@ -3324,10 +3335,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B37">
-        <v>94808</v>
+        <v>7.353290594826592E-2</v>
       </c>
       <c r="C37">
         <v>128932753</v>
@@ -3348,37 +3359,37 @@
         <v>17336.47</v>
       </c>
       <c r="I37">
-        <v>4706.57</v>
+        <v>4.7065700000000001</v>
       </c>
       <c r="J37">
-        <v>9549.81</v>
+        <v>9.549809999999999</v>
       </c>
       <c r="K37">
         <v>14</v>
       </c>
       <c r="L37">
-        <v>0.77</v>
+        <v>77</v>
       </c>
       <c r="M37">
-        <v>2081.7600000000002</v>
+        <v>2.0817600000000001</v>
       </c>
       <c r="N37">
-        <v>16264323.66</v>
+        <v>12.614578748659778</v>
       </c>
       <c r="O37">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="P37">
         <v>28.9</v>
       </c>
       <c r="Q37">
-        <v>3242</v>
+        <v>3.242</v>
       </c>
       <c r="R37">
-        <v>2683.97</v>
+        <v>2.68397</v>
       </c>
       <c r="S37">
-        <v>1005223.27</v>
+        <v>0.77964927189602473</v>
       </c>
       <c r="T37">
         <v>45.4</v>
@@ -3386,10 +3397,10 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>7950</v>
+        <v>4.6396608833925997E-2</v>
       </c>
       <c r="C38">
         <v>17134873</v>
@@ -3410,37 +3421,37 @@
         <v>48472.55</v>
       </c>
       <c r="I38">
-        <v>10305.620000000001</v>
+        <v>10.305620000000001</v>
       </c>
       <c r="J38">
-        <v>5871.52</v>
+        <v>5.8715200000000003</v>
       </c>
       <c r="K38">
         <v>25.8</v>
       </c>
       <c r="L38">
-        <v>0.93</v>
+        <v>93</v>
       </c>
       <c r="M38">
-        <v>7408.31</v>
+        <v>7.4083100000000002</v>
       </c>
       <c r="N38">
-        <v>1821663.87</v>
+        <v>10.631324025570542</v>
       </c>
       <c r="O38">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="P38">
         <v>20.399999999999999</v>
       </c>
       <c r="Q38">
-        <v>1311</v>
+        <v>1.3109999999999999</v>
       </c>
       <c r="R38">
-        <v>7745.22</v>
+        <v>7.7452200000000007</v>
       </c>
       <c r="S38">
-        <v>715272.58</v>
+        <v>4.1743675602381174</v>
       </c>
       <c r="T38">
         <v>28.5</v>
@@ -3448,10 +3459,10 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>25</v>
+        <v>5.1843202101598982E-4</v>
       </c>
       <c r="C39">
         <v>4822233</v>
@@ -3472,37 +3483,37 @@
         <v>36085.839999999997</v>
       </c>
       <c r="I39">
-        <v>9721.24</v>
+        <v>9.7212399999999999</v>
       </c>
       <c r="J39">
-        <v>4738.1400000000003</v>
+        <v>4.7381400000000005</v>
       </c>
       <c r="K39">
         <v>16</v>
       </c>
       <c r="L39">
-        <v>0.92</v>
+        <v>92</v>
       </c>
       <c r="M39">
-        <v>5690.14</v>
+        <v>5.6901400000000004</v>
       </c>
       <c r="N39">
-        <v>463187.32</v>
+        <v>9.605245536663201</v>
       </c>
       <c r="O39">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="P39">
         <v>30.8</v>
       </c>
       <c r="Q39">
-        <v>326</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="R39">
-        <v>6010.91</v>
+        <v>6.01091</v>
       </c>
       <c r="S39">
-        <v>186914.46</v>
+        <v>3.8760976501964959</v>
       </c>
       <c r="T39">
         <v>34.4</v>
@@ -3510,10 +3521,10 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>285</v>
+        <v>5.2570979122496279E-3</v>
       </c>
       <c r="C40">
         <v>5421242</v>
@@ -3534,37 +3545,37 @@
         <v>64800.06</v>
       </c>
       <c r="I40">
-        <v>10968.9</v>
+        <v>10.9689</v>
       </c>
       <c r="J40">
-        <v>7595.37</v>
+        <v>7.59537</v>
       </c>
       <c r="K40">
         <v>20.2</v>
       </c>
       <c r="L40">
-        <v>0.95</v>
+        <v>95</v>
       </c>
       <c r="M40">
-        <v>6472.62</v>
+        <v>6.47262</v>
       </c>
       <c r="N40">
-        <v>447570.9</v>
+        <v>8.255873838504165</v>
       </c>
       <c r="O40">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="P40">
         <v>23.1</v>
       </c>
       <c r="Q40">
-        <v>443</v>
+        <v>0.443</v>
       </c>
       <c r="R40">
-        <v>6963.43</v>
+        <v>6.9634300000000007</v>
       </c>
       <c r="S40">
-        <v>227807.55</v>
+        <v>4.2021284052621146</v>
       </c>
       <c r="T40">
         <v>27</v>
@@ -3572,10 +3583,10 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>34840</v>
+        <v>0.1056659066040767</v>
       </c>
       <c r="C41">
         <v>32971846</v>
@@ -3596,37 +3607,37 @@
         <v>12236.71</v>
       </c>
       <c r="I41">
-        <v>4129.3100000000004</v>
+        <v>4.1293100000000003</v>
       </c>
       <c r="J41">
-        <v>3373.61</v>
+        <v>3.3736100000000002</v>
       </c>
       <c r="K41">
         <v>4.8</v>
       </c>
       <c r="L41">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="M41">
-        <v>1227.78</v>
+        <v>1.2277799999999999</v>
       </c>
       <c r="N41">
-        <v>3237322.01</v>
+        <v>9.8184433167618206</v>
       </c>
       <c r="O41">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="P41">
         <v>19.7</v>
       </c>
       <c r="Q41">
-        <v>261</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="R41">
-        <v>4189.54</v>
+        <v>4.18954</v>
       </c>
       <c r="S41">
-        <v>196294.64</v>
+        <v>0.59534015778188465</v>
       </c>
       <c r="T41">
         <v>42.8</v>
@@ -3634,10 +3645,10 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B42">
-        <v>7636</v>
+        <v>2.017618224937217E-2</v>
       </c>
       <c r="C42">
         <v>37846605</v>
@@ -3658,37 +3669,37 @@
         <v>27216.45</v>
       </c>
       <c r="I42">
-        <v>11027.02</v>
+        <v>11.02702</v>
       </c>
       <c r="J42">
-        <v>9219.4699999999993</v>
+        <v>9.2194699999999994</v>
       </c>
       <c r="K42">
         <v>28</v>
       </c>
       <c r="L42">
-        <v>0.87</v>
+        <v>87</v>
       </c>
       <c r="M42">
-        <v>3721.35</v>
+        <v>3.7213499999999997</v>
       </c>
       <c r="N42">
-        <v>4361113.4800000004</v>
+        <v>11.523129961062558</v>
       </c>
       <c r="O42">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="P42">
         <v>23.1</v>
       </c>
       <c r="Q42">
-        <v>1566</v>
+        <v>1.5660000000000001</v>
       </c>
       <c r="R42">
-        <v>5762.26</v>
+        <v>5.7622600000000004</v>
       </c>
       <c r="S42">
-        <v>883121.28</v>
+        <v>2.3334227204791556</v>
       </c>
       <c r="T42">
         <v>29.7</v>
@@ -3696,10 +3707,10 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>2848</v>
+        <v>2.7930585825404221E-2</v>
       </c>
       <c r="C43">
         <v>10196707</v>
@@ -3720,37 +3731,37 @@
         <v>27936.9</v>
       </c>
       <c r="I43">
-        <v>10218.49</v>
+        <v>10.218489999999999</v>
       </c>
       <c r="J43">
-        <v>12046.27</v>
+        <v>12.04627</v>
       </c>
       <c r="K43">
         <v>22.7</v>
       </c>
       <c r="L43">
-        <v>0.85</v>
+        <v>85</v>
       </c>
       <c r="M43">
-        <v>5916.05</v>
+        <v>5.9160500000000003</v>
       </c>
       <c r="N43">
-        <v>1177966.94</v>
+        <v>11.552425111361933</v>
       </c>
       <c r="O43">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="P43">
         <v>20.8</v>
       </c>
       <c r="Q43">
-        <v>847</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="R43">
-        <v>10367.73</v>
+        <v>10.36773</v>
       </c>
       <c r="S43">
-        <v>303194.46000000002</v>
+        <v>2.9734546653149887</v>
       </c>
       <c r="T43">
         <v>33.799999999999997</v>
@@ -3758,10 +3769,10 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>7793</v>
+        <v>4.050903845899937E-2</v>
       </c>
       <c r="C44">
         <v>19237682</v>
@@ -3782,37 +3793,37 @@
         <v>23313.200000000001</v>
       </c>
       <c r="I44">
-        <v>13272.99</v>
+        <v>13.27299</v>
       </c>
       <c r="J44">
-        <v>6666.79</v>
+        <v>6.6667899999999998</v>
       </c>
       <c r="K44">
         <v>29.7</v>
       </c>
       <c r="L44">
-        <v>0.81</v>
+        <v>81</v>
       </c>
       <c r="M44">
-        <v>4014.5</v>
+        <v>4.0145</v>
       </c>
       <c r="N44">
-        <v>2219096.9700000002</v>
+        <v>11.535157770047348</v>
       </c>
       <c r="O44">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="P44">
         <v>22.5</v>
       </c>
       <c r="Q44">
-        <v>295</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="R44">
-        <v>4389.01</v>
+        <v>4.3890099999999999</v>
       </c>
       <c r="S44">
-        <v>450330.84</v>
+        <v>2.3408789063048241</v>
       </c>
       <c r="T44">
         <v>36</v>
@@ -3820,10 +3831,10 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B45">
-        <v>30251</v>
+        <v>2.0729168422591895E-2</v>
       </c>
       <c r="C45">
         <v>145934460</v>
@@ -3844,37 +3855,37 @@
         <v>24765.95</v>
       </c>
       <c r="I45">
-        <v>11721.72</v>
+        <v>11.721719999999999</v>
       </c>
       <c r="J45">
-        <v>4124.2299999999996</v>
+        <v>4.1242299999999998</v>
       </c>
       <c r="K45">
         <v>39.299999999999997</v>
       </c>
       <c r="L45">
-        <v>0.82</v>
+        <v>82</v>
       </c>
       <c r="M45">
-        <v>2672.54</v>
+        <v>2.6725400000000001</v>
       </c>
       <c r="N45">
-        <v>21702693.879999999</v>
+        <v>14.871534714967252</v>
       </c>
       <c r="O45">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="P45">
         <v>23.1</v>
       </c>
       <c r="Q45">
-        <v>2429</v>
+        <v>2.4289999999999998</v>
       </c>
       <c r="R45">
-        <v>2390.79</v>
+        <v>2.39079</v>
       </c>
       <c r="S45">
-        <v>3193052.76</v>
+        <v>2.1880046426320416</v>
       </c>
       <c r="T45">
         <v>37.5</v>
@@ -3882,10 +3893,10 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>5525</v>
+        <v>1.587011290644616E-2</v>
       </c>
       <c r="C46">
         <v>34813867</v>
@@ -3906,37 +3917,37 @@
         <v>49045.41</v>
       </c>
       <c r="I46">
-        <v>4473.3599999999997</v>
+        <v>4.4733599999999996</v>
       </c>
       <c r="J46">
-        <v>6958.35</v>
+        <v>6.9583500000000003</v>
       </c>
       <c r="K46">
         <v>15.6</v>
       </c>
       <c r="L46">
-        <v>0.85</v>
+        <v>85</v>
       </c>
       <c r="M46">
-        <v>1216.17</v>
+        <v>1.21617</v>
       </c>
       <c r="N46">
-        <v>2915089.62</v>
+        <v>8.373357719784476</v>
       </c>
       <c r="O46">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="P46">
         <v>35.4</v>
       </c>
       <c r="Q46">
-        <v>1530</v>
+        <v>1.53</v>
       </c>
       <c r="R46">
-        <v>2390.0100000000002</v>
+        <v>2.3900100000000002</v>
       </c>
       <c r="S46">
-        <v>208450.34</v>
+        <v>0.59875663912888499</v>
       </c>
       <c r="T46">
         <v>45.9</v>
@@ -3944,10 +3955,10 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>351</v>
+        <v>6.4289917857266489E-3</v>
       </c>
       <c r="C47">
         <v>5459643</v>
@@ -3968,37 +3979,37 @@
         <v>30155.15</v>
       </c>
       <c r="I47">
-        <v>11115.47</v>
+        <v>11.11547</v>
       </c>
       <c r="J47">
-        <v>7120.95</v>
+        <v>7.1209499999999997</v>
       </c>
       <c r="K47">
         <v>30.1</v>
       </c>
       <c r="L47">
-        <v>0.86</v>
+        <v>86</v>
       </c>
       <c r="M47">
-        <v>2879.95</v>
+        <v>2.87995</v>
       </c>
       <c r="N47">
-        <v>620866.55000000005</v>
+        <v>11.371925783425766</v>
       </c>
       <c r="O47">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="P47">
         <v>20.5</v>
       </c>
       <c r="Q47">
-        <v>259</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="R47">
-        <v>2938.77</v>
+        <v>2.9387699999999999</v>
       </c>
       <c r="S47">
-        <v>158662.57999999999</v>
+        <v>2.9060980727128127</v>
       </c>
       <c r="T47">
         <v>25.2</v>
@@ -4006,10 +4017,10 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>378</v>
+        <v>1.8182412892773791E-2</v>
       </c>
       <c r="C48">
         <v>2078932</v>
@@ -4030,37 +4041,37 @@
         <v>31400.84</v>
       </c>
       <c r="I48">
-        <v>13755.61</v>
+        <v>13.755610000000001</v>
       </c>
       <c r="J48">
-        <v>8121.96</v>
+        <v>8.1219599999999996</v>
       </c>
       <c r="K48">
         <v>22.5</v>
       </c>
       <c r="L48">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="M48">
-        <v>3782.51</v>
+        <v>3.7825100000000003</v>
       </c>
       <c r="N48">
-        <v>258487.82</v>
+        <v>12.433683256595215</v>
       </c>
       <c r="O48">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="P48">
         <v>20.2</v>
       </c>
       <c r="Q48">
-        <v>95</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="R48">
-        <v>4946.5200000000004</v>
+        <v>4.9465200000000005</v>
       </c>
       <c r="S48">
-        <v>63997.61</v>
+        <v>3.0783888073299175</v>
       </c>
       <c r="T48">
         <v>24.2</v>
@@ -4068,10 +4079,10 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>38833</v>
+        <v>8.3056743093000776E-2</v>
       </c>
       <c r="C49">
         <v>46754783</v>
@@ -4092,37 +4103,37 @@
         <v>34272.36</v>
       </c>
       <c r="I49">
-        <v>9820.9599999999991</v>
+        <v>9.8209599999999995</v>
       </c>
       <c r="J49">
-        <v>9732.2999999999993</v>
+        <v>9.7322999999999986</v>
       </c>
       <c r="K49">
         <v>29.3</v>
       </c>
       <c r="L49">
-        <v>0.89</v>
+        <v>89</v>
       </c>
       <c r="M49">
-        <v>6314.08</v>
+        <v>6.3140799999999997</v>
       </c>
       <c r="N49">
-        <v>4494877.8600000003</v>
+        <v>9.6137284179032552</v>
       </c>
       <c r="O49">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="P49">
         <v>23.8</v>
       </c>
       <c r="Q49">
-        <v>5449</v>
+        <v>5.4489999999999998</v>
       </c>
       <c r="R49">
-        <v>4857.5</v>
+        <v>4.8574999999999999</v>
       </c>
       <c r="S49">
-        <v>1452369.1</v>
+        <v>3.1063540600755224</v>
       </c>
       <c r="T49">
         <v>34.700000000000003</v>
@@ -4130,10 +4141,10 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>6112</v>
+        <v>6.0519225647002212E-2</v>
       </c>
       <c r="C50">
         <v>10099270</v>
@@ -4154,37 +4165,37 @@
         <v>46949.279999999999</v>
       </c>
       <c r="I50">
-        <v>12036.06</v>
+        <v>12.036059999999999</v>
       </c>
       <c r="J50">
-        <v>7179.75</v>
+        <v>7.1797500000000003</v>
       </c>
       <c r="K50">
         <v>18.8</v>
       </c>
       <c r="L50">
-        <v>0.93</v>
+        <v>93</v>
       </c>
       <c r="M50">
-        <v>6429.96</v>
+        <v>6.4299600000000003</v>
       </c>
       <c r="N50">
-        <v>1078789.6000000001</v>
+        <v>10.681857203540455</v>
       </c>
       <c r="O50">
-        <v>0.12</v>
+        <v>12</v>
       </c>
       <c r="P50">
         <v>20.6</v>
       </c>
       <c r="Q50">
-        <v>799</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="R50">
-        <v>8064.78</v>
+        <v>8.0647799999999989</v>
       </c>
       <c r="S50">
-        <v>374813.23</v>
+        <v>3.7112903209835957</v>
       </c>
       <c r="T50">
         <v>28.8</v>
@@ -4192,10 +4203,10 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>2404</v>
+        <v>2.7777078087097545E-2</v>
       </c>
       <c r="C51">
         <v>8654618</v>
@@ -4216,37 +4227,37 @@
         <v>57410.17</v>
       </c>
       <c r="I51">
-        <v>9373.02</v>
+        <v>9.3730200000000004</v>
       </c>
       <c r="J51">
-        <v>7315.89</v>
+        <v>7.3158900000000004</v>
       </c>
       <c r="K51">
         <v>25.7</v>
       </c>
       <c r="L51">
-        <v>0.94</v>
+        <v>94</v>
       </c>
       <c r="M51">
-        <v>4868.03</v>
+        <v>4.8680300000000001</v>
       </c>
       <c r="N51">
-        <v>948415.37</v>
+        <v>10.958489097959031</v>
       </c>
       <c r="O51">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="P51">
         <v>19.5</v>
       </c>
       <c r="Q51">
-        <v>600</v>
+        <v>0.6</v>
       </c>
       <c r="R51">
-        <v>6937.97</v>
+        <v>6.93797</v>
       </c>
       <c r="S51">
-        <v>273098.77</v>
+        <v>3.1555265639685084</v>
       </c>
       <c r="T51">
         <v>32.700000000000003</v>
@@ -4254,10 +4265,10 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>514</v>
+        <v>5.1969586669902128E-3</v>
       </c>
       <c r="C52">
         <v>9890400</v>
@@ -4278,37 +4289,37 @@
         <v>67293.48</v>
       </c>
       <c r="I52">
-        <v>4930.18</v>
+        <v>4.93018</v>
       </c>
       <c r="J52">
-        <v>7782.55</v>
+        <v>7.7825500000000005</v>
       </c>
       <c r="K52">
         <v>28.9</v>
       </c>
       <c r="L52">
-        <v>0.86</v>
+        <v>86</v>
       </c>
       <c r="M52">
-        <v>2067.4499999999998</v>
+        <v>2.06745</v>
       </c>
       <c r="N52">
-        <v>706923.83</v>
+        <v>7.1475757300008089</v>
       </c>
       <c r="O52">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="P52">
         <v>31.7</v>
       </c>
       <c r="Q52">
-        <v>93</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="R52">
-        <v>6651.26</v>
+        <v>6.6512600000000006</v>
       </c>
       <c r="S52">
-        <v>49880.65</v>
+        <v>0.50433400064709211</v>
       </c>
       <c r="T52">
         <v>32.5</v>
@@ -4316,10 +4327,10 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>48888</v>
+        <v>7.2014844179074083E-2</v>
       </c>
       <c r="C53">
         <v>67886004</v>
@@ -4340,37 +4351,37 @@
         <v>39753.24</v>
       </c>
       <c r="I53">
-        <v>9668.34</v>
+        <v>9.6683400000000006</v>
       </c>
       <c r="J53">
-        <v>12072.41</v>
+        <v>12.07241</v>
       </c>
       <c r="K53">
         <v>22.3</v>
       </c>
       <c r="L53">
-        <v>0.92</v>
+        <v>92</v>
       </c>
       <c r="M53">
-        <v>7032.99</v>
+        <v>7.0329899999999999</v>
       </c>
       <c r="N53">
-        <v>5643651.75</v>
+        <v>8.31342459043546</v>
       </c>
       <c r="O53">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="P53">
         <v>27.8</v>
       </c>
       <c r="Q53">
-        <v>5178</v>
+        <v>5.1779999999999999</v>
       </c>
       <c r="R53">
-        <v>9609</v>
+        <v>9.609</v>
       </c>
       <c r="S53">
-        <v>2622772.1</v>
+        <v>3.863494601921186</v>
       </c>
       <c r="T53">
         <v>34.799999999999997</v>
@@ -4378,10 +4389,10 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>237113</v>
+        <v>7.1634774570246862E-2</v>
       </c>
       <c r="C54">
         <v>331002647</v>
@@ -4402,37 +4413,37 @@
         <v>54225.45</v>
       </c>
       <c r="I54">
-        <v>12095.06</v>
+        <v>12.09506</v>
       </c>
       <c r="J54">
-        <v>11036.93</v>
+        <v>11.03693</v>
       </c>
       <c r="K54">
         <v>21.8</v>
       </c>
       <c r="L54">
-        <v>0.92</v>
+        <v>92</v>
       </c>
       <c r="M54">
-        <v>6143.06</v>
+        <v>6.1430600000000002</v>
       </c>
       <c r="N54">
-        <v>40241611.270000003</v>
+        <v>12.157489263220304</v>
       </c>
       <c r="O54">
-        <v>0.17</v>
+        <v>17</v>
       </c>
       <c r="P54">
         <v>36.200000000000003</v>
       </c>
       <c r="Q54">
-        <v>40621</v>
+        <v>40.621000000000002</v>
       </c>
       <c r="R54">
-        <v>10352.64</v>
+        <v>10.352639999999999</v>
       </c>
       <c r="S54">
-        <v>22862718.149999999</v>
+        <v>6.9071103682140649</v>
       </c>
       <c r="T54">
         <v>41.1</v>

--- a/my.data.xlsx
+++ b/my.data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakvist/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakvist/Desktop/P5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E274863-0D3F-5348-BA78-BEE460B444F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66F3C73F-6E68-D043-974B-2AE228D89A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1213,7 +1213,7 @@
         <v>27.4</v>
       </c>
       <c r="Q2">
-        <v>0.28199999999999997</v>
+        <v>6.4308618611420485E-4</v>
       </c>
       <c r="R2">
         <v>3.1349999999999998</v>
@@ -1275,7 +1275,7 @@
         <v>28.3</v>
       </c>
       <c r="Q3">
-        <v>2.4169999999999998</v>
+        <v>5.3478447776215904E-3</v>
       </c>
       <c r="R3">
         <v>7.1703999999999999</v>
@@ -1337,7 +1337,7 @@
         <v>20.2</v>
       </c>
       <c r="Q4">
-        <v>2.3E-2</v>
+        <v>7.7617899902606411E-4</v>
       </c>
       <c r="R4">
         <v>2.0603400000000001</v>
@@ -1399,7 +1399,7 @@
         <v>29</v>
       </c>
       <c r="Q5">
-        <v>1.7410000000000001</v>
+        <v>6.8274828419787525E-3</v>
       </c>
       <c r="R5">
         <v>8.3322700000000012</v>
@@ -1461,7 +1461,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="Q6">
-        <v>0.72</v>
+        <v>7.9943151536685016E-3</v>
       </c>
       <c r="R6">
         <v>5.4937800000000001</v>
@@ -1523,7 +1523,7 @@
         <v>22.1</v>
       </c>
       <c r="Q7">
-        <v>0.93400000000000005</v>
+        <v>8.0589382771612105E-3</v>
       </c>
       <c r="R7">
         <v>4.7512299999999996</v>
@@ -1585,7 +1585,7 @@
         <v>22.1</v>
       </c>
       <c r="Q8">
-        <v>9.2319999999999993</v>
+        <v>4.3432563363967579E-3</v>
       </c>
       <c r="R8">
         <v>4.39398</v>
@@ -1647,7 +1647,7 @@
         <v>25</v>
       </c>
       <c r="Q9">
-        <v>5.2999999999999999E-2</v>
+        <v>7.6276058887995806E-4</v>
       </c>
       <c r="R9">
         <v>3.7608800000000002</v>
@@ -1709,7 +1709,7 @@
         <v>29.4</v>
       </c>
       <c r="Q10">
-        <v>3.0910000000000002</v>
+        <v>8.1897809921144676E-3</v>
       </c>
       <c r="R10">
         <v>4.5190100000000006</v>
@@ -1771,7 +1771,7 @@
         <v>28</v>
       </c>
       <c r="Q11">
-        <v>0.65100000000000002</v>
+        <v>3.4054869351972453E-3</v>
       </c>
       <c r="R11">
         <v>5.4443100000000006</v>
@@ -1833,7 +1833,7 @@
         <v>6.2</v>
       </c>
       <c r="Q12">
-        <v>19.462</v>
+        <v>1.3521627552856637E-3</v>
       </c>
       <c r="R12">
         <v>1.7412699999999999</v>
@@ -1895,7 +1895,7 @@
         <v>22.3</v>
       </c>
       <c r="Q13">
-        <v>1.3180000000000001</v>
+        <v>2.5902619827916987E-3</v>
       </c>
       <c r="R13">
         <v>3.2471700000000001</v>
@@ -1957,7 +1957,7 @@
         <v>25.7</v>
       </c>
       <c r="Q14">
-        <v>0.106</v>
+        <v>2.0808328985177796E-3</v>
       </c>
       <c r="R14">
         <v>5.2292800000000002</v>
@@ -2019,7 +2019,7 @@
         <v>24.4</v>
       </c>
       <c r="Q15">
-        <v>0.30099999999999999</v>
+        <v>7.3320426340009962E-3</v>
       </c>
       <c r="R15">
         <v>4.4275600000000006</v>
@@ -2081,7 +2081,7 @@
         <v>21.8</v>
       </c>
       <c r="Q16">
-        <v>1.4999999999999999E-2</v>
+        <v>1.7125262159221554E-3</v>
       </c>
       <c r="R16">
         <v>7.5771999999999995</v>
@@ -2143,7 +2143,7 @@
         <v>26</v>
       </c>
       <c r="Q17">
-        <v>0.86499999999999999</v>
+        <v>8.0773317202326046E-3</v>
       </c>
       <c r="R17">
         <v>3.0727899999999999</v>
@@ -2205,7 +2205,7 @@
         <v>19.7</v>
       </c>
       <c r="Q18">
-        <v>0.40600000000000003</v>
+        <v>7.0094228396345914E-3</v>
       </c>
       <c r="R18">
         <v>4.8662399999999995</v>
@@ -2267,7 +2267,7 @@
         <v>27.6</v>
       </c>
       <c r="Q19">
-        <v>9.0999999999999998E-2</v>
+        <v>8.3887173042829287E-4</v>
       </c>
       <c r="R19">
         <v>3.86104</v>
@@ -2329,7 +2329,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="Q20">
-        <v>0.26200000000000001</v>
+        <v>1.4850031683846226E-3</v>
       </c>
       <c r="R20">
         <v>4.0023999999999997</v>
@@ -2391,7 +2391,7 @@
         <v>21.2</v>
       </c>
       <c r="Q21">
-        <v>5.6000000000000001E-2</v>
+        <v>4.221511768594817E-3</v>
       </c>
       <c r="R21">
         <v>1.99095</v>
@@ -2453,7 +2453,7 @@
         <v>22.2</v>
       </c>
       <c r="Q22">
-        <v>0.45300000000000001</v>
+        <v>8.17583569494062E-3</v>
       </c>
       <c r="R22">
         <v>6.9056899999999999</v>
@@ -2515,7 +2515,7 @@
         <v>21.6</v>
       </c>
       <c r="Q23">
-        <v>5.91</v>
+        <v>9.0542086964770646E-3</v>
       </c>
       <c r="R23">
         <v>6.9558200000000001</v>
@@ -2577,7 +2577,7 @@
         <v>21.7</v>
       </c>
       <c r="Q24">
-        <v>4.3999999999999997E-2</v>
+        <v>1.1029849530291352E-3</v>
       </c>
       <c r="R24">
         <v>1.8986800000000001</v>
@@ -2639,7 +2639,7 @@
         <v>22.3</v>
       </c>
       <c r="Q25">
-        <v>3.7669999999999999</v>
+        <v>4.496088122849789E-3</v>
       </c>
       <c r="R25">
         <v>4.2507099999999998</v>
@@ -2701,7 +2701,7 @@
         <v>24.9</v>
       </c>
       <c r="Q26">
-        <v>0.22600000000000001</v>
+        <v>2.1682700351988902E-3</v>
       </c>
       <c r="R26">
         <v>5.7179099999999998</v>
@@ -2763,7 +2763,7 @@
         <v>26.4</v>
       </c>
       <c r="Q27">
-        <v>0.44</v>
+        <v>4.5547003990538647E-3</v>
       </c>
       <c r="R27">
         <v>3.3204000000000002</v>
@@ -2825,7 +2825,7 @@
         <v>21.9</v>
       </c>
       <c r="Q28">
-        <v>0.01</v>
+        <v>2.9304029304029304E-3</v>
       </c>
       <c r="R28">
         <v>7.4182499999999996</v>
@@ -2887,7 +2887,7 @@
         <v>3.9</v>
       </c>
       <c r="Q29">
-        <v>12.666</v>
+        <v>9.1782317054014278E-4</v>
       </c>
       <c r="R29">
         <v>2.4668000000000001</v>
@@ -2949,7 +2949,7 @@
         <v>25.3</v>
       </c>
       <c r="Q30">
-        <v>0.27400000000000002</v>
+        <v>5.5490344275057127E-3</v>
       </c>
       <c r="R30">
         <v>6.9929700000000006</v>
@@ -3011,7 +3011,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="Q31">
-        <v>3.8809999999999998</v>
+        <v>6.4189260040235629E-3</v>
       </c>
       <c r="R31">
         <v>4.2462900000000001</v>
@@ -3073,7 +3073,7 @@
         <v>4.3</v>
       </c>
       <c r="Q32">
-        <v>2.5350000000000001</v>
+        <v>2.0043255797059087E-3</v>
       </c>
       <c r="R32">
         <v>4.0043800000000003</v>
@@ -3135,7 +3135,7 @@
         <v>23.6</v>
       </c>
       <c r="Q33">
-        <v>3.9E-2</v>
+        <v>2.0676470494676606E-3</v>
       </c>
       <c r="R33">
         <v>3.1690399999999999</v>
@@ -3197,7 +3197,7 @@
         <v>26.3</v>
       </c>
       <c r="Q34">
-        <v>0.129</v>
+        <v>4.7386557866150236E-3</v>
       </c>
       <c r="R34">
         <v>2.6478600000000001</v>
@@ -3321,7 +3321,7 @@
         <v>28.9</v>
       </c>
       <c r="Q36">
-        <v>1.7000000000000001E-2</v>
+        <v>3.8501695206991904E-3</v>
       </c>
       <c r="R36">
         <v>7.9727100000000002</v>
@@ -3383,7 +3383,7 @@
         <v>28.9</v>
       </c>
       <c r="Q37">
-        <v>3.242</v>
+        <v>2.5144890840886644E-3</v>
       </c>
       <c r="R37">
         <v>2.68397</v>
@@ -3445,7 +3445,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="Q38">
-        <v>1.3109999999999999</v>
+        <v>7.6510634190285502E-3</v>
       </c>
       <c r="R38">
         <v>7.7452200000000007</v>
@@ -3507,7 +3507,7 @@
         <v>30.8</v>
       </c>
       <c r="Q39">
-        <v>0.32600000000000001</v>
+        <v>6.7603535540485087E-3</v>
       </c>
       <c r="R39">
         <v>6.01091</v>
@@ -3569,7 +3569,7 @@
         <v>23.1</v>
       </c>
       <c r="Q40">
-        <v>0.443</v>
+        <v>8.1715592109704738E-3</v>
       </c>
       <c r="R40">
         <v>6.9634300000000007</v>
@@ -3631,7 +3631,7 @@
         <v>19.7</v>
       </c>
       <c r="Q41">
-        <v>0.26100000000000001</v>
+        <v>7.9158443236693513E-4</v>
       </c>
       <c r="R41">
         <v>4.18954</v>
@@ -3693,7 +3693,7 @@
         <v>23.1</v>
       </c>
       <c r="Q42">
-        <v>1.5660000000000001</v>
+        <v>4.1377555529749626E-3</v>
       </c>
       <c r="R42">
         <v>5.7622600000000004</v>
@@ -3755,7 +3755,7 @@
         <v>20.8</v>
       </c>
       <c r="Q43">
-        <v>0.84699999999999998</v>
+        <v>8.3066032984962703E-3</v>
       </c>
       <c r="R43">
         <v>10.36773</v>
@@ -3817,7 +3817,7 @@
         <v>22.5</v>
       </c>
       <c r="Q44">
-        <v>0.29499999999999998</v>
+        <v>1.533448780367614E-3</v>
       </c>
       <c r="R44">
         <v>4.3890099999999999</v>
@@ -3879,7 +3879,7 @@
         <v>23.1</v>
       </c>
       <c r="Q45">
-        <v>2.4289999999999998</v>
+        <v>1.6644458066998021E-3</v>
       </c>
       <c r="R45">
         <v>2.39079</v>
@@ -3941,7 +3941,7 @@
         <v>35.4</v>
       </c>
       <c r="Q46">
-        <v>1.53</v>
+        <v>4.3948004971697055E-3</v>
       </c>
       <c r="R46">
         <v>2.3900100000000002</v>
@@ -4003,7 +4003,7 @@
         <v>20.5</v>
       </c>
       <c r="Q47">
-        <v>0.25900000000000001</v>
+        <v>4.7438999216615442E-3</v>
       </c>
       <c r="R47">
         <v>2.9387699999999999</v>
@@ -4065,7 +4065,7 @@
         <v>20.2</v>
       </c>
       <c r="Q48">
-        <v>9.5000000000000001E-2</v>
+        <v>4.5696540338981744E-3</v>
       </c>
       <c r="R48">
         <v>4.9465200000000005</v>
@@ -4127,7 +4127,7 @@
         <v>23.8</v>
       </c>
       <c r="Q49">
-        <v>5.4489999999999998</v>
+        <v>1.1654422607415374E-2</v>
       </c>
       <c r="R49">
         <v>4.8574999999999999</v>
@@ -4189,7 +4189,7 @@
         <v>20.6</v>
       </c>
       <c r="Q50">
-        <v>0.79900000000000004</v>
+        <v>7.9114629077151125E-3</v>
       </c>
       <c r="R50">
         <v>8.0647799999999989</v>
@@ -4251,7 +4251,7 @@
         <v>19.5</v>
       </c>
       <c r="Q51">
-        <v>0.6</v>
+        <v>6.9327149967797538E-3</v>
       </c>
       <c r="R51">
         <v>6.93797</v>
@@ -4313,7 +4313,7 @@
         <v>31.7</v>
       </c>
       <c r="Q52">
-        <v>9.2999999999999999E-2</v>
+        <v>9.4030575103130312E-4</v>
       </c>
       <c r="R52">
         <v>6.6512600000000006</v>
@@ -4375,7 +4375,7 @@
         <v>27.8</v>
       </c>
       <c r="Q53">
-        <v>5.1779999999999999</v>
+        <v>7.6274927008518579E-3</v>
       </c>
       <c r="R53">
         <v>9.609</v>
@@ -4437,7 +4437,7 @@
         <v>36.200000000000003</v>
       </c>
       <c r="Q54">
-        <v>40.621000000000002</v>
+        <v>1.2272107298283931E-2</v>
       </c>
       <c r="R54">
         <v>10.352639999999999</v>

--- a/my.data.xlsx
+++ b/my.data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakvist/Desktop/P5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66F3C73F-6E68-D043-974B-2AE228D89A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2F2BF931-F569-6F4B-9938-A9F44A6BC0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="73" uniqueCount="73">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="74" uniqueCount="74">
   <si>
     <t>Country</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>cancer_per</t>
+  </si>
+  <si>
+    <t>Turkey</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="T53" sqref="T53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4265,187 +4268,260 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B52">
-        <v>5.1969586669902128E-3</v>
+        <v>1.2809010562092179E-2</v>
       </c>
       <c r="C52">
-        <v>9890400</v>
+        <f>84339067</f>
+        <v>84339067</v>
       </c>
       <c r="D52">
-        <v>112.44</v>
+        <f>104.91</f>
+        <v>104.91</v>
       </c>
       <c r="E52">
-        <v>34</v>
+        <f>31.6</f>
+        <v>31.6</v>
       </c>
       <c r="F52">
-        <v>1.1399999999999999</v>
+        <f>8.15</f>
+        <v>8.15</v>
       </c>
       <c r="G52">
-        <v>0.53</v>
+        <f>5.06</f>
+        <v>5.0599999999999996</v>
       </c>
       <c r="H52">
-        <v>67293.48</v>
+        <f>25129.34</f>
+        <v>25129.34</v>
       </c>
       <c r="I52">
-        <v>4.93018</v>
+        <v>6.7318899999999999</v>
       </c>
       <c r="J52">
-        <v>7.7825500000000005</v>
+        <v>5.6722799999999998</v>
       </c>
       <c r="K52">
-        <v>28.9</v>
+        <f>27.2</f>
+        <v>27.2</v>
       </c>
       <c r="L52">
-        <v>86</v>
+        <f>79</f>
+        <v>79</v>
       </c>
       <c r="M52">
-        <v>2.06745</v>
+        <v>3.5465900000000001</v>
       </c>
       <c r="N52">
-        <v>7.1475757300008089</v>
+        <v>10.48950722919427</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <f>5</f>
+        <v>5</v>
       </c>
       <c r="P52">
-        <v>31.7</v>
+        <f>32.1</f>
+        <v>32.1</v>
       </c>
       <c r="Q52">
-        <v>9.4030575103130312E-4</v>
+        <v>6.8331322659758616E-3</v>
       </c>
       <c r="R52">
-        <v>6.6512600000000006</v>
+        <v>5.0176800000000004</v>
       </c>
       <c r="S52">
-        <v>0.50433400064709211</v>
+        <v>0.91854510318450633</v>
       </c>
       <c r="T52">
-        <v>32.5</v>
+        <f>41.9</f>
+        <v>41.9</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>7.2014844179074083E-2</v>
+        <v>5.1969586669902128E-3</v>
       </c>
       <c r="C53">
-        <v>67886004</v>
+        <v>9890400</v>
       </c>
       <c r="D53">
-        <v>272.89999999999998</v>
+        <v>112.44</v>
       </c>
       <c r="E53">
-        <v>40.799999999999997</v>
+        <v>34</v>
       </c>
       <c r="F53">
-        <v>18.52</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G53">
-        <v>12.53</v>
+        <v>0.53</v>
       </c>
       <c r="H53">
-        <v>39753.24</v>
+        <v>67293.48</v>
       </c>
       <c r="I53">
-        <v>9.6683400000000006</v>
+        <v>4.93018</v>
       </c>
       <c r="J53">
-        <v>12.07241</v>
+        <v>7.7825500000000005</v>
       </c>
       <c r="K53">
-        <v>22.3</v>
+        <v>28.9</v>
       </c>
       <c r="L53">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M53">
-        <v>7.0329899999999999</v>
+        <v>2.06745</v>
       </c>
       <c r="N53">
-        <v>8.31342459043546</v>
+        <v>7.1475757300008089</v>
       </c>
       <c r="O53">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P53">
-        <v>27.8</v>
+        <v>31.7</v>
       </c>
       <c r="Q53">
-        <v>7.6274927008518579E-3</v>
+        <v>9.4030575103130312E-4</v>
       </c>
       <c r="R53">
-        <v>9.609</v>
+        <v>6.6512600000000006</v>
       </c>
       <c r="S53">
-        <v>3.863494601921186</v>
+        <v>0.50433400064709211</v>
       </c>
       <c r="T53">
-        <v>34.799999999999997</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>7.1634774570246862E-2</v>
+        <v>7.2014844179074083E-2</v>
       </c>
       <c r="C54">
-        <v>331002647</v>
+        <v>67886004</v>
       </c>
       <c r="D54">
-        <v>35.61</v>
+        <v>272.89999999999998</v>
       </c>
       <c r="E54">
-        <v>38.299999999999997</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="F54">
-        <v>15.41</v>
+        <v>18.52</v>
       </c>
       <c r="G54">
-        <v>9.73</v>
+        <v>12.53</v>
       </c>
       <c r="H54">
-        <v>54225.45</v>
+        <v>39753.24</v>
       </c>
       <c r="I54">
-        <v>12.09506</v>
+        <v>9.6683400000000006</v>
       </c>
       <c r="J54">
-        <v>11.03693</v>
+        <v>12.07241</v>
       </c>
       <c r="K54">
-        <v>21.8</v>
+        <v>22.3</v>
       </c>
       <c r="L54">
         <v>92</v>
       </c>
       <c r="M54">
+        <v>7.0329899999999999</v>
+      </c>
+      <c r="N54">
+        <v>8.31342459043546</v>
+      </c>
+      <c r="O54">
+        <v>9</v>
+      </c>
+      <c r="P54">
+        <v>27.8</v>
+      </c>
+      <c r="Q54">
+        <v>7.6274927008518579E-3</v>
+      </c>
+      <c r="R54">
+        <v>9.609</v>
+      </c>
+      <c r="S54">
+        <v>3.863494601921186</v>
+      </c>
+      <c r="T54">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>7.1634774570246862E-2</v>
+      </c>
+      <c r="C55">
+        <v>331002647</v>
+      </c>
+      <c r="D55">
+        <v>35.61</v>
+      </c>
+      <c r="E55">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F55">
+        <v>15.41</v>
+      </c>
+      <c r="G55">
+        <v>9.73</v>
+      </c>
+      <c r="H55">
+        <v>54225.45</v>
+      </c>
+      <c r="I55">
+        <v>12.09506</v>
+      </c>
+      <c r="J55">
+        <v>11.03693</v>
+      </c>
+      <c r="K55">
+        <v>21.8</v>
+      </c>
+      <c r="L55">
+        <v>92</v>
+      </c>
+      <c r="M55">
         <v>6.1430600000000002</v>
       </c>
-      <c r="N54">
+      <c r="N55">
         <v>12.157489263220304</v>
       </c>
-      <c r="O54">
+      <c r="O55">
         <v>17</v>
       </c>
-      <c r="P54">
+      <c r="P55">
         <v>36.200000000000003</v>
       </c>
-      <c r="Q54">
+      <c r="Q55">
         <v>1.2272107298283931E-2</v>
       </c>
-      <c r="R54">
+      <c r="R55">
         <v>10.352639999999999</v>
       </c>
-      <c r="S54">
+      <c r="S55">
         <v>6.9071103682140649</v>
       </c>
-      <c r="T54">
+      <c r="T55">
         <v>41.1</v>
       </c>
     </row>

--- a/my.data.xlsx
+++ b/my.data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,31 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakvist/Desktop/P5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6836B0E1-28D6-AF40-A1AD-C9DB4628718D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2F2BF931-F569-6F4B-9938-A9F44A6BC0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="my.data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="73" uniqueCount="73">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="74" uniqueCount="74">
   <si>
     <t>Country</t>
   </si>
   <si>
-    <t>Deaths</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -51,39 +57,15 @@
     <t>GDP</t>
   </si>
   <si>
-    <t xml:space="preserve">Cardiovasc </t>
-  </si>
-  <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
     <t>Smokers</t>
   </si>
   <si>
     <t>HDI</t>
   </si>
   <si>
-    <t>COPD</t>
-  </si>
-  <si>
-    <t>CKD</t>
-  </si>
-  <si>
-    <t>Health_exp</t>
-  </si>
-  <si>
     <t>Obesity</t>
   </si>
   <si>
-    <t>Organ_transplant</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>Cancer</t>
-  </si>
-  <si>
     <t>Gini</t>
   </si>
   <si>
@@ -244,12 +226,42 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>deaths_per</t>
+  </si>
+  <si>
+    <t>cardiovasc_per</t>
+  </si>
+  <si>
+    <t>diabetes_per</t>
+  </si>
+  <si>
+    <t>COPD_per</t>
+  </si>
+  <si>
+    <t>CKD_per</t>
+  </si>
+  <si>
+    <t>health_exp</t>
+  </si>
+  <si>
+    <t>organ_per</t>
+  </si>
+  <si>
+    <t>asthma_per</t>
+  </si>
+  <si>
+    <t>cancer_per</t>
+  </si>
+  <si>
+    <t>Turkey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1083,10 +1095,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T54"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T53" sqref="T53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1095,69 +1109,69 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>2036</v>
+        <v>4.6429910458458193E-3</v>
       </c>
       <c r="C2">
         <v>43851043</v>
@@ -1178,37 +1192,37 @@
         <v>13913.84</v>
       </c>
       <c r="I2">
-        <v>6334.97</v>
+        <v>6.3349700000000002</v>
       </c>
       <c r="J2">
-        <v>6714.99</v>
+        <v>6.7149899999999993</v>
       </c>
       <c r="K2">
         <v>15.6</v>
       </c>
       <c r="L2">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="M2">
-        <v>1502.49</v>
+        <v>1.5024900000000001</v>
       </c>
       <c r="N2">
-        <v>3772933.92</v>
+        <v>8.6039776066443849</v>
       </c>
       <c r="O2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="P2">
         <v>27.4</v>
       </c>
       <c r="Q2">
-        <v>282</v>
+        <v>6.4308618611420485E-4</v>
       </c>
       <c r="R2">
-        <v>3135</v>
+        <v>3.1349999999999998</v>
       </c>
       <c r="S2">
-        <v>203242.36</v>
+        <v>0.46348352535195114</v>
       </c>
       <c r="T2">
         <v>27.6</v>
@@ -1216,10 +1230,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>33348</v>
+        <v>7.3785654796907241E-2</v>
       </c>
       <c r="C3">
         <v>45195777</v>
@@ -1240,37 +1254,37 @@
         <v>18933.91</v>
       </c>
       <c r="I3">
-        <v>5952.76</v>
+        <v>5.9527600000000005</v>
       </c>
       <c r="J3">
-        <v>5636.39</v>
+        <v>5.6363900000000005</v>
       </c>
       <c r="K3">
         <v>21.8</v>
       </c>
       <c r="L3">
-        <v>0.83</v>
+        <v>83</v>
       </c>
       <c r="M3">
-        <v>3478.84</v>
+        <v>3.4788399999999999</v>
       </c>
       <c r="N3">
-        <v>3663547.73</v>
+        <v>8.105951425505971</v>
       </c>
       <c r="O3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="P3">
         <v>28.3</v>
       </c>
       <c r="Q3">
-        <v>2417</v>
+        <v>5.3478447776215904E-3</v>
       </c>
       <c r="R3">
-        <v>7170.4</v>
+        <v>7.1703999999999999</v>
       </c>
       <c r="S3">
-        <v>545859.04</v>
+        <v>1.2077655839394024</v>
       </c>
       <c r="T3">
         <v>41.4</v>
@@ -1278,10 +1292,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>1559</v>
+        <v>5.2611437368766688E-2</v>
       </c>
       <c r="C4">
         <v>2963234</v>
@@ -1302,37 +1316,37 @@
         <v>8787.58</v>
       </c>
       <c r="I4">
-        <v>9991.01</v>
+        <v>9.9910100000000011</v>
       </c>
       <c r="J4">
-        <v>7135.14</v>
+        <v>7.1351400000000007</v>
       </c>
       <c r="K4">
         <v>24.1</v>
       </c>
       <c r="L4">
-        <v>0.76</v>
+        <v>76</v>
       </c>
       <c r="M4">
-        <v>3096.97</v>
+        <v>3.0969699999999998</v>
       </c>
       <c r="N4">
-        <v>350496.53</v>
+        <v>11.828175905109081</v>
       </c>
       <c r="O4">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="P4">
         <v>20.2</v>
       </c>
       <c r="Q4">
-        <v>23</v>
+        <v>7.7617899902606411E-4</v>
       </c>
       <c r="R4">
-        <v>2060.34</v>
+        <v>2.0603400000000001</v>
       </c>
       <c r="S4">
-        <v>37262.730000000003</v>
+        <v>1.257502107494717</v>
       </c>
       <c r="T4">
         <v>34.4</v>
@@ -1340,10 +1354,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>907</v>
+        <v>3.5568793438683103E-3</v>
       </c>
       <c r="C5">
         <v>25499881</v>
@@ -1364,37 +1378,37 @@
         <v>44648.71</v>
       </c>
       <c r="I5">
-        <v>10521.63</v>
+        <v>10.52163</v>
       </c>
       <c r="J5">
-        <v>5320.97</v>
+        <v>5.32097</v>
       </c>
       <c r="K5">
         <v>14.7</v>
       </c>
       <c r="L5">
-        <v>0.94</v>
+        <v>94</v>
       </c>
       <c r="M5">
-        <v>5228.8</v>
+        <v>5.2288000000000006</v>
       </c>
       <c r="N5">
-        <v>2486707.2400000002</v>
+        <v>9.7518386066193816</v>
       </c>
       <c r="O5">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="P5">
         <v>29</v>
       </c>
       <c r="Q5">
-        <v>1741</v>
+        <v>6.8274828419787525E-3</v>
       </c>
       <c r="R5">
-        <v>8332.27</v>
+        <v>8.3322700000000012</v>
       </c>
       <c r="S5">
-        <v>972873.51</v>
+        <v>3.8152080395983021</v>
       </c>
       <c r="T5">
         <v>34.4</v>
@@ -1402,10 +1416,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>1318</v>
+        <v>1.4634038017409843E-2</v>
       </c>
       <c r="C6">
         <v>9006400</v>
@@ -1426,37 +1440,37 @@
         <v>45436.69</v>
       </c>
       <c r="I6">
-        <v>11877.07</v>
+        <v>11.87707</v>
       </c>
       <c r="J6">
-        <v>6823.2</v>
+        <v>6.8231999999999999</v>
       </c>
       <c r="K6">
         <v>29.6</v>
       </c>
       <c r="L6">
-        <v>0.91</v>
+        <v>91</v>
       </c>
       <c r="M6">
-        <v>5884.07</v>
+        <v>5.8840699999999995</v>
       </c>
       <c r="N6">
-        <v>980331.46</v>
+        <v>10.884831453188843</v>
       </c>
       <c r="O6">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="P6">
         <v>20.100000000000001</v>
       </c>
       <c r="Q6">
-        <v>720</v>
+        <v>7.9943151536685016E-3</v>
       </c>
       <c r="R6">
-        <v>5493.78</v>
+        <v>5.4937800000000001</v>
       </c>
       <c r="S6">
-        <v>290814.96000000002</v>
+        <v>3.2289811689465271</v>
       </c>
       <c r="T6">
         <v>29.7</v>
@@ -1464,10 +1478,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>13203</v>
+        <v>0.11392094440402512</v>
       </c>
       <c r="C7">
         <v>11589616</v>
@@ -1488,37 +1502,37 @@
         <v>42658.58</v>
       </c>
       <c r="I7">
-        <v>10359.61</v>
+        <v>10.35961</v>
       </c>
       <c r="J7">
-        <v>7170.28</v>
+        <v>7.17028</v>
       </c>
       <c r="K7">
         <v>28.2</v>
       </c>
       <c r="L7">
-        <v>0.92</v>
+        <v>92</v>
       </c>
       <c r="M7">
-        <v>7470</v>
+        <v>7.47</v>
       </c>
       <c r="N7">
-        <v>1183864.58</v>
+        <v>10.214873210639594</v>
       </c>
       <c r="O7">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="P7">
         <v>22.1</v>
       </c>
       <c r="Q7">
-        <v>934</v>
+        <v>8.0589382771612105E-3</v>
       </c>
       <c r="R7">
-        <v>4751.2299999999996</v>
+        <v>4.7512299999999996</v>
       </c>
       <c r="S7">
-        <v>357881.73</v>
+        <v>3.0879515766527552</v>
       </c>
       <c r="T7">
         <v>27.4</v>
@@ -1526,10 +1540,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>162269</v>
+        <v>7.634053969354046E-2</v>
       </c>
       <c r="C8">
         <v>212559409</v>
@@ -1550,37 +1564,37 @@
         <v>14103.45</v>
       </c>
       <c r="I8">
-        <v>5883.25</v>
+        <v>5.8832500000000003</v>
       </c>
       <c r="J8">
-        <v>5541.75</v>
+        <v>5.5417500000000004</v>
       </c>
       <c r="K8">
         <v>13.9</v>
       </c>
       <c r="L8">
-        <v>0.76</v>
+        <v>76</v>
       </c>
       <c r="M8">
-        <v>2874.61</v>
+        <v>2.8746100000000001</v>
       </c>
       <c r="N8">
-        <v>17401507.98</v>
+        <v>8.1866561738511425</v>
       </c>
       <c r="O8">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="P8">
         <v>22.1</v>
       </c>
       <c r="Q8">
-        <v>9232</v>
+        <v>4.3432563363967579E-3</v>
       </c>
       <c r="R8">
-        <v>4393.9799999999996</v>
+        <v>4.39398</v>
       </c>
       <c r="S8">
-        <v>1712421.31</v>
+        <v>0.80562009372165699</v>
       </c>
       <c r="T8">
         <v>53.9</v>
@@ -1588,10 +1602,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>1632</v>
+        <v>2.3487269453813048E-2</v>
       </c>
       <c r="C9">
         <v>6948445</v>
@@ -1612,37 +1626,37 @@
         <v>18563.310000000001</v>
       </c>
       <c r="I9">
-        <v>14464.09</v>
+        <v>14.464090000000001</v>
       </c>
       <c r="J9">
-        <v>9068.6200000000008</v>
+        <v>9.068620000000001</v>
       </c>
       <c r="K9">
         <v>37</v>
       </c>
       <c r="L9">
-        <v>0.81</v>
+        <v>81</v>
       </c>
       <c r="M9">
-        <v>4831.62</v>
+        <v>4.83162</v>
       </c>
       <c r="N9">
-        <v>943474.54</v>
+        <v>13.578211240068821</v>
       </c>
       <c r="O9">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="P9">
         <v>25</v>
       </c>
       <c r="Q9">
-        <v>53</v>
+        <v>7.6276058887995806E-4</v>
       </c>
       <c r="R9">
-        <v>3760.88</v>
+        <v>3.7608800000000002</v>
       </c>
       <c r="S9">
-        <v>177372.9</v>
+        <v>2.5526992010442626</v>
       </c>
       <c r="T9">
         <v>40.4</v>
@@ -1650,10 +1664,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>10490</v>
+        <v>2.7793853965474204E-2</v>
       </c>
       <c r="C10">
         <v>37742157</v>
@@ -1674,37 +1688,37 @@
         <v>44017.59</v>
       </c>
       <c r="I10">
-        <v>11771.44</v>
+        <v>11.77144</v>
       </c>
       <c r="J10">
-        <v>5546.97</v>
+        <v>5.54697</v>
       </c>
       <c r="K10">
         <v>14.3</v>
       </c>
       <c r="L10">
-        <v>0.93</v>
+        <v>93</v>
       </c>
       <c r="M10">
-        <v>4978.88</v>
+        <v>4.9788800000000002</v>
       </c>
       <c r="N10">
-        <v>3729185.77</v>
+        <v>9.8806906293140582</v>
       </c>
       <c r="O10">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="P10">
         <v>29.4</v>
       </c>
       <c r="Q10">
-        <v>3091</v>
+        <v>8.1897809921144676E-3</v>
       </c>
       <c r="R10">
-        <v>4519.01</v>
+        <v>4.5190100000000006</v>
       </c>
       <c r="S10">
-        <v>2240623.27</v>
+        <v>5.9366592905646591</v>
       </c>
       <c r="T10">
         <v>33.299999999999997</v>
@@ -1712,10 +1726,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>14499</v>
+        <v>7.5846628376996711E-2</v>
       </c>
       <c r="C11">
         <v>19116209</v>
@@ -1736,37 +1750,37 @@
         <v>22767.040000000001</v>
       </c>
       <c r="I11">
-        <v>6003.17</v>
+        <v>6.0031699999999999</v>
       </c>
       <c r="J11">
-        <v>7503.46</v>
+        <v>7.5034600000000005</v>
       </c>
       <c r="K11">
         <v>37.799999999999997</v>
       </c>
       <c r="L11">
-        <v>0.84</v>
+        <v>84</v>
       </c>
       <c r="M11">
-        <v>2759.1</v>
+        <v>2.7591000000000001</v>
       </c>
       <c r="N11">
-        <v>1740148.64</v>
+        <v>9.1030007047945531</v>
       </c>
       <c r="O11">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="P11">
         <v>28</v>
       </c>
       <c r="Q11">
-        <v>651</v>
+        <v>3.4054869351972453E-3</v>
       </c>
       <c r="R11">
-        <v>5444.31</v>
+        <v>5.4443100000000006</v>
       </c>
       <c r="S11">
-        <v>248982.3</v>
+        <v>1.3024669274122289</v>
       </c>
       <c r="T11">
         <v>44.4</v>
@@ -1774,10 +1788,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>4739</v>
+        <v>3.2925183934327205E-4</v>
       </c>
       <c r="C12">
         <v>1439323774</v>
@@ -1798,37 +1812,37 @@
         <v>15308.71</v>
       </c>
       <c r="I12">
-        <v>8460.08</v>
+        <v>8.4600799999999996</v>
       </c>
       <c r="J12">
-        <v>6328.79</v>
+        <v>6.3287899999999997</v>
       </c>
       <c r="K12">
         <v>25.6</v>
       </c>
       <c r="L12">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="M12">
-        <v>3175.37</v>
+        <v>3.17537</v>
       </c>
       <c r="N12">
-        <v>150497489.59999999</v>
+        <v>10.456124766268191</v>
       </c>
       <c r="O12">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="P12">
         <v>6.2</v>
       </c>
       <c r="Q12">
-        <v>19462</v>
+        <v>1.3521627552856637E-3</v>
       </c>
       <c r="R12">
-        <v>1741.27</v>
+        <v>1.7412699999999999</v>
       </c>
       <c r="S12">
-        <v>22421327.890000001</v>
+        <v>1.5577681891329616</v>
       </c>
       <c r="T12">
         <v>38.5</v>
@@ -1836,10 +1850,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>32595</v>
+        <v>6.4058868990208961E-2</v>
       </c>
       <c r="C13">
         <v>50882884</v>
@@ -1860,37 +1874,37 @@
         <v>13254.95</v>
       </c>
       <c r="I13">
-        <v>4773.92</v>
+        <v>4.7739200000000004</v>
       </c>
       <c r="J13">
-        <v>7432.92</v>
+        <v>7.4329200000000002</v>
       </c>
       <c r="K13">
         <v>9</v>
       </c>
       <c r="L13">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="M13">
-        <v>2761.77</v>
+        <v>2.7617699999999998</v>
       </c>
       <c r="N13">
-        <v>5218661.6100000003</v>
+        <v>10.256222131591441</v>
       </c>
       <c r="O13">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="P13">
         <v>22.3</v>
       </c>
       <c r="Q13">
-        <v>1318</v>
+        <v>2.5902619827916987E-3</v>
       </c>
       <c r="R13">
-        <v>3247.17</v>
+        <v>3.2471700000000001</v>
       </c>
       <c r="S13">
-        <v>439379.82</v>
+        <v>0.86351202105603919</v>
       </c>
       <c r="T13">
         <v>50.4</v>
@@ -1898,10 +1912,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>1464</v>
+        <v>2.8739050598396501E-2</v>
       </c>
       <c r="C14">
         <v>5094114</v>
@@ -1922,37 +1936,37 @@
         <v>15525</v>
       </c>
       <c r="I14">
-        <v>5769.9</v>
+        <v>5.7698999999999998</v>
       </c>
       <c r="J14">
-        <v>8000.82</v>
+        <v>8.0008199999999992</v>
       </c>
       <c r="K14">
         <v>11.9</v>
       </c>
       <c r="L14">
-        <v>0.79</v>
+        <v>79</v>
       </c>
       <c r="M14">
-        <v>2266.54</v>
+        <v>2.26654</v>
       </c>
       <c r="N14">
-        <v>660836.43999999994</v>
+        <v>12.972549102748779</v>
       </c>
       <c r="O14">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="P14">
         <v>25.7</v>
       </c>
       <c r="Q14">
-        <v>106</v>
+        <v>2.0808328985177796E-3</v>
       </c>
       <c r="R14">
-        <v>5229.28</v>
+        <v>5.2292800000000002</v>
       </c>
       <c r="S14">
-        <v>61778.75</v>
+        <v>1.2127476927292951</v>
       </c>
       <c r="T14">
         <v>48</v>
@@ -1960,10 +1974,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>752</v>
+        <v>1.8317927112188534E-2</v>
       </c>
       <c r="C15">
         <v>4105268</v>
@@ -1984,37 +1998,37 @@
         <v>22669.8</v>
       </c>
       <c r="I15">
-        <v>13209.46</v>
+        <v>13.20946</v>
       </c>
       <c r="J15">
-        <v>10230.82</v>
+        <v>10.23082</v>
       </c>
       <c r="K15">
         <v>37</v>
       </c>
       <c r="L15">
-        <v>0.83</v>
+        <v>83</v>
       </c>
       <c r="M15">
-        <v>5163.59</v>
+        <v>5.1635900000000001</v>
       </c>
       <c r="N15">
-        <v>580414.94999999995</v>
+        <v>14.138296208676266</v>
       </c>
       <c r="O15">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="P15">
         <v>24.4</v>
       </c>
       <c r="Q15">
-        <v>301</v>
+        <v>7.3320426340009962E-3</v>
       </c>
       <c r="R15">
-        <v>4427.5600000000004</v>
+        <v>4.4275600000000006</v>
       </c>
       <c r="S15">
-        <v>139083.66</v>
+        <v>3.3879313116707612</v>
       </c>
       <c r="T15">
         <v>30.4</v>
@@ -2022,10 +2036,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>27</v>
+        <v>3.0825471886598795E-3</v>
       </c>
       <c r="C16">
         <v>875899</v>
@@ -2046,37 +2060,37 @@
         <v>32415.13</v>
       </c>
       <c r="I16">
-        <v>7447.75</v>
+        <v>7.4477500000000001</v>
       </c>
       <c r="J16">
-        <v>8495.25</v>
+        <v>8.4952500000000004</v>
       </c>
       <c r="K16">
         <v>36.4</v>
       </c>
       <c r="L16">
-        <v>0.87</v>
+        <v>87</v>
       </c>
       <c r="M16">
-        <v>3921.65</v>
+        <v>3.9216500000000001</v>
       </c>
       <c r="N16">
-        <v>115294.24</v>
+        <v>13.162960569654722</v>
       </c>
       <c r="O16">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="P16">
         <v>21.8</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>1.7125262159221554E-3</v>
       </c>
       <c r="R16">
-        <v>7577.2</v>
+        <v>7.5771999999999995</v>
       </c>
       <c r="S16">
-        <v>29335.94</v>
+        <v>3.3492377545812926</v>
       </c>
       <c r="T16">
         <v>31.4</v>
@@ -2084,10 +2098,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>4681</v>
+        <v>4.3710970846715401E-2</v>
       </c>
       <c r="C17">
         <v>10708982</v>
@@ -2108,37 +2122,37 @@
         <v>32605.91</v>
       </c>
       <c r="I17">
-        <v>14393.11</v>
+        <v>14.39311</v>
       </c>
       <c r="J17">
-        <v>15199.03</v>
+        <v>15.19903</v>
       </c>
       <c r="K17">
         <v>34.299999999999997</v>
       </c>
       <c r="L17">
-        <v>0.89</v>
+        <v>89</v>
       </c>
       <c r="M17">
-        <v>4603.28</v>
+        <v>4.6032799999999998</v>
       </c>
       <c r="N17">
-        <v>1303238.6299999999</v>
+        <v>12.169584653331194</v>
       </c>
       <c r="O17">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="P17">
         <v>26</v>
       </c>
       <c r="Q17">
-        <v>865</v>
+        <v>8.0773317202326046E-3</v>
       </c>
       <c r="R17">
-        <v>3072.79</v>
+        <v>3.0727899999999999</v>
       </c>
       <c r="S17">
-        <v>332365.18</v>
+        <v>3.1036113423292706</v>
       </c>
       <c r="T17">
         <v>24.9</v>
@@ -2146,10 +2160,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B18">
-        <v>740</v>
+        <v>1.2775795323471915E-2</v>
       </c>
       <c r="C18">
         <v>5792203</v>
@@ -2170,37 +2184,37 @@
         <v>46682.52</v>
       </c>
       <c r="I18">
-        <v>10669.84</v>
+        <v>10.669840000000001</v>
       </c>
       <c r="J18">
-        <v>6175.82</v>
+        <v>6.1758199999999999</v>
       </c>
       <c r="K18">
         <v>19.100000000000001</v>
       </c>
       <c r="L18">
-        <v>0.93</v>
+        <v>93</v>
       </c>
       <c r="M18">
-        <v>8200.25</v>
+        <v>8.2002500000000005</v>
       </c>
       <c r="N18">
-        <v>579903.92000000004</v>
+        <v>10.011802417836531</v>
       </c>
       <c r="O18">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="P18">
         <v>19.7</v>
       </c>
       <c r="Q18">
-        <v>406</v>
+        <v>7.0094228396345914E-3</v>
       </c>
       <c r="R18">
-        <v>4866.24</v>
+        <v>4.8662399999999995</v>
       </c>
       <c r="S18">
-        <v>217934.28</v>
+        <v>3.7625456152002958</v>
       </c>
       <c r="T18">
         <v>28.7</v>
@@ -2208,10 +2222,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B19">
-        <v>2263</v>
+        <v>2.0861172812738756E-2</v>
       </c>
       <c r="C19">
         <v>10847904</v>
@@ -2232,37 +2246,37 @@
         <v>14600.86</v>
       </c>
       <c r="I19">
-        <v>5825.27</v>
+        <v>5.8252700000000006</v>
       </c>
       <c r="J19">
-        <v>3972.17</v>
+        <v>3.9721700000000002</v>
       </c>
       <c r="K19">
         <v>13.7</v>
       </c>
       <c r="L19">
-        <v>0.74</v>
+        <v>74</v>
       </c>
       <c r="M19">
-        <v>1188.02</v>
+        <v>1.1880200000000001</v>
       </c>
       <c r="N19">
-        <v>790697.22</v>
+        <v>7.2889400569916551</v>
       </c>
       <c r="O19">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="P19">
         <v>27.6</v>
       </c>
       <c r="Q19">
-        <v>91</v>
+        <v>8.3887173042829287E-4</v>
       </c>
       <c r="R19">
-        <v>3861.04</v>
+        <v>3.86104</v>
       </c>
       <c r="S19">
-        <v>68699.75</v>
+        <v>0.63329976002737487</v>
       </c>
       <c r="T19">
         <v>43.7</v>
@@ -2270,10 +2284,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>12815</v>
+        <v>7.2634792377286025E-2</v>
       </c>
       <c r="C20">
         <v>17643060</v>
@@ -2294,37 +2308,37 @@
         <v>10581.94</v>
       </c>
       <c r="I20">
-        <v>3957.24</v>
+        <v>3.9572399999999996</v>
       </c>
       <c r="J20">
-        <v>4833.53</v>
+        <v>4.8335299999999997</v>
       </c>
       <c r="K20">
         <v>7.1</v>
       </c>
       <c r="L20">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="M20">
-        <v>1235.07</v>
+        <v>1.2350699999999999</v>
       </c>
       <c r="N20">
-        <v>1379176.09</v>
+        <v>7.8171025321004413</v>
       </c>
       <c r="O20">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="P20">
         <v>19.899999999999999</v>
       </c>
       <c r="Q20">
-        <v>262</v>
+        <v>1.4850031683846226E-3</v>
       </c>
       <c r="R20">
-        <v>4002.4</v>
+        <v>4.0023999999999997</v>
       </c>
       <c r="S20">
-        <v>100582.95</v>
+        <v>0.57009923448653466</v>
       </c>
       <c r="T20">
         <v>45.4</v>
@@ -2332,10 +2346,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>73</v>
+        <v>5.5030421269182438E-3</v>
       </c>
       <c r="C21">
         <v>1326539</v>
@@ -2356,37 +2370,37 @@
         <v>29481.25</v>
       </c>
       <c r="I21">
-        <v>15042.89</v>
+        <v>15.04289</v>
       </c>
       <c r="J21">
-        <v>6172.23</v>
+        <v>6.1722299999999999</v>
       </c>
       <c r="K21">
         <v>31.3</v>
       </c>
       <c r="L21">
-        <v>0.87</v>
+        <v>87</v>
       </c>
       <c r="M21">
-        <v>2422.44</v>
+        <v>2.4224399999999999</v>
       </c>
       <c r="N21">
-        <v>210095.18</v>
+        <v>15.837844194554402</v>
       </c>
       <c r="O21">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="P21">
         <v>21.2</v>
       </c>
       <c r="Q21">
-        <v>56</v>
+        <v>4.221511768594817E-3</v>
       </c>
       <c r="R21">
-        <v>1990.95</v>
+        <v>1.99095</v>
       </c>
       <c r="S21">
-        <v>40622.04</v>
+        <v>3.0622574986487394</v>
       </c>
       <c r="T21">
         <v>30.4</v>
@@ -2394,10 +2408,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>362</v>
+        <v>6.5334492749856603E-3</v>
       </c>
       <c r="C22">
         <v>5540718</v>
@@ -2418,37 +2432,37 @@
         <v>40585.72</v>
       </c>
       <c r="I22">
-        <v>11583.13</v>
+        <v>11.583129999999999</v>
       </c>
       <c r="J22">
-        <v>10452.879999999999</v>
+        <v>10.452879999999999</v>
       </c>
       <c r="K22">
         <v>20.399999999999999</v>
       </c>
       <c r="L22">
-        <v>0.92</v>
+        <v>92</v>
       </c>
       <c r="M22">
-        <v>4398.66</v>
+        <v>4.3986599999999996</v>
       </c>
       <c r="N22">
-        <v>535441.44999999995</v>
+        <v>9.663755672098814</v>
       </c>
       <c r="O22">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="P22">
         <v>22.2</v>
       </c>
       <c r="Q22">
-        <v>453</v>
+        <v>8.17583569494062E-3</v>
       </c>
       <c r="R22">
-        <v>6905.69</v>
+        <v>6.9056899999999999</v>
       </c>
       <c r="S22">
-        <v>207472.63</v>
+        <v>3.7445080222454923</v>
       </c>
       <c r="T22">
         <v>27.4</v>
@@ -2456,10 +2470,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>40169</v>
+        <v>6.1539510850894624E-2</v>
       </c>
       <c r="C23">
         <v>65273512</v>
@@ -2480,37 +2494,37 @@
         <v>38605.67</v>
       </c>
       <c r="I23">
-        <v>10238.629999999999</v>
+        <v>10.238629999999999</v>
       </c>
       <c r="J23">
-        <v>4364.83</v>
+        <v>4.3648299999999995</v>
       </c>
       <c r="K23">
         <v>32.700000000000003</v>
       </c>
       <c r="L23">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="M23">
-        <v>3841.88</v>
+        <v>3.8418800000000002</v>
       </c>
       <c r="N23">
-        <v>6525468.1399999997</v>
+        <v>9.9971151238192899</v>
       </c>
       <c r="O23">
-        <v>0.12</v>
+        <v>12</v>
       </c>
       <c r="P23">
         <v>21.6</v>
       </c>
       <c r="Q23">
-        <v>5910</v>
+        <v>9.0542086964770646E-3</v>
       </c>
       <c r="R23">
-        <v>6955.82</v>
+        <v>6.9558200000000001</v>
       </c>
       <c r="S23">
-        <v>2009937.46</v>
+        <v>3.0792543535883286</v>
       </c>
       <c r="T23">
         <v>31.6</v>
@@ -2518,10 +2532,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>475</v>
+        <v>1.1907223924746345E-2</v>
       </c>
       <c r="C24">
         <v>3989175</v>
@@ -2542,37 +2556,37 @@
         <v>9745.08</v>
       </c>
       <c r="I24">
-        <v>12927.4</v>
+        <v>12.9274</v>
       </c>
       <c r="J24">
-        <v>9437.7999999999993</v>
+        <v>9.4377999999999993</v>
       </c>
       <c r="K24">
         <v>28.8</v>
       </c>
       <c r="L24">
-        <v>0.78</v>
+        <v>78</v>
       </c>
       <c r="M24">
-        <v>3623.73</v>
+        <v>3.6237300000000001</v>
       </c>
       <c r="N24">
-        <v>461026.67</v>
+        <v>11.55694272625292</v>
       </c>
       <c r="O24">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="P24">
         <v>21.7</v>
       </c>
       <c r="Q24">
-        <v>44</v>
+        <v>1.1029849530291352E-3</v>
       </c>
       <c r="R24">
-        <v>1898.68</v>
+        <v>1.8986800000000001</v>
       </c>
       <c r="S24">
-        <v>52206.15</v>
+        <v>1.3086954069450449</v>
       </c>
       <c r="T24">
         <v>36.4</v>
@@ -2580,10 +2594,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>11289</v>
+        <v>1.3473941815463571E-2</v>
       </c>
       <c r="C25">
         <v>83783945</v>
@@ -2604,37 +2618,37 @@
         <v>45229.25</v>
       </c>
       <c r="I25">
-        <v>11977.15</v>
+        <v>11.97715</v>
       </c>
       <c r="J25">
-        <v>12408.98</v>
+        <v>12.40898</v>
       </c>
       <c r="K25">
         <v>30.6</v>
       </c>
       <c r="L25">
-        <v>0.94</v>
+        <v>94</v>
       </c>
       <c r="M25">
-        <v>7219.94</v>
+        <v>7.2199399999999994</v>
       </c>
       <c r="N25">
-        <v>9925181.8499999996</v>
+        <v>11.846161994401195</v>
       </c>
       <c r="O25">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="P25">
         <v>22.3</v>
       </c>
       <c r="Q25">
-        <v>3767</v>
+        <v>4.496088122849789E-3</v>
       </c>
       <c r="R25">
-        <v>4250.71</v>
+        <v>4.2507099999999998</v>
       </c>
       <c r="S25">
-        <v>3211739.24</v>
+        <v>3.8333588135531218</v>
       </c>
       <c r="T25">
         <v>31.9</v>
@@ -2642,10 +2656,10 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>749</v>
+        <v>7.1859922847963215E-3</v>
       </c>
       <c r="C26">
         <v>10423056</v>
@@ -2666,37 +2680,37 @@
         <v>24574.38</v>
       </c>
       <c r="I26">
-        <v>10886.12</v>
+        <v>10.88612</v>
       </c>
       <c r="J26">
-        <v>8268.01</v>
+        <v>8.2680100000000003</v>
       </c>
       <c r="K26">
         <v>43.4</v>
       </c>
       <c r="L26">
-        <v>0.87</v>
+        <v>87</v>
       </c>
       <c r="M26">
-        <v>6360.71</v>
+        <v>6.3607100000000001</v>
       </c>
       <c r="N26">
-        <v>1447104.85</v>
+        <v>13.883690637371613</v>
       </c>
       <c r="O26">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="P26">
         <v>24.9</v>
       </c>
       <c r="Q26">
-        <v>226</v>
+        <v>2.1682700351988902E-3</v>
       </c>
       <c r="R26">
-        <v>5717.91</v>
+        <v>5.7179099999999998</v>
       </c>
       <c r="S26">
-        <v>307805.14</v>
+        <v>2.9531179723106162</v>
       </c>
       <c r="T26">
         <v>34.4</v>
@@ -2704,10 +2718,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B27">
-        <v>2438</v>
+        <v>2.523718084748482E-2</v>
       </c>
       <c r="C27">
         <v>9660350</v>
@@ -2728,37 +2742,37 @@
         <v>26777.56</v>
       </c>
       <c r="I27">
-        <v>14638.54</v>
+        <v>14.638540000000001</v>
       </c>
       <c r="J27">
-        <v>10162.549999999999</v>
+        <v>10.16255</v>
       </c>
       <c r="K27">
         <v>30.6</v>
       </c>
       <c r="L27">
-        <v>0.84</v>
+        <v>84</v>
       </c>
       <c r="M27">
-        <v>6328.37</v>
+        <v>6.3283699999999996</v>
       </c>
       <c r="N27">
-        <v>1232146.55</v>
+        <v>12.754678143131459</v>
       </c>
       <c r="O27">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="P27">
         <v>26.4</v>
       </c>
       <c r="Q27">
-        <v>440</v>
+        <v>4.5547003990538647E-3</v>
       </c>
       <c r="R27">
-        <v>3320.4</v>
+        <v>3.3204000000000002</v>
       </c>
       <c r="S27">
-        <v>253534.95</v>
+        <v>2.6244903134979585</v>
       </c>
       <c r="T27">
         <v>30.6</v>
@@ -2766,10 +2780,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>5.2747252747252747E-3</v>
       </c>
       <c r="C28">
         <v>341250</v>
@@ -2790,37 +2804,37 @@
         <v>46482.96</v>
       </c>
       <c r="I28">
-        <v>8018.43</v>
+        <v>8.0184300000000004</v>
       </c>
       <c r="J28">
-        <v>6182.87</v>
+        <v>6.1828700000000003</v>
       </c>
       <c r="K28">
         <v>14.7</v>
       </c>
       <c r="L28">
-        <v>0.94</v>
+        <v>94</v>
       </c>
       <c r="M28">
-        <v>4648.8500000000004</v>
+        <v>4.6488500000000004</v>
       </c>
       <c r="N28">
-        <v>25792.03</v>
+        <v>7.5581040293040287</v>
       </c>
       <c r="O28">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="P28">
         <v>21.9</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>2.9304029304029304E-3</v>
       </c>
       <c r="R28">
-        <v>7418.25</v>
+        <v>7.4182499999999996</v>
       </c>
       <c r="S28">
-        <v>10656.74</v>
+        <v>3.1228542124542127</v>
       </c>
       <c r="T28">
         <v>26.8</v>
@@ -2828,10 +2842,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>126121</v>
+        <v>9.1391738584946595E-3</v>
       </c>
       <c r="C29">
         <v>1380004385</v>
@@ -2852,37 +2866,37 @@
         <v>6426.67</v>
       </c>
       <c r="I29">
-        <v>5114.6899999999996</v>
+        <v>5.1146899999999995</v>
       </c>
       <c r="J29">
-        <v>5885.54</v>
+        <v>5.8855399999999998</v>
       </c>
       <c r="K29">
         <v>11.4</v>
       </c>
       <c r="L29">
-        <v>0.64</v>
+        <v>64</v>
       </c>
       <c r="M29">
-        <v>2723.41</v>
+        <v>2.7234099999999999</v>
       </c>
       <c r="N29">
-        <v>115223088.2</v>
+        <v>8.349472614175788</v>
       </c>
       <c r="O29">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="P29">
         <v>3.9</v>
       </c>
       <c r="Q29">
-        <v>12666</v>
+        <v>9.1782317054014278E-4</v>
       </c>
       <c r="R29">
-        <v>2466.8000000000002</v>
+        <v>2.4668000000000001</v>
       </c>
       <c r="S29">
-        <v>3639595.15</v>
+        <v>0.26373794094864417</v>
       </c>
       <c r="T29">
         <v>35.700000000000003</v>
@@ -2890,10 +2904,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>1945</v>
+        <v>3.9390043655104422E-2</v>
       </c>
       <c r="C30">
         <v>4937796</v>
@@ -2914,37 +2928,37 @@
         <v>67335.289999999994</v>
       </c>
       <c r="I30">
-        <v>8072.07</v>
+        <v>8.0720700000000001</v>
       </c>
       <c r="J30">
-        <v>5825.83</v>
+        <v>5.8258299999999998</v>
       </c>
       <c r="K30">
         <v>24.3</v>
       </c>
       <c r="L30">
-        <v>0.94</v>
+        <v>94</v>
       </c>
       <c r="M30">
-        <v>5444.79</v>
+        <v>5.4447900000000002</v>
       </c>
       <c r="N30">
-        <v>727859.16</v>
+        <v>14.740567654070762</v>
       </c>
       <c r="O30">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="P30">
         <v>25.3</v>
       </c>
       <c r="Q30">
-        <v>274</v>
+        <v>5.5490344275057127E-3</v>
       </c>
       <c r="R30">
-        <v>6992.97</v>
+        <v>6.9929700000000006</v>
       </c>
       <c r="S30">
-        <v>140823.39000000001</v>
+        <v>2.8519483186425689</v>
       </c>
       <c r="T30">
         <v>32.799999999999997</v>
@@ -2952,10 +2966,10 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>41063</v>
+        <v>6.7915578073491259E-2</v>
       </c>
       <c r="C31">
         <v>60461828</v>
@@ -2976,37 +2990,37 @@
         <v>35220.080000000002</v>
       </c>
       <c r="I31">
-        <v>15937.5</v>
+        <v>15.9375</v>
       </c>
       <c r="J31">
-        <v>10566.43</v>
+        <v>10.56643</v>
       </c>
       <c r="K31">
         <v>23.7</v>
       </c>
       <c r="L31">
-        <v>0.88</v>
+        <v>88</v>
       </c>
       <c r="M31">
-        <v>5393.7</v>
+        <v>5.3936999999999999</v>
       </c>
       <c r="N31">
-        <v>7084023.3300000001</v>
+        <v>11.716521918589692</v>
       </c>
       <c r="O31">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="P31">
         <v>19.899999999999999</v>
       </c>
       <c r="Q31">
-        <v>3881</v>
+        <v>6.4189260040235629E-3</v>
       </c>
       <c r="R31">
-        <v>4246.29</v>
+        <v>4.2462900000000001</v>
       </c>
       <c r="S31">
-        <v>2282520.4</v>
+        <v>3.7751428885014855</v>
       </c>
       <c r="T31">
         <v>35.9</v>
@@ -3014,10 +3028,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>1812</v>
+        <v>1.4326776924761763E-3</v>
       </c>
       <c r="C32">
         <v>126476458</v>
@@ -3038,37 +3052,37 @@
         <v>39002.22</v>
       </c>
       <c r="I32">
-        <v>13499.54</v>
+        <v>13.499540000000001</v>
       </c>
       <c r="J32">
-        <v>6856.6</v>
+        <v>6.8566000000000003</v>
       </c>
       <c r="K32">
         <v>22.1</v>
       </c>
       <c r="L32">
-        <v>0.91</v>
+        <v>91</v>
       </c>
       <c r="M32">
-        <v>3748.04</v>
+        <v>3.74804</v>
       </c>
       <c r="N32">
-        <v>24695116.84</v>
+        <v>19.52546523717481</v>
       </c>
       <c r="O32">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="P32">
         <v>4.3</v>
       </c>
       <c r="Q32">
-        <v>2535</v>
+        <v>2.0043255797059087E-3</v>
       </c>
       <c r="R32">
-        <v>4004.38</v>
+        <v>4.0043800000000003</v>
       </c>
       <c r="S32">
-        <v>5817580.4299999997</v>
+        <v>4.5997338334696245</v>
       </c>
       <c r="T32">
         <v>32.9</v>
@@ -3076,10 +3090,10 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>96</v>
+        <v>5.0895927371511643E-3</v>
       </c>
       <c r="C33">
         <v>1886202</v>
@@ -3100,37 +3114,37 @@
         <v>25063.85</v>
       </c>
       <c r="I33">
-        <v>14218.59</v>
+        <v>14.218590000000001</v>
       </c>
       <c r="J33">
-        <v>6474.36</v>
+        <v>6.4743599999999999</v>
       </c>
       <c r="K33">
         <v>37</v>
       </c>
       <c r="L33">
-        <v>0.85</v>
+        <v>85</v>
       </c>
       <c r="M33">
-        <v>2260.9899999999998</v>
+        <v>2.2609899999999996</v>
       </c>
       <c r="N33">
-        <v>293145.28000000003</v>
+        <v>15.541563416855672</v>
       </c>
       <c r="O33">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="P33">
         <v>23.6</v>
       </c>
       <c r="Q33">
-        <v>39</v>
+        <v>2.0676470494676606E-3</v>
       </c>
       <c r="R33">
-        <v>3169.04</v>
+        <v>3.1690399999999999</v>
       </c>
       <c r="S33">
-        <v>50827.53</v>
+        <v>2.6947023701597175</v>
       </c>
       <c r="T33">
         <v>35.6</v>
@@ -3138,10 +3152,10 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>203</v>
+        <v>7.4569544549058136E-3</v>
       </c>
       <c r="C34">
         <v>2722291</v>
@@ -3162,37 +3176,37 @@
         <v>29524.27</v>
       </c>
       <c r="I34">
-        <v>14000.45</v>
+        <v>14.000450000000001</v>
       </c>
       <c r="J34">
-        <v>4995.92</v>
+        <v>4.9959199999999999</v>
       </c>
       <c r="K34">
         <v>28.8</v>
       </c>
       <c r="L34">
-        <v>0.86</v>
+        <v>86</v>
       </c>
       <c r="M34">
-        <v>2745.74</v>
+        <v>2.7457399999999996</v>
       </c>
       <c r="N34">
-        <v>405883.26</v>
+        <v>14.909620609993567</v>
       </c>
       <c r="O34">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="P34">
         <v>26.3</v>
       </c>
       <c r="Q34">
-        <v>129</v>
+        <v>4.7386557866150236E-3</v>
       </c>
       <c r="R34">
-        <v>2647.86</v>
+        <v>2.6478600000000001</v>
       </c>
       <c r="S34">
-        <v>80049.38</v>
+        <v>2.9405151763716662</v>
       </c>
       <c r="T34">
         <v>37.299999999999997</v>
@@ -3200,10 +3214,10 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>185</v>
+        <v>2.955384870985469E-2</v>
       </c>
       <c r="C35">
         <v>625976</v>
@@ -3224,25 +3238,25 @@
         <v>94277.97</v>
       </c>
       <c r="I35">
-        <v>9110.4699999999993</v>
+        <v>9.1104699999999994</v>
       </c>
       <c r="J35">
-        <v>9537.9500000000007</v>
+        <v>9.5379500000000004</v>
       </c>
       <c r="K35">
         <v>23.5</v>
       </c>
       <c r="L35">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="M35">
-        <v>5368.11</v>
+        <v>5.3681099999999997</v>
       </c>
       <c r="N35">
-        <v>57350.99</v>
+        <v>9.161851253083185</v>
       </c>
       <c r="O35">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="P35">
         <v>22.6</v>
@@ -3251,10 +3265,10 @@
         <v>0</v>
       </c>
       <c r="R35">
-        <v>7159.23</v>
+        <v>7.15923</v>
       </c>
       <c r="S35">
-        <v>19898.64</v>
+        <v>3.1788183572533129</v>
       </c>
       <c r="T35">
         <v>34.9</v>
@@ -3262,10 +3276,10 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>72</v>
+        <v>1.630660032296128E-2</v>
       </c>
       <c r="C36">
         <v>441539</v>
@@ -3286,37 +3300,37 @@
         <v>36513.32</v>
       </c>
       <c r="I36">
-        <v>10539.44</v>
+        <v>10.539440000000001</v>
       </c>
       <c r="J36">
-        <v>10908.92</v>
+        <v>10.90892</v>
       </c>
       <c r="K36">
         <v>25.5</v>
       </c>
       <c r="L36">
-        <v>0.88</v>
+        <v>88</v>
       </c>
       <c r="M36">
-        <v>4566.13</v>
+        <v>4.5661300000000002</v>
       </c>
       <c r="N36">
-        <v>49582.03</v>
+        <v>11.229365922376052</v>
       </c>
       <c r="O36">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="P36">
         <v>28.9</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>3.8501695206991904E-3</v>
       </c>
       <c r="R36">
-        <v>7972.71</v>
+        <v>7.9727100000000002</v>
       </c>
       <c r="S36">
-        <v>12753.05</v>
+        <v>2.8883179062325186</v>
       </c>
       <c r="T36">
         <v>29.2</v>
@@ -3324,10 +3338,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B37">
-        <v>94808</v>
+        <v>7.353290594826592E-2</v>
       </c>
       <c r="C37">
         <v>128932753</v>
@@ -3348,37 +3362,37 @@
         <v>17336.47</v>
       </c>
       <c r="I37">
-        <v>4706.57</v>
+        <v>4.7065700000000001</v>
       </c>
       <c r="J37">
-        <v>9549.81</v>
+        <v>9.549809999999999</v>
       </c>
       <c r="K37">
         <v>14</v>
       </c>
       <c r="L37">
-        <v>0.77</v>
+        <v>77</v>
       </c>
       <c r="M37">
-        <v>2081.7600000000002</v>
+        <v>2.0817600000000001</v>
       </c>
       <c r="N37">
-        <v>16264323.66</v>
+        <v>12.614578748659778</v>
       </c>
       <c r="O37">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="P37">
         <v>28.9</v>
       </c>
       <c r="Q37">
-        <v>3242</v>
+        <v>2.5144890840886644E-3</v>
       </c>
       <c r="R37">
-        <v>2683.97</v>
+        <v>2.68397</v>
       </c>
       <c r="S37">
-        <v>1005223.27</v>
+        <v>0.77964927189602473</v>
       </c>
       <c r="T37">
         <v>45.4</v>
@@ -3386,10 +3400,10 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>7950</v>
+        <v>4.6396608833925997E-2</v>
       </c>
       <c r="C38">
         <v>17134873</v>
@@ -3410,37 +3424,37 @@
         <v>48472.55</v>
       </c>
       <c r="I38">
-        <v>10305.620000000001</v>
+        <v>10.305620000000001</v>
       </c>
       <c r="J38">
-        <v>5871.52</v>
+        <v>5.8715200000000003</v>
       </c>
       <c r="K38">
         <v>25.8</v>
       </c>
       <c r="L38">
-        <v>0.93</v>
+        <v>93</v>
       </c>
       <c r="M38">
-        <v>7408.31</v>
+        <v>7.4083100000000002</v>
       </c>
       <c r="N38">
-        <v>1821663.87</v>
+        <v>10.631324025570542</v>
       </c>
       <c r="O38">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="P38">
         <v>20.399999999999999</v>
       </c>
       <c r="Q38">
-        <v>1311</v>
+        <v>7.6510634190285502E-3</v>
       </c>
       <c r="R38">
-        <v>7745.22</v>
+        <v>7.7452200000000007</v>
       </c>
       <c r="S38">
-        <v>715272.58</v>
+        <v>4.1743675602381174</v>
       </c>
       <c r="T38">
         <v>28.5</v>
@@ -3448,10 +3462,10 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>25</v>
+        <v>5.1843202101598982E-4</v>
       </c>
       <c r="C39">
         <v>4822233</v>
@@ -3472,37 +3486,37 @@
         <v>36085.839999999997</v>
       </c>
       <c r="I39">
-        <v>9721.24</v>
+        <v>9.7212399999999999</v>
       </c>
       <c r="J39">
-        <v>4738.1400000000003</v>
+        <v>4.7381400000000005</v>
       </c>
       <c r="K39">
         <v>16</v>
       </c>
       <c r="L39">
-        <v>0.92</v>
+        <v>92</v>
       </c>
       <c r="M39">
-        <v>5690.14</v>
+        <v>5.6901400000000004</v>
       </c>
       <c r="N39">
-        <v>463187.32</v>
+        <v>9.605245536663201</v>
       </c>
       <c r="O39">
-        <v>0.11</v>
+        <v>11</v>
       </c>
       <c r="P39">
         <v>30.8</v>
       </c>
       <c r="Q39">
-        <v>326</v>
+        <v>6.7603535540485087E-3</v>
       </c>
       <c r="R39">
-        <v>6010.91</v>
+        <v>6.01091</v>
       </c>
       <c r="S39">
-        <v>186914.46</v>
+        <v>3.8760976501964959</v>
       </c>
       <c r="T39">
         <v>34.4</v>
@@ -3510,10 +3524,10 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>285</v>
+        <v>5.2570979122496279E-3</v>
       </c>
       <c r="C40">
         <v>5421242</v>
@@ -3534,37 +3548,37 @@
         <v>64800.06</v>
       </c>
       <c r="I40">
-        <v>10968.9</v>
+        <v>10.9689</v>
       </c>
       <c r="J40">
-        <v>7595.37</v>
+        <v>7.59537</v>
       </c>
       <c r="K40">
         <v>20.2</v>
       </c>
       <c r="L40">
-        <v>0.95</v>
+        <v>95</v>
       </c>
       <c r="M40">
-        <v>6472.62</v>
+        <v>6.47262</v>
       </c>
       <c r="N40">
-        <v>447570.9</v>
+        <v>8.255873838504165</v>
       </c>
       <c r="O40">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="P40">
         <v>23.1</v>
       </c>
       <c r="Q40">
-        <v>443</v>
+        <v>8.1715592109704738E-3</v>
       </c>
       <c r="R40">
-        <v>6963.43</v>
+        <v>6.9634300000000007</v>
       </c>
       <c r="S40">
-        <v>227807.55</v>
+        <v>4.2021284052621146</v>
       </c>
       <c r="T40">
         <v>27</v>
@@ -3572,10 +3586,10 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>34840</v>
+        <v>0.1056659066040767</v>
       </c>
       <c r="C41">
         <v>32971846</v>
@@ -3596,37 +3610,37 @@
         <v>12236.71</v>
       </c>
       <c r="I41">
-        <v>4129.3100000000004</v>
+        <v>4.1293100000000003</v>
       </c>
       <c r="J41">
-        <v>3373.61</v>
+        <v>3.3736100000000002</v>
       </c>
       <c r="K41">
         <v>4.8</v>
       </c>
       <c r="L41">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="M41">
-        <v>1227.78</v>
+        <v>1.2277799999999999</v>
       </c>
       <c r="N41">
-        <v>3237322.01</v>
+        <v>9.8184433167618206</v>
       </c>
       <c r="O41">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="P41">
         <v>19.7</v>
       </c>
       <c r="Q41">
-        <v>261</v>
+        <v>7.9158443236693513E-4</v>
       </c>
       <c r="R41">
-        <v>4189.54</v>
+        <v>4.18954</v>
       </c>
       <c r="S41">
-        <v>196294.64</v>
+        <v>0.59534015778188465</v>
       </c>
       <c r="T41">
         <v>42.8</v>
@@ -3634,10 +3648,10 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B42">
-        <v>7636</v>
+        <v>2.017618224937217E-2</v>
       </c>
       <c r="C42">
         <v>37846605</v>
@@ -3658,37 +3672,37 @@
         <v>27216.45</v>
       </c>
       <c r="I42">
-        <v>11027.02</v>
+        <v>11.02702</v>
       </c>
       <c r="J42">
-        <v>9219.4699999999993</v>
+        <v>9.2194699999999994</v>
       </c>
       <c r="K42">
         <v>28</v>
       </c>
       <c r="L42">
-        <v>0.87</v>
+        <v>87</v>
       </c>
       <c r="M42">
-        <v>3721.35</v>
+        <v>3.7213499999999997</v>
       </c>
       <c r="N42">
-        <v>4361113.4800000004</v>
+        <v>11.523129961062558</v>
       </c>
       <c r="O42">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="P42">
         <v>23.1</v>
       </c>
       <c r="Q42">
-        <v>1566</v>
+        <v>4.1377555529749626E-3</v>
       </c>
       <c r="R42">
-        <v>5762.26</v>
+        <v>5.7622600000000004</v>
       </c>
       <c r="S42">
-        <v>883121.28</v>
+        <v>2.3334227204791556</v>
       </c>
       <c r="T42">
         <v>29.7</v>
@@ -3696,10 +3710,10 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>2848</v>
+        <v>2.7930585825404221E-2</v>
       </c>
       <c r="C43">
         <v>10196707</v>
@@ -3720,37 +3734,37 @@
         <v>27936.9</v>
       </c>
       <c r="I43">
-        <v>10218.49</v>
+        <v>10.218489999999999</v>
       </c>
       <c r="J43">
-        <v>12046.27</v>
+        <v>12.04627</v>
       </c>
       <c r="K43">
         <v>22.7</v>
       </c>
       <c r="L43">
-        <v>0.85</v>
+        <v>85</v>
       </c>
       <c r="M43">
-        <v>5916.05</v>
+        <v>5.9160500000000003</v>
       </c>
       <c r="N43">
-        <v>1177966.94</v>
+        <v>11.552425111361933</v>
       </c>
       <c r="O43">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="P43">
         <v>20.8</v>
       </c>
       <c r="Q43">
-        <v>847</v>
+        <v>8.3066032984962703E-3</v>
       </c>
       <c r="R43">
-        <v>10367.73</v>
+        <v>10.36773</v>
       </c>
       <c r="S43">
-        <v>303194.46000000002</v>
+        <v>2.9734546653149887</v>
       </c>
       <c r="T43">
         <v>33.799999999999997</v>
@@ -3758,10 +3772,10 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>7793</v>
+        <v>4.050903845899937E-2</v>
       </c>
       <c r="C44">
         <v>19237682</v>
@@ -3782,37 +3796,37 @@
         <v>23313.200000000001</v>
       </c>
       <c r="I44">
-        <v>13272.99</v>
+        <v>13.27299</v>
       </c>
       <c r="J44">
-        <v>6666.79</v>
+        <v>6.6667899999999998</v>
       </c>
       <c r="K44">
         <v>29.7</v>
       </c>
       <c r="L44">
-        <v>0.81</v>
+        <v>81</v>
       </c>
       <c r="M44">
-        <v>4014.5</v>
+        <v>4.0145</v>
       </c>
       <c r="N44">
-        <v>2219096.9700000002</v>
+        <v>11.535157770047348</v>
       </c>
       <c r="O44">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="P44">
         <v>22.5</v>
       </c>
       <c r="Q44">
-        <v>295</v>
+        <v>1.533448780367614E-3</v>
       </c>
       <c r="R44">
-        <v>4389.01</v>
+        <v>4.3890099999999999</v>
       </c>
       <c r="S44">
-        <v>450330.84</v>
+        <v>2.3408789063048241</v>
       </c>
       <c r="T44">
         <v>36</v>
@@ -3820,10 +3834,10 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B45">
-        <v>30251</v>
+        <v>2.0729168422591895E-2</v>
       </c>
       <c r="C45">
         <v>145934460</v>
@@ -3844,37 +3858,37 @@
         <v>24765.95</v>
       </c>
       <c r="I45">
-        <v>11721.72</v>
+        <v>11.721719999999999</v>
       </c>
       <c r="J45">
-        <v>4124.2299999999996</v>
+        <v>4.1242299999999998</v>
       </c>
       <c r="K45">
         <v>39.299999999999997</v>
       </c>
       <c r="L45">
-        <v>0.82</v>
+        <v>82</v>
       </c>
       <c r="M45">
-        <v>2672.54</v>
+        <v>2.6725400000000001</v>
       </c>
       <c r="N45">
-        <v>21702693.879999999</v>
+        <v>14.871534714967252</v>
       </c>
       <c r="O45">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="P45">
         <v>23.1</v>
       </c>
       <c r="Q45">
-        <v>2429</v>
+        <v>1.6644458066998021E-3</v>
       </c>
       <c r="R45">
-        <v>2390.79</v>
+        <v>2.39079</v>
       </c>
       <c r="S45">
-        <v>3193052.76</v>
+        <v>2.1880046426320416</v>
       </c>
       <c r="T45">
         <v>37.5</v>
@@ -3882,10 +3896,10 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>5525</v>
+        <v>1.587011290644616E-2</v>
       </c>
       <c r="C46">
         <v>34813867</v>
@@ -3906,37 +3920,37 @@
         <v>49045.41</v>
       </c>
       <c r="I46">
-        <v>4473.3599999999997</v>
+        <v>4.4733599999999996</v>
       </c>
       <c r="J46">
-        <v>6958.35</v>
+        <v>6.9583500000000003</v>
       </c>
       <c r="K46">
         <v>15.6</v>
       </c>
       <c r="L46">
-        <v>0.85</v>
+        <v>85</v>
       </c>
       <c r="M46">
-        <v>1216.17</v>
+        <v>1.21617</v>
       </c>
       <c r="N46">
-        <v>2915089.62</v>
+        <v>8.373357719784476</v>
       </c>
       <c r="O46">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="P46">
         <v>35.4</v>
       </c>
       <c r="Q46">
-        <v>1530</v>
+        <v>4.3948004971697055E-3</v>
       </c>
       <c r="R46">
-        <v>2390.0100000000002</v>
+        <v>2.3900100000000002</v>
       </c>
       <c r="S46">
-        <v>208450.34</v>
+        <v>0.59875663912888499</v>
       </c>
       <c r="T46">
         <v>45.9</v>
@@ -3944,10 +3958,10 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>351</v>
+        <v>6.4289917857266489E-3</v>
       </c>
       <c r="C47">
         <v>5459643</v>
@@ -3968,37 +3982,37 @@
         <v>30155.15</v>
       </c>
       <c r="I47">
-        <v>11115.47</v>
+        <v>11.11547</v>
       </c>
       <c r="J47">
-        <v>7120.95</v>
+        <v>7.1209499999999997</v>
       </c>
       <c r="K47">
         <v>30.1</v>
       </c>
       <c r="L47">
-        <v>0.86</v>
+        <v>86</v>
       </c>
       <c r="M47">
-        <v>2879.95</v>
+        <v>2.87995</v>
       </c>
       <c r="N47">
-        <v>620866.55000000005</v>
+        <v>11.371925783425766</v>
       </c>
       <c r="O47">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="P47">
         <v>20.5</v>
       </c>
       <c r="Q47">
-        <v>259</v>
+        <v>4.7438999216615442E-3</v>
       </c>
       <c r="R47">
-        <v>2938.77</v>
+        <v>2.9387699999999999</v>
       </c>
       <c r="S47">
-        <v>158662.57999999999</v>
+        <v>2.9060980727128127</v>
       </c>
       <c r="T47">
         <v>25.2</v>
@@ -4006,10 +4020,10 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>378</v>
+        <v>1.8182412892773791E-2</v>
       </c>
       <c r="C48">
         <v>2078932</v>
@@ -4030,37 +4044,37 @@
         <v>31400.84</v>
       </c>
       <c r="I48">
-        <v>13755.61</v>
+        <v>13.755610000000001</v>
       </c>
       <c r="J48">
-        <v>8121.96</v>
+        <v>8.1219599999999996</v>
       </c>
       <c r="K48">
         <v>22.5</v>
       </c>
       <c r="L48">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="M48">
-        <v>3782.51</v>
+        <v>3.7825100000000003</v>
       </c>
       <c r="N48">
-        <v>258487.82</v>
+        <v>12.433683256595215</v>
       </c>
       <c r="O48">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="P48">
         <v>20.2</v>
       </c>
       <c r="Q48">
-        <v>95</v>
+        <v>4.5696540338981744E-3</v>
       </c>
       <c r="R48">
-        <v>4946.5200000000004</v>
+        <v>4.9465200000000005</v>
       </c>
       <c r="S48">
-        <v>63997.61</v>
+        <v>3.0783888073299175</v>
       </c>
       <c r="T48">
         <v>24.2</v>
@@ -4068,10 +4082,10 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>38833</v>
+        <v>8.3056743093000776E-2</v>
       </c>
       <c r="C49">
         <v>46754783</v>
@@ -4092,37 +4106,37 @@
         <v>34272.36</v>
       </c>
       <c r="I49">
-        <v>9820.9599999999991</v>
+        <v>9.8209599999999995</v>
       </c>
       <c r="J49">
-        <v>9732.2999999999993</v>
+        <v>9.7322999999999986</v>
       </c>
       <c r="K49">
         <v>29.3</v>
       </c>
       <c r="L49">
-        <v>0.89</v>
+        <v>89</v>
       </c>
       <c r="M49">
-        <v>6314.08</v>
+        <v>6.3140799999999997</v>
       </c>
       <c r="N49">
-        <v>4494877.8600000003</v>
+        <v>9.6137284179032552</v>
       </c>
       <c r="O49">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="P49">
         <v>23.8</v>
       </c>
       <c r="Q49">
-        <v>5449</v>
+        <v>1.1654422607415374E-2</v>
       </c>
       <c r="R49">
-        <v>4857.5</v>
+        <v>4.8574999999999999</v>
       </c>
       <c r="S49">
-        <v>1452369.1</v>
+        <v>3.1063540600755224</v>
       </c>
       <c r="T49">
         <v>34.700000000000003</v>
@@ -4130,10 +4144,10 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>6112</v>
+        <v>6.0519225647002212E-2</v>
       </c>
       <c r="C50">
         <v>10099270</v>
@@ -4154,37 +4168,37 @@
         <v>46949.279999999999</v>
       </c>
       <c r="I50">
-        <v>12036.06</v>
+        <v>12.036059999999999</v>
       </c>
       <c r="J50">
-        <v>7179.75</v>
+        <v>7.1797500000000003</v>
       </c>
       <c r="K50">
         <v>18.8</v>
       </c>
       <c r="L50">
-        <v>0.93</v>
+        <v>93</v>
       </c>
       <c r="M50">
-        <v>6429.96</v>
+        <v>6.4299600000000003</v>
       </c>
       <c r="N50">
-        <v>1078789.6000000001</v>
+        <v>10.681857203540455</v>
       </c>
       <c r="O50">
-        <v>0.12</v>
+        <v>12</v>
       </c>
       <c r="P50">
         <v>20.6</v>
       </c>
       <c r="Q50">
-        <v>799</v>
+        <v>7.9114629077151125E-3</v>
       </c>
       <c r="R50">
-        <v>8064.78</v>
+        <v>8.0647799999999989</v>
       </c>
       <c r="S50">
-        <v>374813.23</v>
+        <v>3.7112903209835957</v>
       </c>
       <c r="T50">
         <v>28.8</v>
@@ -4192,10 +4206,10 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>2404</v>
+        <v>2.7777078087097545E-2</v>
       </c>
       <c r="C51">
         <v>8654618</v>
@@ -4216,37 +4230,37 @@
         <v>57410.17</v>
       </c>
       <c r="I51">
-        <v>9373.02</v>
+        <v>9.3730200000000004</v>
       </c>
       <c r="J51">
-        <v>7315.89</v>
+        <v>7.3158900000000004</v>
       </c>
       <c r="K51">
         <v>25.7</v>
       </c>
       <c r="L51">
-        <v>0.94</v>
+        <v>94</v>
       </c>
       <c r="M51">
-        <v>4868.03</v>
+        <v>4.8680300000000001</v>
       </c>
       <c r="N51">
-        <v>948415.37</v>
+        <v>10.958489097959031</v>
       </c>
       <c r="O51">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="P51">
         <v>19.5</v>
       </c>
       <c r="Q51">
-        <v>600</v>
+        <v>6.9327149967797538E-3</v>
       </c>
       <c r="R51">
-        <v>6937.97</v>
+        <v>6.93797</v>
       </c>
       <c r="S51">
-        <v>273098.77</v>
+        <v>3.1555265639685084</v>
       </c>
       <c r="T51">
         <v>32.700000000000003</v>
@@ -4254,187 +4268,260 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B52">
-        <v>514</v>
+        <v>1.2809010562092179E-2</v>
       </c>
       <c r="C52">
-        <v>9890400</v>
+        <f>84339067</f>
+        <v>84339067</v>
       </c>
       <c r="D52">
-        <v>112.44</v>
+        <f>104.91</f>
+        <v>104.91</v>
       </c>
       <c r="E52">
-        <v>34</v>
+        <f>31.6</f>
+        <v>31.6</v>
       </c>
       <c r="F52">
-        <v>1.1399999999999999</v>
+        <f>8.15</f>
+        <v>8.15</v>
       </c>
       <c r="G52">
-        <v>0.53</v>
+        <f>5.06</f>
+        <v>5.0599999999999996</v>
       </c>
       <c r="H52">
-        <v>67293.48</v>
+        <f>25129.34</f>
+        <v>25129.34</v>
       </c>
       <c r="I52">
-        <v>4930.18</v>
+        <v>6.7318899999999999</v>
       </c>
       <c r="J52">
-        <v>7782.55</v>
+        <v>5.6722799999999998</v>
       </c>
       <c r="K52">
-        <v>28.9</v>
+        <f>27.2</f>
+        <v>27.2</v>
       </c>
       <c r="L52">
-        <v>0.86</v>
+        <f>79</f>
+        <v>79</v>
       </c>
       <c r="M52">
-        <v>2067.4499999999998</v>
+        <v>3.5465900000000001</v>
       </c>
       <c r="N52">
-        <v>706923.83</v>
+        <v>10.48950722919427</v>
       </c>
       <c r="O52">
-        <v>0.04</v>
+        <f>5</f>
+        <v>5</v>
       </c>
       <c r="P52">
-        <v>31.7</v>
+        <f>32.1</f>
+        <v>32.1</v>
       </c>
       <c r="Q52">
-        <v>93</v>
+        <v>6.8331322659758616E-3</v>
       </c>
       <c r="R52">
-        <v>6651.26</v>
+        <v>5.0176800000000004</v>
       </c>
       <c r="S52">
-        <v>49880.65</v>
+        <v>0.91854510318450633</v>
       </c>
       <c r="T52">
-        <v>32.5</v>
+        <f>41.9</f>
+        <v>41.9</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>48888</v>
+        <v>5.1969586669902128E-3</v>
       </c>
       <c r="C53">
-        <v>67886004</v>
+        <v>9890400</v>
       </c>
       <c r="D53">
-        <v>272.89999999999998</v>
+        <v>112.44</v>
       </c>
       <c r="E53">
-        <v>40.799999999999997</v>
+        <v>34</v>
       </c>
       <c r="F53">
-        <v>18.52</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G53">
-        <v>12.53</v>
+        <v>0.53</v>
       </c>
       <c r="H53">
-        <v>39753.24</v>
+        <v>67293.48</v>
       </c>
       <c r="I53">
-        <v>9668.34</v>
+        <v>4.93018</v>
       </c>
       <c r="J53">
-        <v>12072.41</v>
+        <v>7.7825500000000005</v>
       </c>
       <c r="K53">
-        <v>22.3</v>
+        <v>28.9</v>
       </c>
       <c r="L53">
-        <v>0.92</v>
+        <v>86</v>
       </c>
       <c r="M53">
-        <v>7032.99</v>
+        <v>2.06745</v>
       </c>
       <c r="N53">
-        <v>5643651.75</v>
+        <v>7.1475757300008089</v>
       </c>
       <c r="O53">
-        <v>0.09</v>
+        <v>4</v>
       </c>
       <c r="P53">
-        <v>27.8</v>
+        <v>31.7</v>
       </c>
       <c r="Q53">
-        <v>5178</v>
+        <v>9.4030575103130312E-4</v>
       </c>
       <c r="R53">
-        <v>9609</v>
+        <v>6.6512600000000006</v>
       </c>
       <c r="S53">
-        <v>2622772.1</v>
+        <v>0.50433400064709211</v>
       </c>
       <c r="T53">
-        <v>34.799999999999997</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>237113</v>
+        <v>7.2014844179074083E-2</v>
       </c>
       <c r="C54">
+        <v>67886004</v>
+      </c>
+      <c r="D54">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="E54">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F54">
+        <v>18.52</v>
+      </c>
+      <c r="G54">
+        <v>12.53</v>
+      </c>
+      <c r="H54">
+        <v>39753.24</v>
+      </c>
+      <c r="I54">
+        <v>9.6683400000000006</v>
+      </c>
+      <c r="J54">
+        <v>12.07241</v>
+      </c>
+      <c r="K54">
+        <v>22.3</v>
+      </c>
+      <c r="L54">
+        <v>92</v>
+      </c>
+      <c r="M54">
+        <v>7.0329899999999999</v>
+      </c>
+      <c r="N54">
+        <v>8.31342459043546</v>
+      </c>
+      <c r="O54">
+        <v>9</v>
+      </c>
+      <c r="P54">
+        <v>27.8</v>
+      </c>
+      <c r="Q54">
+        <v>7.6274927008518579E-3</v>
+      </c>
+      <c r="R54">
+        <v>9.609</v>
+      </c>
+      <c r="S54">
+        <v>3.863494601921186</v>
+      </c>
+      <c r="T54">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>7.1634774570246862E-2</v>
+      </c>
+      <c r="C55">
         <v>331002647</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <v>35.61</v>
       </c>
-      <c r="E54">
+      <c r="E55">
         <v>38.299999999999997</v>
       </c>
-      <c r="F54">
+      <c r="F55">
         <v>15.41</v>
       </c>
-      <c r="G54">
+      <c r="G55">
         <v>9.73</v>
       </c>
-      <c r="H54">
+      <c r="H55">
         <v>54225.45</v>
       </c>
-      <c r="I54">
-        <v>12095.06</v>
-      </c>
-      <c r="J54">
-        <v>11036.93</v>
-      </c>
-      <c r="K54">
+      <c r="I55">
+        <v>12.09506</v>
+      </c>
+      <c r="J55">
+        <v>11.03693</v>
+      </c>
+      <c r="K55">
         <v>21.8</v>
       </c>
-      <c r="L54">
-        <v>0.92</v>
-      </c>
-      <c r="M54">
-        <v>6143.06</v>
-      </c>
-      <c r="N54">
-        <v>40241611.270000003</v>
-      </c>
-      <c r="O54">
-        <v>0.17</v>
-      </c>
-      <c r="P54">
+      <c r="L55">
+        <v>92</v>
+      </c>
+      <c r="M55">
+        <v>6.1430600000000002</v>
+      </c>
+      <c r="N55">
+        <v>12.157489263220304</v>
+      </c>
+      <c r="O55">
+        <v>17</v>
+      </c>
+      <c r="P55">
         <v>36.200000000000003</v>
       </c>
-      <c r="Q54">
-        <v>40621</v>
-      </c>
-      <c r="R54">
-        <v>10352.64</v>
-      </c>
-      <c r="S54">
-        <v>22862718.149999999</v>
-      </c>
-      <c r="T54">
+      <c r="Q55">
+        <v>1.2272107298283931E-2</v>
+      </c>
+      <c r="R55">
+        <v>10.352639999999999</v>
+      </c>
+      <c r="S55">
+        <v>6.9071103682140649</v>
+      </c>
+      <c r="T55">
         <v>41.1</v>
       </c>
     </row>

--- a/my.data.xlsx
+++ b/my.data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakvist/Desktop/P5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2F2BF931-F569-6F4B-9938-A9F44A6BC0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{90053EF9-176C-D745-8B48-9881D97EBDEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="74" uniqueCount="74">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="73" uniqueCount="73">
   <si>
     <t>Country</t>
-  </si>
-  <si>
-    <t>Population</t>
   </si>
   <si>
     <t>Pop.density</t>
@@ -1096,20 +1093,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T53" sqref="T53"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1127,19 +1124,19 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
         <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="M1" t="s">
         <v>67</v>
@@ -1148,10 +1145,10 @@
         <v>68</v>
       </c>
       <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
         <v>69</v>
-      </c>
-      <c r="P1" t="s">
-        <v>9</v>
       </c>
       <c r="Q1" t="s">
         <v>70</v>
@@ -1160,3368 +1157,3202 @@
         <v>71</v>
       </c>
       <c r="S1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
       </c>
       <c r="B2">
         <v>4.6429910458458193E-3</v>
       </c>
       <c r="C2">
-        <v>43851043</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="D2">
-        <v>17.350000000000001</v>
+        <v>29.1</v>
       </c>
       <c r="E2">
-        <v>29.1</v>
+        <v>6.21</v>
       </c>
       <c r="F2">
-        <v>6.21</v>
+        <v>3.86</v>
       </c>
       <c r="G2">
-        <v>3.86</v>
+        <v>13913.84</v>
       </c>
       <c r="H2">
-        <v>13913.84</v>
+        <v>6.3349700000000002</v>
       </c>
       <c r="I2">
-        <v>6.3349700000000002</v>
+        <v>6.7149899999999993</v>
       </c>
       <c r="J2">
-        <v>6.7149899999999993</v>
+        <v>15.6</v>
       </c>
       <c r="K2">
-        <v>15.6</v>
+        <v>75</v>
       </c>
       <c r="L2">
-        <v>75</v>
+        <v>1.5024900000000001</v>
       </c>
       <c r="M2">
-        <v>1.5024900000000001</v>
+        <v>8.6039776066443849</v>
       </c>
       <c r="N2">
-        <v>8.6039776066443849</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="O2">
-        <v>7.0000000000000009</v>
+        <v>27.4</v>
       </c>
       <c r="P2">
-        <v>27.4</v>
+        <v>6.4308618611420485E-4</v>
       </c>
       <c r="Q2">
-        <v>6.4308618611420485E-4</v>
+        <v>3.1349999999999998</v>
       </c>
       <c r="R2">
-        <v>3.1349999999999998</v>
+        <v>0.46348352535195114</v>
       </c>
       <c r="S2">
-        <v>0.46348352535195114</v>
-      </c>
-      <c r="T2">
         <v>27.6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>7.3785654796907241E-2</v>
       </c>
       <c r="C3">
-        <v>45195777</v>
+        <v>16.18</v>
       </c>
       <c r="D3">
-        <v>16.18</v>
+        <v>31.9</v>
       </c>
       <c r="E3">
-        <v>31.9</v>
+        <v>11.2</v>
       </c>
       <c r="F3">
-        <v>11.2</v>
+        <v>7.44</v>
       </c>
       <c r="G3">
-        <v>7.44</v>
+        <v>18933.91</v>
       </c>
       <c r="H3">
-        <v>18933.91</v>
+        <v>5.9527600000000005</v>
       </c>
       <c r="I3">
-        <v>5.9527600000000005</v>
+        <v>5.6363900000000005</v>
       </c>
       <c r="J3">
-        <v>5.6363900000000005</v>
+        <v>21.8</v>
       </c>
       <c r="K3">
-        <v>21.8</v>
+        <v>83</v>
       </c>
       <c r="L3">
-        <v>83</v>
+        <v>3.4788399999999999</v>
       </c>
       <c r="M3">
-        <v>3.4788399999999999</v>
+        <v>8.105951425505971</v>
       </c>
       <c r="N3">
-        <v>8.105951425505971</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>28.3</v>
       </c>
       <c r="P3">
-        <v>28.3</v>
+        <v>5.3478447776215904E-3</v>
       </c>
       <c r="Q3">
-        <v>5.3478447776215904E-3</v>
+        <v>7.1703999999999999</v>
       </c>
       <c r="R3">
-        <v>7.1703999999999999</v>
+        <v>1.2077655839394024</v>
       </c>
       <c r="S3">
-        <v>1.2077655839394024</v>
-      </c>
-      <c r="T3">
         <v>41.4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>5.2611437368766688E-2</v>
       </c>
       <c r="C4">
-        <v>2963234</v>
+        <v>102.93</v>
       </c>
       <c r="D4">
-        <v>102.93</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="E4">
-        <v>35.700000000000003</v>
+        <v>11.23</v>
       </c>
       <c r="F4">
-        <v>11.23</v>
+        <v>7.57</v>
       </c>
       <c r="G4">
-        <v>7.57</v>
+        <v>8787.58</v>
       </c>
       <c r="H4">
-        <v>8787.58</v>
+        <v>9.9910100000000011</v>
       </c>
       <c r="I4">
-        <v>9.9910100000000011</v>
+        <v>7.1351400000000007</v>
       </c>
       <c r="J4">
-        <v>7.1351400000000007</v>
+        <v>24.1</v>
       </c>
       <c r="K4">
-        <v>24.1</v>
+        <v>76</v>
       </c>
       <c r="L4">
-        <v>76</v>
+        <v>3.0969699999999998</v>
       </c>
       <c r="M4">
-        <v>3.0969699999999998</v>
+        <v>11.828175905109081</v>
       </c>
       <c r="N4">
-        <v>11.828175905109081</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>20.2</v>
       </c>
       <c r="P4">
-        <v>20.2</v>
+        <v>7.7617899902606411E-4</v>
       </c>
       <c r="Q4">
-        <v>7.7617899902606411E-4</v>
+        <v>2.0603400000000001</v>
       </c>
       <c r="R4">
-        <v>2.0603400000000001</v>
+        <v>1.257502107494717</v>
       </c>
       <c r="S4">
-        <v>1.257502107494717</v>
-      </c>
-      <c r="T4">
         <v>34.4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>3.5568793438683103E-3</v>
       </c>
       <c r="C5">
-        <v>25499881</v>
+        <v>3.2</v>
       </c>
       <c r="D5">
-        <v>3.2</v>
+        <v>37.9</v>
       </c>
       <c r="E5">
-        <v>37.9</v>
+        <v>15.5</v>
       </c>
       <c r="F5">
-        <v>15.5</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="G5">
-        <v>10.130000000000001</v>
+        <v>44648.71</v>
       </c>
       <c r="H5">
-        <v>44648.71</v>
+        <v>10.52163</v>
       </c>
       <c r="I5">
-        <v>10.52163</v>
+        <v>5.32097</v>
       </c>
       <c r="J5">
-        <v>5.32097</v>
+        <v>14.7</v>
       </c>
       <c r="K5">
-        <v>14.7</v>
+        <v>94</v>
       </c>
       <c r="L5">
-        <v>94</v>
+        <v>5.2288000000000006</v>
       </c>
       <c r="M5">
-        <v>5.2288000000000006</v>
+        <v>9.7518386066193816</v>
       </c>
       <c r="N5">
-        <v>9.7518386066193816</v>
+        <v>9</v>
       </c>
       <c r="O5">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="P5">
-        <v>29</v>
+        <v>6.8274828419787525E-3</v>
       </c>
       <c r="Q5">
-        <v>6.8274828419787525E-3</v>
+        <v>8.3322700000000012</v>
       </c>
       <c r="R5">
-        <v>8.3322700000000012</v>
+        <v>3.8152080395983021</v>
       </c>
       <c r="S5">
-        <v>3.8152080395983021</v>
-      </c>
-      <c r="T5">
         <v>34.4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>1.4634038017409843E-2</v>
       </c>
       <c r="C6">
-        <v>9006400</v>
+        <v>106.75</v>
       </c>
       <c r="D6">
-        <v>106.75</v>
+        <v>44.4</v>
       </c>
       <c r="E6">
-        <v>44.4</v>
+        <v>19.2</v>
       </c>
       <c r="F6">
-        <v>19.2</v>
+        <v>13.75</v>
       </c>
       <c r="G6">
-        <v>13.75</v>
+        <v>45436.69</v>
       </c>
       <c r="H6">
-        <v>45436.69</v>
+        <v>11.87707</v>
       </c>
       <c r="I6">
-        <v>11.87707</v>
+        <v>6.8231999999999999</v>
       </c>
       <c r="J6">
-        <v>6.8231999999999999</v>
+        <v>29.6</v>
       </c>
       <c r="K6">
-        <v>29.6</v>
+        <v>91</v>
       </c>
       <c r="L6">
-        <v>91</v>
+        <v>5.8840699999999995</v>
       </c>
       <c r="M6">
-        <v>5.8840699999999995</v>
+        <v>10.884831453188843</v>
       </c>
       <c r="N6">
-        <v>10.884831453188843</v>
+        <v>11</v>
       </c>
       <c r="O6">
-        <v>11</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="P6">
-        <v>20.100000000000001</v>
+        <v>7.9943151536685016E-3</v>
       </c>
       <c r="Q6">
-        <v>7.9943151536685016E-3</v>
+        <v>5.4937800000000001</v>
       </c>
       <c r="R6">
-        <v>5.4937800000000001</v>
+        <v>3.2289811689465271</v>
       </c>
       <c r="S6">
-        <v>3.2289811689465271</v>
-      </c>
-      <c r="T6">
         <v>29.7</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0.11392094440402512</v>
       </c>
       <c r="C7">
-        <v>11589616</v>
+        <v>375.56</v>
       </c>
       <c r="D7">
-        <v>375.56</v>
+        <v>41.8</v>
       </c>
       <c r="E7">
-        <v>41.8</v>
+        <v>18.57</v>
       </c>
       <c r="F7">
-        <v>18.57</v>
+        <v>12.85</v>
       </c>
       <c r="G7">
-        <v>12.85</v>
+        <v>42658.58</v>
       </c>
       <c r="H7">
-        <v>42658.58</v>
+        <v>10.35961</v>
       </c>
       <c r="I7">
-        <v>10.35961</v>
+        <v>7.17028</v>
       </c>
       <c r="J7">
-        <v>7.17028</v>
+        <v>28.2</v>
       </c>
       <c r="K7">
-        <v>28.2</v>
+        <v>92</v>
       </c>
       <c r="L7">
-        <v>92</v>
+        <v>7.47</v>
       </c>
       <c r="M7">
-        <v>7.47</v>
+        <v>10.214873210639594</v>
       </c>
       <c r="N7">
-        <v>10.214873210639594</v>
+        <v>11</v>
       </c>
       <c r="O7">
-        <v>11</v>
+        <v>22.1</v>
       </c>
       <c r="P7">
-        <v>22.1</v>
+        <v>8.0589382771612105E-3</v>
       </c>
       <c r="Q7">
-        <v>8.0589382771612105E-3</v>
+        <v>4.7512299999999996</v>
       </c>
       <c r="R7">
-        <v>4.7512299999999996</v>
+        <v>3.0879515766527552</v>
       </c>
       <c r="S7">
-        <v>3.0879515766527552</v>
-      </c>
-      <c r="T7">
         <v>27.4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>7.634053969354046E-2</v>
       </c>
       <c r="C8">
-        <v>212559409</v>
+        <v>25.04</v>
       </c>
       <c r="D8">
-        <v>25.04</v>
+        <v>33.5</v>
       </c>
       <c r="E8">
-        <v>33.5</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="F8">
-        <v>8.5500000000000007</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="G8">
-        <v>5.0599999999999996</v>
+        <v>14103.45</v>
       </c>
       <c r="H8">
-        <v>14103.45</v>
+        <v>5.8832500000000003</v>
       </c>
       <c r="I8">
-        <v>5.8832500000000003</v>
+        <v>5.5417500000000004</v>
       </c>
       <c r="J8">
-        <v>5.5417500000000004</v>
+        <v>13.9</v>
       </c>
       <c r="K8">
-        <v>13.9</v>
+        <v>76</v>
       </c>
       <c r="L8">
-        <v>76</v>
+        <v>2.8746100000000001</v>
       </c>
       <c r="M8">
-        <v>2.8746100000000001</v>
+        <v>8.1866561738511425</v>
       </c>
       <c r="N8">
-        <v>8.1866561738511425</v>
+        <v>8</v>
       </c>
       <c r="O8">
-        <v>8</v>
+        <v>22.1</v>
       </c>
       <c r="P8">
-        <v>22.1</v>
+        <v>4.3432563363967579E-3</v>
       </c>
       <c r="Q8">
-        <v>4.3432563363967579E-3</v>
+        <v>4.39398</v>
       </c>
       <c r="R8">
-        <v>4.39398</v>
+        <v>0.80562009372165699</v>
       </c>
       <c r="S8">
-        <v>0.80562009372165699</v>
-      </c>
-      <c r="T8">
         <v>53.9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>2.3487269453813048E-2</v>
       </c>
       <c r="C9">
-        <v>6948445</v>
+        <v>65.180000000000007</v>
       </c>
       <c r="D9">
-        <v>65.180000000000007</v>
+        <v>44.7</v>
       </c>
       <c r="E9">
-        <v>44.7</v>
+        <v>20.8</v>
       </c>
       <c r="F9">
-        <v>20.8</v>
+        <v>13.27</v>
       </c>
       <c r="G9">
-        <v>13.27</v>
+        <v>18563.310000000001</v>
       </c>
       <c r="H9">
-        <v>18563.310000000001</v>
+        <v>14.464090000000001</v>
       </c>
       <c r="I9">
-        <v>14.464090000000001</v>
+        <v>9.068620000000001</v>
       </c>
       <c r="J9">
-        <v>9.068620000000001</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="L9">
-        <v>81</v>
+        <v>4.83162</v>
       </c>
       <c r="M9">
-        <v>4.83162</v>
+        <v>13.578211240068821</v>
       </c>
       <c r="N9">
-        <v>13.578211240068821</v>
+        <v>8</v>
       </c>
       <c r="O9">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="P9">
-        <v>25</v>
+        <v>7.6276058887995806E-4</v>
       </c>
       <c r="Q9">
-        <v>7.6276058887995806E-4</v>
+        <v>3.7608800000000002</v>
       </c>
       <c r="R9">
-        <v>3.7608800000000002</v>
+        <v>2.5526992010442626</v>
       </c>
       <c r="S9">
-        <v>2.5526992010442626</v>
-      </c>
-      <c r="T9">
         <v>40.4</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>2.7793853965474204E-2</v>
       </c>
       <c r="C10">
-        <v>37742157</v>
+        <v>4.04</v>
       </c>
       <c r="D10">
-        <v>4.04</v>
+        <v>41.4</v>
       </c>
       <c r="E10">
-        <v>41.4</v>
+        <v>16.98</v>
       </c>
       <c r="F10">
-        <v>16.98</v>
+        <v>10.8</v>
       </c>
       <c r="G10">
-        <v>10.8</v>
+        <v>44017.59</v>
       </c>
       <c r="H10">
-        <v>44017.59</v>
+        <v>11.77144</v>
       </c>
       <c r="I10">
-        <v>11.77144</v>
+        <v>5.54697</v>
       </c>
       <c r="J10">
-        <v>5.54697</v>
+        <v>14.3</v>
       </c>
       <c r="K10">
-        <v>14.3</v>
+        <v>93</v>
       </c>
       <c r="L10">
-        <v>93</v>
+        <v>4.9788800000000002</v>
       </c>
       <c r="M10">
-        <v>4.9788800000000002</v>
+        <v>9.8806906293140582</v>
       </c>
       <c r="N10">
-        <v>9.8806906293140582</v>
+        <v>10</v>
       </c>
       <c r="O10">
-        <v>10</v>
+        <v>29.4</v>
       </c>
       <c r="P10">
-        <v>29.4</v>
+        <v>8.1897809921144676E-3</v>
       </c>
       <c r="Q10">
-        <v>8.1897809921144676E-3</v>
+        <v>4.5190100000000006</v>
       </c>
       <c r="R10">
-        <v>4.5190100000000006</v>
+        <v>5.9366592905646591</v>
       </c>
       <c r="S10">
-        <v>5.9366592905646591</v>
-      </c>
-      <c r="T10">
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>7.5846628376996711E-2</v>
       </c>
       <c r="C11">
-        <v>19116209</v>
+        <v>24.28</v>
       </c>
       <c r="D11">
-        <v>24.28</v>
+        <v>35.4</v>
       </c>
       <c r="E11">
-        <v>35.4</v>
+        <v>11.09</v>
       </c>
       <c r="F11">
-        <v>11.09</v>
+        <v>6.94</v>
       </c>
       <c r="G11">
-        <v>6.94</v>
+        <v>22767.040000000001</v>
       </c>
       <c r="H11">
-        <v>22767.040000000001</v>
+        <v>6.0031699999999999</v>
       </c>
       <c r="I11">
-        <v>6.0031699999999999</v>
+        <v>7.5034600000000005</v>
       </c>
       <c r="J11">
-        <v>7.5034600000000005</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="K11">
-        <v>37.799999999999997</v>
+        <v>84</v>
       </c>
       <c r="L11">
-        <v>84</v>
+        <v>2.7591000000000001</v>
       </c>
       <c r="M11">
-        <v>2.7591000000000001</v>
+        <v>9.1030007047945531</v>
       </c>
       <c r="N11">
-        <v>9.1030007047945531</v>
+        <v>8</v>
       </c>
       <c r="O11">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="P11">
-        <v>28</v>
+        <v>3.4054869351972453E-3</v>
       </c>
       <c r="Q11">
-        <v>3.4054869351972453E-3</v>
+        <v>5.4443100000000006</v>
       </c>
       <c r="R11">
-        <v>5.4443100000000006</v>
+        <v>1.3024669274122289</v>
       </c>
       <c r="S11">
-        <v>1.3024669274122289</v>
-      </c>
-      <c r="T11">
         <v>44.4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>3.2925183934327205E-4</v>
       </c>
       <c r="C12">
-        <v>1439323774</v>
+        <v>147.66999999999999</v>
       </c>
       <c r="D12">
-        <v>147.66999999999999</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="E12">
-        <v>38.700000000000003</v>
+        <v>10.64</v>
       </c>
       <c r="F12">
-        <v>10.64</v>
+        <v>5.93</v>
       </c>
       <c r="G12">
-        <v>5.93</v>
+        <v>15308.71</v>
       </c>
       <c r="H12">
-        <v>15308.71</v>
+        <v>8.4600799999999996</v>
       </c>
       <c r="I12">
-        <v>8.4600799999999996</v>
+        <v>6.3287899999999997</v>
       </c>
       <c r="J12">
-        <v>6.3287899999999997</v>
+        <v>25.6</v>
       </c>
       <c r="K12">
-        <v>25.6</v>
+        <v>75</v>
       </c>
       <c r="L12">
-        <v>75</v>
+        <v>3.17537</v>
       </c>
       <c r="M12">
-        <v>3.17537</v>
+        <v>10.456124766268191</v>
       </c>
       <c r="N12">
-        <v>10.456124766268191</v>
+        <v>6</v>
       </c>
       <c r="O12">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="P12">
-        <v>6.2</v>
+        <v>1.3521627552856637E-3</v>
       </c>
       <c r="Q12">
-        <v>1.3521627552856637E-3</v>
+        <v>1.7412699999999999</v>
       </c>
       <c r="R12">
-        <v>1.7412699999999999</v>
+        <v>1.5577681891329616</v>
       </c>
       <c r="S12">
-        <v>1.5577681891329616</v>
-      </c>
-      <c r="T12">
         <v>38.5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>6.4058868990208961E-2</v>
       </c>
       <c r="C13">
-        <v>50882884</v>
+        <v>44.22</v>
       </c>
       <c r="D13">
-        <v>44.22</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="E13">
-        <v>32.200000000000003</v>
+        <v>7.65</v>
       </c>
       <c r="F13">
-        <v>7.65</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="G13">
-        <v>4.3099999999999996</v>
+        <v>13254.95</v>
       </c>
       <c r="H13">
-        <v>13254.95</v>
+        <v>4.7739200000000004</v>
       </c>
       <c r="I13">
-        <v>4.7739200000000004</v>
+        <v>7.4329200000000002</v>
       </c>
       <c r="J13">
-        <v>7.4329200000000002</v>
+        <v>9</v>
       </c>
       <c r="K13">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="L13">
-        <v>75</v>
+        <v>2.7617699999999998</v>
       </c>
       <c r="M13">
-        <v>2.7617699999999998</v>
+        <v>10.256222131591441</v>
       </c>
       <c r="N13">
-        <v>10.256222131591441</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="O13">
-        <v>7.0000000000000009</v>
+        <v>22.3</v>
       </c>
       <c r="P13">
-        <v>22.3</v>
+        <v>2.5902619827916987E-3</v>
       </c>
       <c r="Q13">
-        <v>2.5902619827916987E-3</v>
+        <v>3.2471700000000001</v>
       </c>
       <c r="R13">
-        <v>3.2471700000000001</v>
+        <v>0.86351202105603919</v>
       </c>
       <c r="S13">
-        <v>0.86351202105603919</v>
-      </c>
-      <c r="T13">
         <v>50.4</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>2.8739050598396501E-2</v>
       </c>
       <c r="C14">
-        <v>5094114</v>
+        <v>96.08</v>
       </c>
       <c r="D14">
-        <v>96.08</v>
+        <v>33.6</v>
       </c>
       <c r="E14">
-        <v>33.6</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="F14">
-        <v>9.4700000000000006</v>
+        <v>5.69</v>
       </c>
       <c r="G14">
-        <v>5.69</v>
+        <v>15525</v>
       </c>
       <c r="H14">
-        <v>15525</v>
+        <v>5.7698999999999998</v>
       </c>
       <c r="I14">
-        <v>5.7698999999999998</v>
+        <v>8.0008199999999992</v>
       </c>
       <c r="J14">
-        <v>8.0008199999999992</v>
+        <v>11.9</v>
       </c>
       <c r="K14">
-        <v>11.9</v>
+        <v>79</v>
       </c>
       <c r="L14">
-        <v>79</v>
+        <v>2.26654</v>
       </c>
       <c r="M14">
-        <v>2.26654</v>
+        <v>12.972549102748779</v>
       </c>
       <c r="N14">
-        <v>12.972549102748779</v>
+        <v>9</v>
       </c>
       <c r="O14">
-        <v>9</v>
+        <v>25.7</v>
       </c>
       <c r="P14">
-        <v>25.7</v>
+        <v>2.0808328985177796E-3</v>
       </c>
       <c r="Q14">
-        <v>2.0808328985177796E-3</v>
+        <v>5.2292800000000002</v>
       </c>
       <c r="R14">
-        <v>5.2292800000000002</v>
+        <v>1.2127476927292951</v>
       </c>
       <c r="S14">
-        <v>1.2127476927292951</v>
-      </c>
-      <c r="T14">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>1.8317927112188534E-2</v>
       </c>
       <c r="C15">
-        <v>4105268</v>
+        <v>73.73</v>
       </c>
       <c r="D15">
-        <v>73.73</v>
+        <v>44</v>
       </c>
       <c r="E15">
-        <v>44</v>
+        <v>19.72</v>
       </c>
       <c r="F15">
-        <v>19.72</v>
+        <v>13.05</v>
       </c>
       <c r="G15">
-        <v>13.05</v>
+        <v>22669.8</v>
       </c>
       <c r="H15">
-        <v>22669.8</v>
+        <v>13.20946</v>
       </c>
       <c r="I15">
-        <v>13.20946</v>
+        <v>10.23082</v>
       </c>
       <c r="J15">
-        <v>10.23082</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="L15">
-        <v>83</v>
+        <v>5.1635900000000001</v>
       </c>
       <c r="M15">
-        <v>5.1635900000000001</v>
+        <v>14.138296208676266</v>
       </c>
       <c r="N15">
-        <v>14.138296208676266</v>
+        <v>8</v>
       </c>
       <c r="O15">
-        <v>8</v>
+        <v>24.4</v>
       </c>
       <c r="P15">
-        <v>24.4</v>
+        <v>7.3320426340009962E-3</v>
       </c>
       <c r="Q15">
-        <v>7.3320426340009962E-3</v>
+        <v>4.4275600000000006</v>
       </c>
       <c r="R15">
-        <v>4.4275600000000006</v>
+        <v>3.3879313116707612</v>
       </c>
       <c r="S15">
-        <v>3.3879313116707612</v>
-      </c>
-      <c r="T15">
         <v>30.4</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>3.0825471886598795E-3</v>
       </c>
       <c r="C16">
-        <v>875899</v>
+        <v>127.66</v>
       </c>
       <c r="D16">
-        <v>127.66</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="E16">
-        <v>37.299999999999997</v>
+        <v>13.42</v>
       </c>
       <c r="F16">
-        <v>13.42</v>
+        <v>8.56</v>
       </c>
       <c r="G16">
-        <v>8.56</v>
+        <v>32415.13</v>
       </c>
       <c r="H16">
-        <v>32415.13</v>
+        <v>7.4477500000000001</v>
       </c>
       <c r="I16">
-        <v>7.4477500000000001</v>
+        <v>8.4952500000000004</v>
       </c>
       <c r="J16">
-        <v>8.4952500000000004</v>
+        <v>36.4</v>
       </c>
       <c r="K16">
-        <v>36.4</v>
+        <v>87</v>
       </c>
       <c r="L16">
-        <v>87</v>
+        <v>3.9216500000000001</v>
       </c>
       <c r="M16">
-        <v>3.9216500000000001</v>
+        <v>13.162960569654722</v>
       </c>
       <c r="N16">
-        <v>13.162960569654722</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="O16">
-        <v>7.0000000000000009</v>
+        <v>21.8</v>
       </c>
       <c r="P16">
-        <v>21.8</v>
+        <v>1.7125262159221554E-3</v>
       </c>
       <c r="Q16">
-        <v>1.7125262159221554E-3</v>
+        <v>7.5771999999999995</v>
       </c>
       <c r="R16">
-        <v>7.5771999999999995</v>
+        <v>3.3492377545812926</v>
       </c>
       <c r="S16">
-        <v>3.3492377545812926</v>
-      </c>
-      <c r="T16">
         <v>31.4</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>4.3710970846715401E-2</v>
       </c>
       <c r="C17">
-        <v>10708982</v>
+        <v>137.18</v>
       </c>
       <c r="D17">
-        <v>137.18</v>
+        <v>43.3</v>
       </c>
       <c r="E17">
-        <v>43.3</v>
+        <v>19.03</v>
       </c>
       <c r="F17">
-        <v>19.03</v>
+        <v>11.58</v>
       </c>
       <c r="G17">
-        <v>11.58</v>
+        <v>32605.91</v>
       </c>
       <c r="H17">
-        <v>32605.91</v>
+        <v>14.39311</v>
       </c>
       <c r="I17">
-        <v>14.39311</v>
+        <v>15.19903</v>
       </c>
       <c r="J17">
-        <v>15.19903</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="K17">
-        <v>34.299999999999997</v>
+        <v>89</v>
       </c>
       <c r="L17">
-        <v>89</v>
+        <v>4.6032799999999998</v>
       </c>
       <c r="M17">
-        <v>4.6032799999999998</v>
+        <v>12.169584653331194</v>
       </c>
       <c r="N17">
-        <v>12.169584653331194</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="O17">
-        <v>7.0000000000000009</v>
+        <v>26</v>
       </c>
       <c r="P17">
+        <v>8.0773317202326046E-3</v>
+      </c>
+      <c r="Q17">
+        <v>3.0727899999999999</v>
+      </c>
+      <c r="R17">
+        <v>3.1036113423292706</v>
+      </c>
+      <c r="S17">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>26</v>
-      </c>
-      <c r="Q17">
-        <v>8.0773317202326046E-3</v>
-      </c>
-      <c r="R17">
-        <v>3.0727899999999999</v>
-      </c>
-      <c r="S17">
-        <v>3.1036113423292706</v>
-      </c>
-      <c r="T17">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>27</v>
       </c>
       <c r="B18">
         <v>1.2775795323471915E-2</v>
       </c>
       <c r="C18">
-        <v>5792203</v>
+        <v>136.52000000000001</v>
       </c>
       <c r="D18">
-        <v>136.52000000000001</v>
+        <v>42.3</v>
       </c>
       <c r="E18">
-        <v>42.3</v>
+        <v>19.68</v>
       </c>
       <c r="F18">
-        <v>19.68</v>
+        <v>12.33</v>
       </c>
       <c r="G18">
-        <v>12.33</v>
+        <v>46682.52</v>
       </c>
       <c r="H18">
-        <v>46682.52</v>
+        <v>10.669840000000001</v>
       </c>
       <c r="I18">
-        <v>10.669840000000001</v>
+        <v>6.1758199999999999</v>
       </c>
       <c r="J18">
-        <v>6.1758199999999999</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K18">
-        <v>19.100000000000001</v>
+        <v>93</v>
       </c>
       <c r="L18">
-        <v>93</v>
+        <v>8.2002500000000005</v>
       </c>
       <c r="M18">
-        <v>8.2002500000000005</v>
+        <v>10.011802417836531</v>
       </c>
       <c r="N18">
-        <v>10.011802417836531</v>
+        <v>11</v>
       </c>
       <c r="O18">
-        <v>11</v>
+        <v>19.7</v>
       </c>
       <c r="P18">
-        <v>19.7</v>
+        <v>7.0094228396345914E-3</v>
       </c>
       <c r="Q18">
-        <v>7.0094228396345914E-3</v>
+        <v>4.8662399999999995</v>
       </c>
       <c r="R18">
-        <v>4.8662399999999995</v>
+        <v>3.7625456152002958</v>
       </c>
       <c r="S18">
-        <v>3.7625456152002958</v>
-      </c>
-      <c r="T18">
         <v>28.7</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>2.0861172812738756E-2</v>
       </c>
       <c r="C19">
-        <v>10847904</v>
+        <v>222.87</v>
       </c>
       <c r="D19">
-        <v>222.87</v>
+        <v>27.6</v>
       </c>
       <c r="E19">
+        <v>6.98</v>
+      </c>
+      <c r="F19">
+        <v>4.42</v>
+      </c>
+      <c r="G19">
+        <v>14600.86</v>
+      </c>
+      <c r="H19">
+        <v>5.8252700000000006</v>
+      </c>
+      <c r="I19">
+        <v>3.9721700000000002</v>
+      </c>
+      <c r="J19">
+        <v>13.7</v>
+      </c>
+      <c r="K19">
+        <v>74</v>
+      </c>
+      <c r="L19">
+        <v>1.1880200000000001</v>
+      </c>
+      <c r="M19">
+        <v>7.2889400569916551</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
         <v>27.6</v>
       </c>
-      <c r="F19">
-        <v>6.98</v>
-      </c>
-      <c r="G19">
-        <v>4.42</v>
-      </c>
-      <c r="H19">
-        <v>14600.86</v>
-      </c>
-      <c r="I19">
-        <v>5.8252700000000006</v>
-      </c>
-      <c r="J19">
-        <v>3.9721700000000002</v>
-      </c>
-      <c r="K19">
-        <v>13.7</v>
-      </c>
-      <c r="L19">
-        <v>74</v>
-      </c>
-      <c r="M19">
-        <v>1.1880200000000001</v>
-      </c>
-      <c r="N19">
-        <v>7.2889400569916551</v>
-      </c>
-      <c r="O19">
-        <v>4</v>
-      </c>
       <c r="P19">
-        <v>27.6</v>
+        <v>8.3887173042829287E-4</v>
       </c>
       <c r="Q19">
-        <v>8.3887173042829287E-4</v>
+        <v>3.86104</v>
       </c>
       <c r="R19">
-        <v>3.86104</v>
+        <v>0.63329976002737487</v>
       </c>
       <c r="S19">
-        <v>0.63329976002737487</v>
-      </c>
-      <c r="T19">
         <v>43.7</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>7.2634792377286025E-2</v>
       </c>
       <c r="C20">
-        <v>17643060</v>
+        <v>66.94</v>
       </c>
       <c r="D20">
-        <v>66.94</v>
+        <v>28.1</v>
       </c>
       <c r="E20">
-        <v>28.1</v>
+        <v>7.1</v>
       </c>
       <c r="F20">
+        <v>4.46</v>
+      </c>
+      <c r="G20">
+        <v>10581.94</v>
+      </c>
+      <c r="H20">
+        <v>3.9572399999999996</v>
+      </c>
+      <c r="I20">
+        <v>4.8335299999999997</v>
+      </c>
+      <c r="J20">
         <v>7.1</v>
       </c>
-      <c r="G20">
-        <v>4.46</v>
-      </c>
-      <c r="H20">
-        <v>10581.94</v>
-      </c>
-      <c r="I20">
-        <v>3.9572399999999996</v>
-      </c>
-      <c r="J20">
-        <v>4.8335299999999997</v>
-      </c>
       <c r="K20">
-        <v>7.1</v>
+        <v>75</v>
       </c>
       <c r="L20">
-        <v>75</v>
+        <v>1.2350699999999999</v>
       </c>
       <c r="M20">
-        <v>1.2350699999999999</v>
+        <v>7.8171025321004413</v>
       </c>
       <c r="N20">
-        <v>7.8171025321004413</v>
+        <v>9</v>
       </c>
       <c r="O20">
-        <v>9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="P20">
-        <v>19.899999999999999</v>
+        <v>1.4850031683846226E-3</v>
       </c>
       <c r="Q20">
-        <v>1.4850031683846226E-3</v>
+        <v>4.0023999999999997</v>
       </c>
       <c r="R20">
-        <v>4.0023999999999997</v>
+        <v>0.57009923448653466</v>
       </c>
       <c r="S20">
-        <v>0.57009923448653466</v>
-      </c>
-      <c r="T20">
         <v>45.4</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>5.5030421269182438E-3</v>
       </c>
       <c r="C21">
-        <v>1326539</v>
+        <v>31.03</v>
       </c>
       <c r="D21">
-        <v>31.03</v>
+        <v>42.7</v>
       </c>
       <c r="E21">
-        <v>42.7</v>
+        <v>19.45</v>
       </c>
       <c r="F21">
-        <v>19.45</v>
+        <v>13.49</v>
       </c>
       <c r="G21">
-        <v>13.49</v>
+        <v>29481.25</v>
       </c>
       <c r="H21">
-        <v>29481.25</v>
+        <v>15.04289</v>
       </c>
       <c r="I21">
-        <v>15.04289</v>
+        <v>6.1722299999999999</v>
       </c>
       <c r="J21">
-        <v>6.1722299999999999</v>
+        <v>31.3</v>
       </c>
       <c r="K21">
-        <v>31.3</v>
+        <v>87</v>
       </c>
       <c r="L21">
-        <v>87</v>
+        <v>2.4224399999999999</v>
       </c>
       <c r="M21">
-        <v>2.4224399999999999</v>
+        <v>15.837844194554402</v>
       </c>
       <c r="N21">
-        <v>15.837844194554402</v>
+        <v>6</v>
       </c>
       <c r="O21">
-        <v>6</v>
+        <v>21.2</v>
       </c>
       <c r="P21">
-        <v>21.2</v>
+        <v>4.221511768594817E-3</v>
       </c>
       <c r="Q21">
-        <v>4.221511768594817E-3</v>
+        <v>1.99095</v>
       </c>
       <c r="R21">
-        <v>1.99095</v>
+        <v>3.0622574986487394</v>
       </c>
       <c r="S21">
-        <v>3.0622574986487394</v>
-      </c>
-      <c r="T21">
         <v>30.4</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>6.5334492749856603E-3</v>
       </c>
       <c r="C22">
-        <v>5540718</v>
+        <v>18.14</v>
       </c>
       <c r="D22">
-        <v>18.14</v>
+        <v>42.8</v>
       </c>
       <c r="E22">
-        <v>42.8</v>
+        <v>21.23</v>
       </c>
       <c r="F22">
-        <v>21.23</v>
+        <v>13.26</v>
       </c>
       <c r="G22">
-        <v>13.26</v>
+        <v>40585.72</v>
       </c>
       <c r="H22">
-        <v>40585.72</v>
+        <v>11.583129999999999</v>
       </c>
       <c r="I22">
-        <v>11.583129999999999</v>
+        <v>10.452879999999999</v>
       </c>
       <c r="J22">
-        <v>10.452879999999999</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="K22">
-        <v>20.399999999999999</v>
+        <v>92</v>
       </c>
       <c r="L22">
-        <v>92</v>
+        <v>4.3986599999999996</v>
       </c>
       <c r="M22">
-        <v>4.3986599999999996</v>
+        <v>9.663755672098814</v>
       </c>
       <c r="N22">
-        <v>9.663755672098814</v>
+        <v>10</v>
       </c>
       <c r="O22">
-        <v>10</v>
+        <v>22.2</v>
       </c>
       <c r="P22">
-        <v>22.2</v>
+        <v>8.17583569494062E-3</v>
       </c>
       <c r="Q22">
-        <v>8.17583569494062E-3</v>
+        <v>6.9056899999999999</v>
       </c>
       <c r="R22">
-        <v>6.9056899999999999</v>
+        <v>3.7445080222454923</v>
       </c>
       <c r="S22">
-        <v>3.7445080222454923</v>
-      </c>
-      <c r="T22">
         <v>27.4</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>6.1539510850894624E-2</v>
       </c>
       <c r="C23">
-        <v>65273512</v>
+        <v>122.58</v>
       </c>
       <c r="D23">
-        <v>122.58</v>
+        <v>42</v>
       </c>
       <c r="E23">
-        <v>42</v>
+        <v>19.72</v>
       </c>
       <c r="F23">
-        <v>19.72</v>
+        <v>13.08</v>
       </c>
       <c r="G23">
-        <v>13.08</v>
+        <v>38605.67</v>
       </c>
       <c r="H23">
-        <v>38605.67</v>
+        <v>10.238629999999999</v>
       </c>
       <c r="I23">
-        <v>10.238629999999999</v>
+        <v>4.3648299999999995</v>
       </c>
       <c r="J23">
-        <v>4.3648299999999995</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="K23">
-        <v>32.700000000000003</v>
+        <v>90</v>
       </c>
       <c r="L23">
-        <v>90</v>
+        <v>3.8418800000000002</v>
       </c>
       <c r="M23">
-        <v>3.8418800000000002</v>
+        <v>9.9971151238192899</v>
       </c>
       <c r="N23">
-        <v>9.9971151238192899</v>
+        <v>12</v>
       </c>
       <c r="O23">
-        <v>12</v>
+        <v>21.6</v>
       </c>
       <c r="P23">
-        <v>21.6</v>
+        <v>9.0542086964770646E-3</v>
       </c>
       <c r="Q23">
-        <v>9.0542086964770646E-3</v>
+        <v>6.9558200000000001</v>
       </c>
       <c r="R23">
-        <v>6.9558200000000001</v>
+        <v>3.0792543535883286</v>
       </c>
       <c r="S23">
-        <v>3.0792543535883286</v>
-      </c>
-      <c r="T23">
         <v>31.6</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>1.1907223924746345E-2</v>
       </c>
       <c r="C24">
-        <v>3989175</v>
+        <v>65.03</v>
       </c>
       <c r="D24">
-        <v>65.03</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="E24">
-        <v>38.700000000000003</v>
+        <v>14.86</v>
       </c>
       <c r="F24">
-        <v>14.86</v>
+        <v>10.24</v>
       </c>
       <c r="G24">
-        <v>10.24</v>
+        <v>9745.08</v>
       </c>
       <c r="H24">
-        <v>9745.08</v>
+        <v>12.9274</v>
       </c>
       <c r="I24">
-        <v>12.9274</v>
+        <v>9.4377999999999993</v>
       </c>
       <c r="J24">
-        <v>9.4377999999999993</v>
+        <v>28.8</v>
       </c>
       <c r="K24">
-        <v>28.8</v>
+        <v>78</v>
       </c>
       <c r="L24">
-        <v>78</v>
+        <v>3.6237300000000001</v>
       </c>
       <c r="M24">
-        <v>3.6237300000000001</v>
+        <v>11.55694272625292</v>
       </c>
       <c r="N24">
-        <v>11.55694272625292</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="O24">
-        <v>7.0000000000000009</v>
+        <v>21.7</v>
       </c>
       <c r="P24">
-        <v>21.7</v>
+        <v>1.1029849530291352E-3</v>
       </c>
       <c r="Q24">
-        <v>1.1029849530291352E-3</v>
+        <v>1.8986800000000001</v>
       </c>
       <c r="R24">
-        <v>1.8986800000000001</v>
+        <v>1.3086954069450449</v>
       </c>
       <c r="S24">
-        <v>1.3086954069450449</v>
-      </c>
-      <c r="T24">
         <v>36.4</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>1.3473941815463571E-2</v>
       </c>
       <c r="C25">
-        <v>83783945</v>
+        <v>237.02</v>
       </c>
       <c r="D25">
-        <v>237.02</v>
+        <v>46.6</v>
       </c>
       <c r="E25">
-        <v>46.6</v>
+        <v>21.45</v>
       </c>
       <c r="F25">
-        <v>21.45</v>
+        <v>15.96</v>
       </c>
       <c r="G25">
-        <v>15.96</v>
+        <v>45229.25</v>
       </c>
       <c r="H25">
-        <v>45229.25</v>
+        <v>11.97715</v>
       </c>
       <c r="I25">
-        <v>11.97715</v>
+        <v>12.40898</v>
       </c>
       <c r="J25">
-        <v>12.40898</v>
+        <v>30.6</v>
       </c>
       <c r="K25">
-        <v>30.6</v>
+        <v>94</v>
       </c>
       <c r="L25">
-        <v>94</v>
+        <v>7.2199399999999994</v>
       </c>
       <c r="M25">
-        <v>7.2199399999999994</v>
+        <v>11.846161994401195</v>
       </c>
       <c r="N25">
-        <v>11.846161994401195</v>
+        <v>11</v>
       </c>
       <c r="O25">
-        <v>11</v>
+        <v>22.3</v>
       </c>
       <c r="P25">
-        <v>22.3</v>
+        <v>4.496088122849789E-3</v>
       </c>
       <c r="Q25">
-        <v>4.496088122849789E-3</v>
+        <v>4.2507099999999998</v>
       </c>
       <c r="R25">
-        <v>4.2507099999999998</v>
+        <v>3.8333588135531218</v>
       </c>
       <c r="S25">
-        <v>3.8333588135531218</v>
-      </c>
-      <c r="T25">
         <v>31.9</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>7.1859922847963215E-3</v>
       </c>
       <c r="C26">
-        <v>10423056</v>
+        <v>83.48</v>
       </c>
       <c r="D26">
-        <v>83.48</v>
+        <v>45.3</v>
       </c>
       <c r="E26">
-        <v>45.3</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F26">
-        <v>20.399999999999999</v>
+        <v>14.52</v>
       </c>
       <c r="G26">
-        <v>14.52</v>
+        <v>24574.38</v>
       </c>
       <c r="H26">
-        <v>24574.38</v>
+        <v>10.88612</v>
       </c>
       <c r="I26">
-        <v>10.88612</v>
+        <v>8.2680100000000003</v>
       </c>
       <c r="J26">
-        <v>8.2680100000000003</v>
+        <v>43.4</v>
       </c>
       <c r="K26">
-        <v>43.4</v>
+        <v>87</v>
       </c>
       <c r="L26">
-        <v>87</v>
+        <v>6.3607100000000001</v>
       </c>
       <c r="M26">
-        <v>6.3607100000000001</v>
+        <v>13.883690637371613</v>
       </c>
       <c r="N26">
-        <v>13.883690637371613</v>
+        <v>8</v>
       </c>
       <c r="O26">
-        <v>8</v>
+        <v>24.9</v>
       </c>
       <c r="P26">
-        <v>24.9</v>
+        <v>2.1682700351988902E-3</v>
       </c>
       <c r="Q26">
-        <v>2.1682700351988902E-3</v>
+        <v>5.7179099999999998</v>
       </c>
       <c r="R26">
-        <v>5.7179099999999998</v>
+        <v>2.9531179723106162</v>
       </c>
       <c r="S26">
-        <v>2.9531179723106162</v>
-      </c>
-      <c r="T26">
         <v>34.4</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>2.523718084748482E-2</v>
       </c>
       <c r="C27">
-        <v>9660350</v>
+        <v>108.04</v>
       </c>
       <c r="D27">
-        <v>108.04</v>
+        <v>43.4</v>
       </c>
       <c r="E27">
-        <v>43.4</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="F27">
-        <v>18.579999999999998</v>
+        <v>11.98</v>
       </c>
       <c r="G27">
-        <v>11.98</v>
+        <v>26777.56</v>
       </c>
       <c r="H27">
-        <v>26777.56</v>
+        <v>14.638540000000001</v>
       </c>
       <c r="I27">
-        <v>14.638540000000001</v>
+        <v>10.16255</v>
       </c>
       <c r="J27">
-        <v>10.16255</v>
+        <v>30.6</v>
       </c>
       <c r="K27">
+        <v>84</v>
+      </c>
+      <c r="L27">
+        <v>6.3283699999999996</v>
+      </c>
+      <c r="M27">
+        <v>12.754678143131459</v>
+      </c>
+      <c r="N27">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="O27">
+        <v>26.4</v>
+      </c>
+      <c r="P27">
+        <v>4.5547003990538647E-3</v>
+      </c>
+      <c r="Q27">
+        <v>3.3204000000000002</v>
+      </c>
+      <c r="R27">
+        <v>2.6244903134979585</v>
+      </c>
+      <c r="S27">
         <v>30.6</v>
       </c>
-      <c r="L27">
-        <v>84</v>
-      </c>
-      <c r="M27">
-        <v>6.3283699999999996</v>
-      </c>
-      <c r="N27">
-        <v>12.754678143131459</v>
-      </c>
-      <c r="O27">
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="P27">
-        <v>26.4</v>
-      </c>
-      <c r="Q27">
-        <v>4.5547003990538647E-3</v>
-      </c>
-      <c r="R27">
-        <v>3.3204000000000002</v>
-      </c>
-      <c r="S27">
-        <v>2.6244903134979585</v>
-      </c>
-      <c r="T27">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>5.2747252747252747E-3</v>
       </c>
       <c r="C28">
-        <v>341250</v>
+        <v>3.4</v>
       </c>
       <c r="D28">
-        <v>3.4</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="E28">
-        <v>37.299999999999997</v>
+        <v>14.43</v>
       </c>
       <c r="F28">
-        <v>14.43</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="G28">
-        <v>9.2100000000000009</v>
+        <v>46482.96</v>
       </c>
       <c r="H28">
-        <v>46482.96</v>
+        <v>8.0184300000000004</v>
       </c>
       <c r="I28">
-        <v>8.0184300000000004</v>
+        <v>6.1828700000000003</v>
       </c>
       <c r="J28">
-        <v>6.1828700000000003</v>
+        <v>14.7</v>
       </c>
       <c r="K28">
-        <v>14.7</v>
+        <v>94</v>
       </c>
       <c r="L28">
-        <v>94</v>
+        <v>4.6488500000000004</v>
       </c>
       <c r="M28">
-        <v>4.6488500000000004</v>
+        <v>7.5581040293040287</v>
       </c>
       <c r="N28">
-        <v>7.5581040293040287</v>
+        <v>9</v>
       </c>
       <c r="O28">
-        <v>9</v>
+        <v>21.9</v>
       </c>
       <c r="P28">
-        <v>21.9</v>
+        <v>2.9304029304029304E-3</v>
       </c>
       <c r="Q28">
-        <v>2.9304029304029304E-3</v>
+        <v>7.4182499999999996</v>
       </c>
       <c r="R28">
-        <v>7.4182499999999996</v>
+        <v>3.1228542124542127</v>
       </c>
       <c r="S28">
-        <v>3.1228542124542127</v>
-      </c>
-      <c r="T28">
         <v>26.8</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>9.1391738584946595E-3</v>
       </c>
       <c r="C29">
-        <v>1380004385</v>
+        <v>450.42</v>
       </c>
       <c r="D29">
-        <v>450.42</v>
+        <v>28.2</v>
       </c>
       <c r="E29">
-        <v>28.2</v>
+        <v>5.99</v>
       </c>
       <c r="F29">
-        <v>5.99</v>
+        <v>3.41</v>
       </c>
       <c r="G29">
-        <v>3.41</v>
+        <v>6426.67</v>
       </c>
       <c r="H29">
-        <v>6426.67</v>
+        <v>5.1146899999999995</v>
       </c>
       <c r="I29">
-        <v>5.1146899999999995</v>
+        <v>5.8855399999999998</v>
       </c>
       <c r="J29">
-        <v>5.8855399999999998</v>
+        <v>11.4</v>
       </c>
       <c r="K29">
-        <v>11.4</v>
+        <v>64</v>
       </c>
       <c r="L29">
-        <v>64</v>
+        <v>2.7234099999999999</v>
       </c>
       <c r="M29">
-        <v>2.7234099999999999</v>
+        <v>8.349472614175788</v>
       </c>
       <c r="N29">
-        <v>8.349472614175788</v>
+        <v>5</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="P29">
-        <v>3.9</v>
+        <v>9.1782317054014278E-4</v>
       </c>
       <c r="Q29">
-        <v>9.1782317054014278E-4</v>
+        <v>2.4668000000000001</v>
       </c>
       <c r="R29">
-        <v>2.4668000000000001</v>
+        <v>0.26373794094864417</v>
       </c>
       <c r="S29">
-        <v>0.26373794094864417</v>
-      </c>
-      <c r="T29">
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>3.9390043655104422E-2</v>
       </c>
       <c r="C30">
-        <v>4937796</v>
+        <v>69.87</v>
       </c>
       <c r="D30">
-        <v>69.87</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="E30">
-        <v>38.700000000000003</v>
+        <v>13.93</v>
       </c>
       <c r="F30">
-        <v>13.93</v>
+        <v>8.68</v>
       </c>
       <c r="G30">
-        <v>8.68</v>
+        <v>67335.289999999994</v>
       </c>
       <c r="H30">
-        <v>67335.289999999994</v>
+        <v>8.0720700000000001</v>
       </c>
       <c r="I30">
-        <v>8.0720700000000001</v>
+        <v>5.8258299999999998</v>
       </c>
       <c r="J30">
-        <v>5.8258299999999998</v>
+        <v>24.3</v>
       </c>
       <c r="K30">
-        <v>24.3</v>
+        <v>94</v>
       </c>
       <c r="L30">
-        <v>94</v>
+        <v>5.4447900000000002</v>
       </c>
       <c r="M30">
-        <v>5.4447900000000002</v>
+        <v>14.740567654070762</v>
       </c>
       <c r="N30">
-        <v>14.740567654070762</v>
+        <v>8</v>
       </c>
       <c r="O30">
-        <v>8</v>
+        <v>25.3</v>
       </c>
       <c r="P30">
-        <v>25.3</v>
+        <v>5.5490344275057127E-3</v>
       </c>
       <c r="Q30">
-        <v>5.5490344275057127E-3</v>
+        <v>6.9929700000000006</v>
       </c>
       <c r="R30">
-        <v>6.9929700000000006</v>
+        <v>2.8519483186425689</v>
       </c>
       <c r="S30">
-        <v>2.8519483186425689</v>
-      </c>
-      <c r="T30">
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>6.7915578073491259E-2</v>
       </c>
       <c r="C31">
-        <v>60461828</v>
+        <v>205.86</v>
       </c>
       <c r="D31">
-        <v>205.86</v>
+        <v>47.9</v>
       </c>
       <c r="E31">
-        <v>47.9</v>
+        <v>23.02</v>
       </c>
       <c r="F31">
-        <v>23.02</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="G31">
-        <v>16.239999999999998</v>
+        <v>35220.080000000002</v>
       </c>
       <c r="H31">
-        <v>35220.080000000002</v>
+        <v>15.9375</v>
       </c>
       <c r="I31">
-        <v>15.9375</v>
+        <v>10.56643</v>
       </c>
       <c r="J31">
-        <v>10.56643</v>
+        <v>23.7</v>
       </c>
       <c r="K31">
-        <v>23.7</v>
+        <v>88</v>
       </c>
       <c r="L31">
-        <v>88</v>
+        <v>5.3936999999999999</v>
       </c>
       <c r="M31">
-        <v>5.3936999999999999</v>
+        <v>11.716521918589692</v>
       </c>
       <c r="N31">
-        <v>11.716521918589692</v>
+        <v>9</v>
       </c>
       <c r="O31">
-        <v>9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="P31">
-        <v>19.899999999999999</v>
+        <v>6.4189260040235629E-3</v>
       </c>
       <c r="Q31">
-        <v>6.4189260040235629E-3</v>
+        <v>4.2462900000000001</v>
       </c>
       <c r="R31">
-        <v>4.2462900000000001</v>
+        <v>3.7751428885014855</v>
       </c>
       <c r="S31">
-        <v>3.7751428885014855</v>
-      </c>
-      <c r="T31">
         <v>35.9</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>1.4326776924761763E-3</v>
       </c>
       <c r="C32">
-        <v>126476458</v>
+        <v>347.78</v>
       </c>
       <c r="D32">
-        <v>347.78</v>
+        <v>48.2</v>
       </c>
       <c r="E32">
-        <v>48.2</v>
+        <v>27.05</v>
       </c>
       <c r="F32">
-        <v>27.05</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="G32">
-        <v>18.489999999999998</v>
+        <v>39002.22</v>
       </c>
       <c r="H32">
-        <v>39002.22</v>
+        <v>13.499540000000001</v>
       </c>
       <c r="I32">
-        <v>13.499540000000001</v>
+        <v>6.8566000000000003</v>
       </c>
       <c r="J32">
-        <v>6.8566000000000003</v>
+        <v>22.1</v>
       </c>
       <c r="K32">
-        <v>22.1</v>
+        <v>91</v>
       </c>
       <c r="L32">
-        <v>91</v>
+        <v>3.74804</v>
       </c>
       <c r="M32">
-        <v>3.74804</v>
+        <v>19.52546523717481</v>
       </c>
       <c r="N32">
-        <v>19.52546523717481</v>
+        <v>10</v>
       </c>
       <c r="O32">
-        <v>10</v>
+        <v>4.3</v>
       </c>
       <c r="P32">
-        <v>4.3</v>
+        <v>2.0043255797059087E-3</v>
       </c>
       <c r="Q32">
-        <v>2.0043255797059087E-3</v>
+        <v>4.0043800000000003</v>
       </c>
       <c r="R32">
-        <v>4.0043800000000003</v>
+        <v>4.5997338334696245</v>
       </c>
       <c r="S32">
-        <v>4.5997338334696245</v>
-      </c>
-      <c r="T32">
         <v>32.9</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>5.0895927371511643E-3</v>
       </c>
       <c r="C33">
-        <v>1886202</v>
+        <v>31.21</v>
       </c>
       <c r="D33">
-        <v>31.21</v>
+        <v>43.9</v>
       </c>
       <c r="E33">
-        <v>43.9</v>
+        <v>19.75</v>
       </c>
       <c r="F33">
-        <v>19.75</v>
+        <v>14.14</v>
       </c>
       <c r="G33">
-        <v>14.14</v>
+        <v>25063.85</v>
       </c>
       <c r="H33">
-        <v>25063.85</v>
+        <v>14.218590000000001</v>
       </c>
       <c r="I33">
-        <v>14.218590000000001</v>
+        <v>6.4743599999999999</v>
       </c>
       <c r="J33">
-        <v>6.4743599999999999</v>
+        <v>37</v>
       </c>
       <c r="K33">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="L33">
-        <v>85</v>
+        <v>2.2609899999999996</v>
       </c>
       <c r="M33">
-        <v>2.2609899999999996</v>
+        <v>15.541563416855672</v>
       </c>
       <c r="N33">
-        <v>15.541563416855672</v>
+        <v>6</v>
       </c>
       <c r="O33">
-        <v>6</v>
+        <v>23.6</v>
       </c>
       <c r="P33">
-        <v>23.6</v>
+        <v>2.0676470494676606E-3</v>
       </c>
       <c r="Q33">
-        <v>2.0676470494676606E-3</v>
+        <v>3.1690399999999999</v>
       </c>
       <c r="R33">
-        <v>3.1690399999999999</v>
+        <v>2.6947023701597175</v>
       </c>
       <c r="S33">
-        <v>2.6947023701597175</v>
-      </c>
-      <c r="T33">
         <v>35.6</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>7.4569544549058136E-3</v>
       </c>
       <c r="C34">
-        <v>2722291</v>
+        <v>45.14</v>
       </c>
       <c r="D34">
-        <v>45.14</v>
+        <v>43.5</v>
       </c>
       <c r="E34">
-        <v>43.5</v>
+        <v>19</v>
       </c>
       <c r="F34">
-        <v>19</v>
+        <v>13.78</v>
       </c>
       <c r="G34">
-        <v>13.78</v>
+        <v>29524.27</v>
       </c>
       <c r="H34">
-        <v>29524.27</v>
+        <v>14.000450000000001</v>
       </c>
       <c r="I34">
-        <v>14.000450000000001</v>
+        <v>4.9959199999999999</v>
       </c>
       <c r="J34">
-        <v>4.9959199999999999</v>
+        <v>28.8</v>
       </c>
       <c r="K34">
-        <v>28.8</v>
+        <v>86</v>
       </c>
       <c r="L34">
-        <v>86</v>
+        <v>2.7457399999999996</v>
       </c>
       <c r="M34">
-        <v>2.7457399999999996</v>
+        <v>14.909620609993567</v>
       </c>
       <c r="N34">
-        <v>14.909620609993567</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="O34">
-        <v>7.0000000000000009</v>
+        <v>26.3</v>
       </c>
       <c r="P34">
-        <v>26.3</v>
+        <v>4.7386557866150236E-3</v>
       </c>
       <c r="Q34">
-        <v>4.7386557866150236E-3</v>
+        <v>2.6478600000000001</v>
       </c>
       <c r="R34">
-        <v>2.6478600000000001</v>
+        <v>2.9405151763716662</v>
       </c>
       <c r="S34">
-        <v>2.9405151763716662</v>
-      </c>
-      <c r="T34">
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>2.955384870985469E-2</v>
       </c>
       <c r="C35">
-        <v>625976</v>
+        <v>231.45</v>
       </c>
       <c r="D35">
-        <v>231.45</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="E35">
-        <v>39.700000000000003</v>
+        <v>14.31</v>
       </c>
       <c r="F35">
-        <v>14.31</v>
+        <v>9.84</v>
       </c>
       <c r="G35">
-        <v>9.84</v>
+        <v>94277.97</v>
       </c>
       <c r="H35">
-        <v>94277.97</v>
+        <v>9.1104699999999994</v>
       </c>
       <c r="I35">
-        <v>9.1104699999999994</v>
+        <v>9.5379500000000004</v>
       </c>
       <c r="J35">
-        <v>9.5379500000000004</v>
+        <v>23.5</v>
       </c>
       <c r="K35">
-        <v>23.5</v>
+        <v>90</v>
       </c>
       <c r="L35">
-        <v>90</v>
+        <v>5.3681099999999997</v>
       </c>
       <c r="M35">
-        <v>5.3681099999999997</v>
+        <v>9.161851253083185</v>
       </c>
       <c r="N35">
-        <v>9.161851253083185</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="O35">
-        <v>7.0000000000000009</v>
+        <v>22.6</v>
       </c>
       <c r="P35">
-        <v>22.6</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>7.15923</v>
       </c>
       <c r="R35">
-        <v>7.15923</v>
+        <v>3.1788183572533129</v>
       </c>
       <c r="S35">
-        <v>3.1788183572533129</v>
-      </c>
-      <c r="T35">
         <v>34.9</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>1.630660032296128E-2</v>
       </c>
       <c r="C36">
-        <v>441539</v>
+        <v>1454.04</v>
       </c>
       <c r="D36">
-        <v>1454.04</v>
+        <v>42.4</v>
       </c>
       <c r="E36">
-        <v>42.4</v>
+        <v>19.43</v>
       </c>
       <c r="F36">
-        <v>19.43</v>
+        <v>11.32</v>
       </c>
       <c r="G36">
-        <v>11.32</v>
+        <v>36513.32</v>
       </c>
       <c r="H36">
-        <v>36513.32</v>
+        <v>10.539440000000001</v>
       </c>
       <c r="I36">
-        <v>10.539440000000001</v>
+        <v>10.90892</v>
       </c>
       <c r="J36">
-        <v>10.90892</v>
+        <v>25.5</v>
       </c>
       <c r="K36">
-        <v>25.5</v>
+        <v>88</v>
       </c>
       <c r="L36">
-        <v>88</v>
+        <v>4.5661300000000002</v>
       </c>
       <c r="M36">
-        <v>4.5661300000000002</v>
+        <v>11.229365922376052</v>
       </c>
       <c r="N36">
-        <v>11.229365922376052</v>
+        <v>10</v>
       </c>
       <c r="O36">
-        <v>10</v>
+        <v>28.9</v>
       </c>
       <c r="P36">
-        <v>28.9</v>
+        <v>3.8501695206991904E-3</v>
       </c>
       <c r="Q36">
-        <v>3.8501695206991904E-3</v>
+        <v>7.9727100000000002</v>
       </c>
       <c r="R36">
-        <v>7.9727100000000002</v>
+        <v>2.8883179062325186</v>
       </c>
       <c r="S36">
-        <v>2.8883179062325186</v>
-      </c>
-      <c r="T36">
         <v>29.2</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>7.353290594826592E-2</v>
       </c>
       <c r="C37">
-        <v>128932753</v>
+        <v>66.44</v>
       </c>
       <c r="D37">
-        <v>66.44</v>
+        <v>29.3</v>
       </c>
       <c r="E37">
-        <v>29.3</v>
+        <v>6.86</v>
       </c>
       <c r="F37">
-        <v>6.86</v>
+        <v>4.32</v>
       </c>
       <c r="G37">
-        <v>4.32</v>
+        <v>17336.47</v>
       </c>
       <c r="H37">
-        <v>17336.47</v>
+        <v>4.7065700000000001</v>
       </c>
       <c r="I37">
-        <v>4.7065700000000001</v>
+        <v>9.549809999999999</v>
       </c>
       <c r="J37">
-        <v>9.549809999999999</v>
+        <v>14</v>
       </c>
       <c r="K37">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="L37">
-        <v>77</v>
+        <v>2.0817600000000001</v>
       </c>
       <c r="M37">
-        <v>2.0817600000000001</v>
+        <v>12.614578748659778</v>
       </c>
       <c r="N37">
-        <v>12.614578748659778</v>
+        <v>6</v>
       </c>
       <c r="O37">
-        <v>6</v>
+        <v>28.9</v>
       </c>
       <c r="P37">
-        <v>28.9</v>
+        <v>2.5144890840886644E-3</v>
       </c>
       <c r="Q37">
-        <v>2.5144890840886644E-3</v>
+        <v>2.68397</v>
       </c>
       <c r="R37">
-        <v>2.68397</v>
+        <v>0.77964927189602473</v>
       </c>
       <c r="S37">
-        <v>0.77964927189602473</v>
-      </c>
-      <c r="T37">
         <v>45.4</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>4.6396608833925997E-2</v>
       </c>
       <c r="C38">
-        <v>17134873</v>
+        <v>508.54</v>
       </c>
       <c r="D38">
-        <v>508.54</v>
+        <v>43.2</v>
       </c>
       <c r="E38">
-        <v>43.2</v>
+        <v>18.78</v>
       </c>
       <c r="F38">
-        <v>18.78</v>
+        <v>11.88</v>
       </c>
       <c r="G38">
-        <v>11.88</v>
+        <v>48472.55</v>
       </c>
       <c r="H38">
-        <v>48472.55</v>
+        <v>10.305620000000001</v>
       </c>
       <c r="I38">
-        <v>10.305620000000001</v>
+        <v>5.8715200000000003</v>
       </c>
       <c r="J38">
-        <v>5.8715200000000003</v>
+        <v>25.8</v>
       </c>
       <c r="K38">
-        <v>25.8</v>
+        <v>93</v>
       </c>
       <c r="L38">
-        <v>93</v>
+        <v>7.4083100000000002</v>
       </c>
       <c r="M38">
-        <v>7.4083100000000002</v>
+        <v>10.631324025570542</v>
       </c>
       <c r="N38">
-        <v>10.631324025570542</v>
+        <v>11</v>
       </c>
       <c r="O38">
-        <v>11</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="P38">
-        <v>20.399999999999999</v>
+        <v>7.6510634190285502E-3</v>
       </c>
       <c r="Q38">
-        <v>7.6510634190285502E-3</v>
+        <v>7.7452200000000007</v>
       </c>
       <c r="R38">
-        <v>7.7452200000000007</v>
+        <v>4.1743675602381174</v>
       </c>
       <c r="S38">
-        <v>4.1743675602381174</v>
-      </c>
-      <c r="T38">
         <v>28.5</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>5.1843202101598982E-4</v>
       </c>
       <c r="C39">
-        <v>4822233</v>
+        <v>18.21</v>
       </c>
       <c r="D39">
-        <v>18.21</v>
+        <v>37.9</v>
       </c>
       <c r="E39">
-        <v>37.9</v>
+        <v>15.32</v>
       </c>
       <c r="F39">
-        <v>15.32</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="G39">
-        <v>9.7200000000000006</v>
+        <v>36085.839999999997</v>
       </c>
       <c r="H39">
-        <v>36085.839999999997</v>
+        <v>9.7212399999999999</v>
       </c>
       <c r="I39">
-        <v>9.7212399999999999</v>
+        <v>4.7381400000000005</v>
       </c>
       <c r="J39">
-        <v>4.7381400000000005</v>
+        <v>16</v>
       </c>
       <c r="K39">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="L39">
-        <v>92</v>
+        <v>5.6901400000000004</v>
       </c>
       <c r="M39">
-        <v>5.6901400000000004</v>
+        <v>9.605245536663201</v>
       </c>
       <c r="N39">
-        <v>9.605245536663201</v>
+        <v>11</v>
       </c>
       <c r="O39">
-        <v>11</v>
+        <v>30.8</v>
       </c>
       <c r="P39">
-        <v>30.8</v>
+        <v>6.7603535540485087E-3</v>
       </c>
       <c r="Q39">
-        <v>6.7603535540485087E-3</v>
+        <v>6.01091</v>
       </c>
       <c r="R39">
-        <v>6.01091</v>
+        <v>3.8760976501964959</v>
       </c>
       <c r="S39">
-        <v>3.8760976501964959</v>
-      </c>
-      <c r="T39">
         <v>34.4</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>5.2570979122496279E-3</v>
       </c>
       <c r="C40">
-        <v>5421242</v>
+        <v>14.46</v>
       </c>
       <c r="D40">
-        <v>14.46</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="E40">
-        <v>39.700000000000003</v>
+        <v>16.82</v>
       </c>
       <c r="F40">
-        <v>16.82</v>
+        <v>10.81</v>
       </c>
       <c r="G40">
-        <v>10.81</v>
+        <v>64800.06</v>
       </c>
       <c r="H40">
-        <v>64800.06</v>
+        <v>10.9689</v>
       </c>
       <c r="I40">
-        <v>10.9689</v>
+        <v>7.59537</v>
       </c>
       <c r="J40">
-        <v>7.59537</v>
+        <v>20.2</v>
       </c>
       <c r="K40">
-        <v>20.2</v>
+        <v>95</v>
       </c>
       <c r="L40">
-        <v>95</v>
+        <v>6.47262</v>
       </c>
       <c r="M40">
-        <v>6.47262</v>
+        <v>8.255873838504165</v>
       </c>
       <c r="N40">
-        <v>8.255873838504165</v>
+        <v>10</v>
       </c>
       <c r="O40">
-        <v>10</v>
+        <v>23.1</v>
       </c>
       <c r="P40">
-        <v>23.1</v>
+        <v>8.1715592109704738E-3</v>
       </c>
       <c r="Q40">
-        <v>8.1715592109704738E-3</v>
+        <v>6.9634300000000007</v>
       </c>
       <c r="R40">
-        <v>6.9634300000000007</v>
+        <v>4.2021284052621146</v>
       </c>
       <c r="S40">
-        <v>4.2021284052621146</v>
-      </c>
-      <c r="T40">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>0.1056659066040767</v>
       </c>
       <c r="C41">
-        <v>32971846</v>
+        <v>25.13</v>
       </c>
       <c r="D41">
-        <v>25.13</v>
+        <v>29.1</v>
       </c>
       <c r="E41">
-        <v>29.1</v>
+        <v>7.15</v>
       </c>
       <c r="F41">
-        <v>7.15</v>
+        <v>4.46</v>
       </c>
       <c r="G41">
-        <v>4.46</v>
+        <v>12236.71</v>
       </c>
       <c r="H41">
-        <v>12236.71</v>
+        <v>4.1293100000000003</v>
       </c>
       <c r="I41">
-        <v>4.1293100000000003</v>
+        <v>3.3736100000000002</v>
       </c>
       <c r="J41">
-        <v>3.3736100000000002</v>
+        <v>4.8</v>
       </c>
       <c r="K41">
-        <v>4.8</v>
+        <v>75</v>
       </c>
       <c r="L41">
-        <v>75</v>
+        <v>1.2277799999999999</v>
       </c>
       <c r="M41">
-        <v>1.2277799999999999</v>
+        <v>9.8184433167618206</v>
       </c>
       <c r="N41">
-        <v>9.8184433167618206</v>
+        <v>5</v>
       </c>
       <c r="O41">
-        <v>5</v>
+        <v>19.7</v>
       </c>
       <c r="P41">
-        <v>19.7</v>
+        <v>7.9158443236693513E-4</v>
       </c>
       <c r="Q41">
-        <v>7.9158443236693513E-4</v>
+        <v>4.18954</v>
       </c>
       <c r="R41">
-        <v>4.18954</v>
+        <v>0.59534015778188465</v>
       </c>
       <c r="S41">
-        <v>0.59534015778188465</v>
-      </c>
-      <c r="T41">
         <v>42.8</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>2.017618224937217E-2</v>
       </c>
       <c r="C42">
-        <v>37846605</v>
+        <v>124.03</v>
       </c>
       <c r="D42">
-        <v>124.03</v>
+        <v>41.8</v>
       </c>
       <c r="E42">
-        <v>41.8</v>
+        <v>16.760000000000002</v>
       </c>
       <c r="F42">
-        <v>16.760000000000002</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G42">
-        <v>10.199999999999999</v>
+        <v>27216.45</v>
       </c>
       <c r="H42">
-        <v>27216.45</v>
+        <v>11.02702</v>
       </c>
       <c r="I42">
-        <v>11.02702</v>
+        <v>9.2194699999999994</v>
       </c>
       <c r="J42">
-        <v>9.2194699999999994</v>
+        <v>28</v>
       </c>
       <c r="K42">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="L42">
-        <v>87</v>
+        <v>3.7213499999999997</v>
       </c>
       <c r="M42">
-        <v>3.7213499999999997</v>
+        <v>11.523129961062558</v>
       </c>
       <c r="N42">
-        <v>11.523129961062558</v>
+        <v>6</v>
       </c>
       <c r="O42">
-        <v>6</v>
+        <v>23.1</v>
       </c>
       <c r="P42">
-        <v>23.1</v>
+        <v>4.1377555529749626E-3</v>
       </c>
       <c r="Q42">
-        <v>4.1377555529749626E-3</v>
+        <v>5.7622600000000004</v>
       </c>
       <c r="R42">
-        <v>5.7622600000000004</v>
+        <v>2.3334227204791556</v>
       </c>
       <c r="S42">
-        <v>2.3334227204791556</v>
-      </c>
-      <c r="T42">
         <v>29.7</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>2.7930585825404221E-2</v>
       </c>
       <c r="C43">
-        <v>10196707</v>
+        <v>112.37</v>
       </c>
       <c r="D43">
-        <v>112.37</v>
+        <v>46.2</v>
       </c>
       <c r="E43">
-        <v>46.2</v>
+        <v>21.5</v>
       </c>
       <c r="F43">
-        <v>21.5</v>
+        <v>14.92</v>
       </c>
       <c r="G43">
-        <v>14.92</v>
+        <v>27936.9</v>
       </c>
       <c r="H43">
-        <v>27936.9</v>
+        <v>10.218489999999999</v>
       </c>
       <c r="I43">
-        <v>10.218489999999999</v>
+        <v>12.04627</v>
       </c>
       <c r="J43">
-        <v>12.04627</v>
+        <v>22.7</v>
       </c>
       <c r="K43">
-        <v>22.7</v>
+        <v>85</v>
       </c>
       <c r="L43">
-        <v>85</v>
+        <v>5.9160500000000003</v>
       </c>
       <c r="M43">
-        <v>5.9160500000000003</v>
+        <v>11.552425111361933</v>
       </c>
       <c r="N43">
-        <v>11.552425111361933</v>
+        <v>10</v>
       </c>
       <c r="O43">
-        <v>10</v>
+        <v>20.8</v>
       </c>
       <c r="P43">
-        <v>20.8</v>
+        <v>8.3066032984962703E-3</v>
       </c>
       <c r="Q43">
-        <v>8.3066032984962703E-3</v>
+        <v>10.36773</v>
       </c>
       <c r="R43">
-        <v>10.36773</v>
+        <v>2.9734546653149887</v>
       </c>
       <c r="S43">
-        <v>2.9734546653149887</v>
-      </c>
-      <c r="T43">
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>4.050903845899937E-2</v>
       </c>
       <c r="C44">
-        <v>19237682</v>
+        <v>85.13</v>
       </c>
       <c r="D44">
-        <v>85.13</v>
+        <v>43</v>
       </c>
       <c r="E44">
-        <v>43</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="F44">
-        <v>17.850000000000001</v>
+        <v>11.69</v>
       </c>
       <c r="G44">
-        <v>11.69</v>
+        <v>23313.200000000001</v>
       </c>
       <c r="H44">
-        <v>23313.200000000001</v>
+        <v>13.27299</v>
       </c>
       <c r="I44">
-        <v>13.27299</v>
+        <v>6.6667899999999998</v>
       </c>
       <c r="J44">
-        <v>6.6667899999999998</v>
+        <v>29.7</v>
       </c>
       <c r="K44">
-        <v>29.7</v>
+        <v>81</v>
       </c>
       <c r="L44">
-        <v>81</v>
+        <v>4.0145</v>
       </c>
       <c r="M44">
-        <v>4.0145</v>
+        <v>11.535157770047348</v>
       </c>
       <c r="N44">
-        <v>11.535157770047348</v>
+        <v>6</v>
       </c>
       <c r="O44">
-        <v>6</v>
+        <v>22.5</v>
       </c>
       <c r="P44">
-        <v>22.5</v>
+        <v>1.533448780367614E-3</v>
       </c>
       <c r="Q44">
-        <v>1.533448780367614E-3</v>
+        <v>4.3890099999999999</v>
       </c>
       <c r="R44">
-        <v>4.3890099999999999</v>
+        <v>2.3408789063048241</v>
       </c>
       <c r="S44">
-        <v>2.3408789063048241</v>
-      </c>
-      <c r="T44">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>2.0729168422591895E-2</v>
       </c>
       <c r="C45">
-        <v>145934460</v>
+        <v>8.82</v>
       </c>
       <c r="D45">
-        <v>8.82</v>
+        <v>39.6</v>
       </c>
       <c r="E45">
-        <v>39.6</v>
+        <v>14.18</v>
       </c>
       <c r="F45">
-        <v>14.18</v>
+        <v>9.39</v>
       </c>
       <c r="G45">
-        <v>9.39</v>
+        <v>24765.95</v>
       </c>
       <c r="H45">
-        <v>24765.95</v>
+        <v>11.721719999999999</v>
       </c>
       <c r="I45">
-        <v>11.721719999999999</v>
+        <v>4.1242299999999998</v>
       </c>
       <c r="J45">
-        <v>4.1242299999999998</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="K45">
-        <v>39.299999999999997</v>
+        <v>82</v>
       </c>
       <c r="L45">
-        <v>82</v>
+        <v>2.6725400000000001</v>
       </c>
       <c r="M45">
-        <v>2.6725400000000001</v>
+        <v>14.871534714967252</v>
       </c>
       <c r="N45">
-        <v>14.871534714967252</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="O45">
-        <v>7.0000000000000009</v>
+        <v>23.1</v>
       </c>
       <c r="P45">
-        <v>23.1</v>
+        <v>1.6644458066998021E-3</v>
       </c>
       <c r="Q45">
-        <v>1.6644458066998021E-3</v>
+        <v>2.39079</v>
       </c>
       <c r="R45">
-        <v>2.39079</v>
+        <v>2.1880046426320416</v>
       </c>
       <c r="S45">
-        <v>2.1880046426320416</v>
-      </c>
-      <c r="T45">
         <v>37.5</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>1.587011290644616E-2</v>
       </c>
       <c r="C46">
-        <v>34813867</v>
+        <v>15.32</v>
       </c>
       <c r="D46">
-        <v>15.32</v>
+        <v>31.9</v>
       </c>
       <c r="E46">
-        <v>31.9</v>
+        <v>3.3</v>
       </c>
       <c r="F46">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="G46">
-        <v>1.85</v>
+        <v>49045.41</v>
       </c>
       <c r="H46">
-        <v>49045.41</v>
+        <v>4.4733599999999996</v>
       </c>
       <c r="I46">
-        <v>4.4733599999999996</v>
+        <v>6.9583500000000003</v>
       </c>
       <c r="J46">
-        <v>6.9583500000000003</v>
+        <v>15.6</v>
       </c>
       <c r="K46">
-        <v>15.6</v>
+        <v>85</v>
       </c>
       <c r="L46">
-        <v>85</v>
+        <v>1.21617</v>
       </c>
       <c r="M46">
-        <v>1.21617</v>
+        <v>8.373357719784476</v>
       </c>
       <c r="N46">
-        <v>8.373357719784476</v>
+        <v>5</v>
       </c>
       <c r="O46">
-        <v>5</v>
+        <v>35.4</v>
       </c>
       <c r="P46">
-        <v>35.4</v>
+        <v>4.3948004971697055E-3</v>
       </c>
       <c r="Q46">
-        <v>4.3948004971697055E-3</v>
+        <v>2.3900100000000002</v>
       </c>
       <c r="R46">
-        <v>2.3900100000000002</v>
+        <v>0.59875663912888499</v>
       </c>
       <c r="S46">
-        <v>0.59875663912888499</v>
-      </c>
-      <c r="T46">
         <v>45.9</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47">
         <v>6.4289917857266489E-3</v>
       </c>
       <c r="C47">
-        <v>5459643</v>
+        <v>113.13</v>
       </c>
       <c r="D47">
-        <v>113.13</v>
+        <v>41.2</v>
       </c>
       <c r="E47">
-        <v>41.2</v>
+        <v>15.07</v>
       </c>
       <c r="F47">
-        <v>15.07</v>
+        <v>9.17</v>
       </c>
       <c r="G47">
-        <v>9.17</v>
+        <v>30155.15</v>
       </c>
       <c r="H47">
-        <v>30155.15</v>
+        <v>11.11547</v>
       </c>
       <c r="I47">
-        <v>11.11547</v>
+        <v>7.1209499999999997</v>
       </c>
       <c r="J47">
-        <v>7.1209499999999997</v>
+        <v>30.1</v>
       </c>
       <c r="K47">
-        <v>30.1</v>
+        <v>86</v>
       </c>
       <c r="L47">
-        <v>86</v>
+        <v>2.87995</v>
       </c>
       <c r="M47">
-        <v>2.87995</v>
+        <v>11.371925783425766</v>
       </c>
       <c r="N47">
-        <v>11.371925783425766</v>
+        <v>8</v>
       </c>
       <c r="O47">
-        <v>8</v>
+        <v>20.5</v>
       </c>
       <c r="P47">
-        <v>20.5</v>
+        <v>4.7438999216615442E-3</v>
       </c>
       <c r="Q47">
-        <v>4.7438999216615442E-3</v>
+        <v>2.9387699999999999</v>
       </c>
       <c r="R47">
-        <v>2.9387699999999999</v>
+        <v>2.9060980727128127</v>
       </c>
       <c r="S47">
-        <v>2.9060980727128127</v>
-      </c>
-      <c r="T47">
         <v>25.2</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48">
         <v>1.8182412892773791E-2</v>
       </c>
       <c r="C48">
-        <v>2078932</v>
+        <v>102.62</v>
       </c>
       <c r="D48">
-        <v>102.62</v>
+        <v>44.5</v>
       </c>
       <c r="E48">
-        <v>44.5</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="F48">
-        <v>19.059999999999999</v>
+        <v>12.93</v>
       </c>
       <c r="G48">
-        <v>12.93</v>
+        <v>31400.84</v>
       </c>
       <c r="H48">
-        <v>31400.84</v>
+        <v>13.755610000000001</v>
       </c>
       <c r="I48">
-        <v>13.755610000000001</v>
+        <v>8.1219599999999996</v>
       </c>
       <c r="J48">
-        <v>8.1219599999999996</v>
+        <v>22.5</v>
       </c>
       <c r="K48">
-        <v>22.5</v>
+        <v>90</v>
       </c>
       <c r="L48">
-        <v>90</v>
+        <v>3.7825100000000003</v>
       </c>
       <c r="M48">
-        <v>3.7825100000000003</v>
+        <v>12.433683256595215</v>
       </c>
       <c r="N48">
-        <v>12.433683256595215</v>
+        <v>9</v>
       </c>
       <c r="O48">
-        <v>9</v>
+        <v>20.2</v>
       </c>
       <c r="P48">
-        <v>20.2</v>
+        <v>4.5696540338981744E-3</v>
       </c>
       <c r="Q48">
-        <v>4.5696540338981744E-3</v>
+        <v>4.9465200000000005</v>
       </c>
       <c r="R48">
-        <v>4.9465200000000005</v>
+        <v>3.0783888073299175</v>
       </c>
       <c r="S48">
-        <v>3.0783888073299175</v>
-      </c>
-      <c r="T48">
         <v>24.2</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49">
         <v>8.3056743093000776E-2</v>
       </c>
       <c r="C49">
-        <v>46754783</v>
+        <v>93.11</v>
       </c>
       <c r="D49">
-        <v>93.11</v>
+        <v>45.5</v>
       </c>
       <c r="E49">
-        <v>45.5</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="F49">
-        <v>19.440000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="G49">
-        <v>13.8</v>
+        <v>34272.36</v>
       </c>
       <c r="H49">
-        <v>34272.36</v>
+        <v>9.8209599999999995</v>
       </c>
       <c r="I49">
-        <v>9.8209599999999995</v>
+        <v>9.7322999999999986</v>
       </c>
       <c r="J49">
-        <v>9.7322999999999986</v>
+        <v>29.3</v>
       </c>
       <c r="K49">
-        <v>29.3</v>
+        <v>89</v>
       </c>
       <c r="L49">
-        <v>89</v>
+        <v>6.3140799999999997</v>
       </c>
       <c r="M49">
-        <v>6.3140799999999997</v>
+        <v>9.6137284179032552</v>
       </c>
       <c r="N49">
-        <v>9.6137284179032552</v>
+        <v>9</v>
       </c>
       <c r="O49">
-        <v>9</v>
+        <v>23.8</v>
       </c>
       <c r="P49">
-        <v>23.8</v>
+        <v>1.1654422607415374E-2</v>
       </c>
       <c r="Q49">
-        <v>1.1654422607415374E-2</v>
+        <v>4.8574999999999999</v>
       </c>
       <c r="R49">
-        <v>4.8574999999999999</v>
+        <v>3.1063540600755224</v>
       </c>
       <c r="S49">
-        <v>3.1063540600755224</v>
-      </c>
-      <c r="T49">
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>6.0519225647002212E-2</v>
       </c>
       <c r="C50">
-        <v>10099270</v>
+        <v>24.72</v>
       </c>
       <c r="D50">
-        <v>24.72</v>
+        <v>41</v>
       </c>
       <c r="E50">
-        <v>41</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F50">
-        <v>19.989999999999998</v>
+        <v>13.43</v>
       </c>
       <c r="G50">
-        <v>13.43</v>
+        <v>46949.279999999999</v>
       </c>
       <c r="H50">
-        <v>46949.279999999999</v>
+        <v>12.036059999999999</v>
       </c>
       <c r="I50">
-        <v>12.036059999999999</v>
+        <v>7.1797500000000003</v>
       </c>
       <c r="J50">
-        <v>7.1797500000000003</v>
+        <v>18.8</v>
       </c>
       <c r="K50">
-        <v>18.8</v>
+        <v>93</v>
       </c>
       <c r="L50">
-        <v>93</v>
+        <v>6.4299600000000003</v>
       </c>
       <c r="M50">
-        <v>6.4299600000000003</v>
+        <v>10.681857203540455</v>
       </c>
       <c r="N50">
-        <v>10.681857203540455</v>
+        <v>12</v>
       </c>
       <c r="O50">
-        <v>12</v>
+        <v>20.6</v>
       </c>
       <c r="P50">
-        <v>20.6</v>
+        <v>7.9114629077151125E-3</v>
       </c>
       <c r="Q50">
-        <v>7.9114629077151125E-3</v>
+        <v>8.0647799999999989</v>
       </c>
       <c r="R50">
-        <v>8.0647799999999989</v>
+        <v>3.7112903209835957</v>
       </c>
       <c r="S50">
-        <v>3.7112903209835957</v>
-      </c>
-      <c r="T50">
         <v>28.8</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>2.7777078087097545E-2</v>
       </c>
       <c r="C51">
-        <v>8654618</v>
+        <v>214.24</v>
       </c>
       <c r="D51">
-        <v>214.24</v>
+        <v>43.1</v>
       </c>
       <c r="E51">
-        <v>43.1</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="F51">
-        <v>18.440000000000001</v>
+        <v>12.64</v>
       </c>
       <c r="G51">
-        <v>12.64</v>
+        <v>57410.17</v>
       </c>
       <c r="H51">
-        <v>57410.17</v>
+        <v>9.3730200000000004</v>
       </c>
       <c r="I51">
-        <v>9.3730200000000004</v>
+        <v>7.3158900000000004</v>
       </c>
       <c r="J51">
-        <v>7.3158900000000004</v>
+        <v>25.7</v>
       </c>
       <c r="K51">
-        <v>25.7</v>
+        <v>94</v>
       </c>
       <c r="L51">
-        <v>94</v>
+        <v>4.8680300000000001</v>
       </c>
       <c r="M51">
-        <v>4.8680300000000001</v>
+        <v>10.958489097959031</v>
       </c>
       <c r="N51">
-        <v>10.958489097959031</v>
+        <v>9</v>
       </c>
       <c r="O51">
-        <v>9</v>
+        <v>19.5</v>
       </c>
       <c r="P51">
-        <v>19.5</v>
+        <v>6.9327149967797538E-3</v>
       </c>
       <c r="Q51">
-        <v>6.9327149967797538E-3</v>
+        <v>6.93797</v>
       </c>
       <c r="R51">
-        <v>6.93797</v>
+        <v>3.1555265639685084</v>
       </c>
       <c r="S51">
-        <v>3.1555265639685084</v>
-      </c>
-      <c r="T51">
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>1.2809010562092179E-2</v>
       </c>
       <c r="C52">
-        <f>84339067</f>
-        <v>84339067</v>
-      </c>
-      <c r="D52">
         <f>104.91</f>
         <v>104.91</v>
       </c>
-      <c r="E52">
+      <c r="D52">
         <f>31.6</f>
         <v>31.6</v>
       </c>
-      <c r="F52">
+      <c r="E52">
         <f>8.15</f>
         <v>8.15</v>
       </c>
-      <c r="G52">
+      <c r="F52">
         <f>5.06</f>
         <v>5.0599999999999996</v>
       </c>
-      <c r="H52">
+      <c r="G52">
         <f>25129.34</f>
         <v>25129.34</v>
       </c>
+      <c r="H52">
+        <v>6.7318899999999999</v>
+      </c>
       <c r="I52">
-        <v>6.7318899999999999</v>
+        <v>5.6722799999999998</v>
       </c>
       <c r="J52">
-        <v>5.6722799999999998</v>
-      </c>
-      <c r="K52">
         <f>27.2</f>
         <v>27.2</v>
       </c>
-      <c r="L52">
+      <c r="K52">
         <f>79</f>
         <v>79</v>
       </c>
+      <c r="L52">
+        <v>3.5465900000000001</v>
+      </c>
       <c r="M52">
-        <v>3.5465900000000001</v>
+        <v>10.48950722919427</v>
       </c>
       <c r="N52">
-        <v>10.48950722919427</v>
-      </c>
-      <c r="O52">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="P52">
+      <c r="O52">
         <f>32.1</f>
         <v>32.1</v>
       </c>
+      <c r="P52">
+        <v>6.8331322659758616E-3</v>
+      </c>
       <c r="Q52">
-        <v>6.8331322659758616E-3</v>
+        <v>5.0176800000000004</v>
       </c>
       <c r="R52">
-        <v>5.0176800000000004</v>
+        <v>0.91854510318450633</v>
       </c>
       <c r="S52">
-        <v>0.91854510318450633</v>
-      </c>
-      <c r="T52">
         <f>41.9</f>
         <v>41.9</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53">
         <v>5.1969586669902128E-3</v>
       </c>
       <c r="C53">
-        <v>9890400</v>
+        <v>112.44</v>
       </c>
       <c r="D53">
-        <v>112.44</v>
+        <v>34</v>
       </c>
       <c r="E53">
-        <v>34</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F53">
-        <v>1.1399999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="G53">
-        <v>0.53</v>
+        <v>67293.48</v>
       </c>
       <c r="H53">
-        <v>67293.48</v>
+        <v>4.93018</v>
       </c>
       <c r="I53">
-        <v>4.93018</v>
+        <v>7.7825500000000005</v>
       </c>
       <c r="J53">
-        <v>7.7825500000000005</v>
+        <v>28.9</v>
       </c>
       <c r="K53">
-        <v>28.9</v>
+        <v>86</v>
       </c>
       <c r="L53">
-        <v>86</v>
+        <v>2.06745</v>
       </c>
       <c r="M53">
-        <v>2.06745</v>
+        <v>7.1475757300008089</v>
       </c>
       <c r="N53">
-        <v>7.1475757300008089</v>
+        <v>4</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>31.7</v>
       </c>
       <c r="P53">
-        <v>31.7</v>
+        <v>9.4030575103130312E-4</v>
       </c>
       <c r="Q53">
-        <v>9.4030575103130312E-4</v>
+        <v>6.6512600000000006</v>
       </c>
       <c r="R53">
-        <v>6.6512600000000006</v>
+        <v>0.50433400064709211</v>
       </c>
       <c r="S53">
-        <v>0.50433400064709211</v>
-      </c>
-      <c r="T53">
         <v>32.5</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54">
         <v>7.2014844179074083E-2</v>
       </c>
       <c r="C54">
-        <v>67886004</v>
+        <v>272.89999999999998</v>
       </c>
       <c r="D54">
-        <v>272.89999999999998</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E54">
-        <v>40.799999999999997</v>
+        <v>18.52</v>
       </c>
       <c r="F54">
-        <v>18.52</v>
+        <v>12.53</v>
       </c>
       <c r="G54">
-        <v>12.53</v>
+        <v>39753.24</v>
       </c>
       <c r="H54">
-        <v>39753.24</v>
+        <v>9.6683400000000006</v>
       </c>
       <c r="I54">
-        <v>9.6683400000000006</v>
+        <v>12.07241</v>
       </c>
       <c r="J54">
-        <v>12.07241</v>
+        <v>22.3</v>
       </c>
       <c r="K54">
-        <v>22.3</v>
+        <v>92</v>
       </c>
       <c r="L54">
-        <v>92</v>
+        <v>7.0329899999999999</v>
       </c>
       <c r="M54">
-        <v>7.0329899999999999</v>
+        <v>8.31342459043546</v>
       </c>
       <c r="N54">
-        <v>8.31342459043546</v>
+        <v>9</v>
       </c>
       <c r="O54">
-        <v>9</v>
+        <v>27.8</v>
       </c>
       <c r="P54">
-        <v>27.8</v>
+        <v>7.6274927008518579E-3</v>
       </c>
       <c r="Q54">
-        <v>7.6274927008518579E-3</v>
+        <v>9.609</v>
       </c>
       <c r="R54">
-        <v>9.609</v>
+        <v>3.863494601921186</v>
       </c>
       <c r="S54">
-        <v>3.863494601921186</v>
-      </c>
-      <c r="T54">
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>7.1634774570246862E-2</v>
       </c>
       <c r="C55">
-        <v>331002647</v>
+        <v>35.61</v>
       </c>
       <c r="D55">
-        <v>35.61</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="E55">
-        <v>38.299999999999997</v>
+        <v>15.41</v>
       </c>
       <c r="F55">
-        <v>15.41</v>
+        <v>9.73</v>
       </c>
       <c r="G55">
-        <v>9.73</v>
+        <v>54225.45</v>
       </c>
       <c r="H55">
-        <v>54225.45</v>
+        <v>12.09506</v>
       </c>
       <c r="I55">
-        <v>12.09506</v>
+        <v>11.03693</v>
       </c>
       <c r="J55">
-        <v>11.03693</v>
+        <v>21.8</v>
       </c>
       <c r="K55">
-        <v>21.8</v>
+        <v>92</v>
       </c>
       <c r="L55">
-        <v>92</v>
+        <v>6.1430600000000002</v>
       </c>
       <c r="M55">
-        <v>6.1430600000000002</v>
+        <v>12.157489263220304</v>
       </c>
       <c r="N55">
-        <v>12.157489263220304</v>
+        <v>17</v>
       </c>
       <c r="O55">
-        <v>17</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="P55">
-        <v>36.200000000000003</v>
+        <v>1.2272107298283931E-2</v>
       </c>
       <c r="Q55">
-        <v>1.2272107298283931E-2</v>
+        <v>10.352639999999999</v>
       </c>
       <c r="R55">
-        <v>10.352639999999999</v>
+        <v>6.9071103682140649</v>
       </c>
       <c r="S55">
-        <v>6.9071103682140649</v>
-      </c>
-      <c r="T55">
         <v>41.1</v>
       </c>
     </row>
